--- a/output/Total_time_range_data/湖南省/怀化市_学习考察.xlsx
+++ b/output/Total_time_range_data/湖南省/怀化市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,5854 +436,6405 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>185</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>新晃赴镇远古城考察学习文化旅游开发</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2012-04-02</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/wlgdtj/c108768/201204/a98c92f6418f4a67bd76cf1e973b0554.shtml</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['5月7日，新晃县夜郎办歌舞组成员在县文化局局长兼组长杨先尧同志带领下，利用星期六休息时间专程赴贵州镇远县学习考察歌舞文化对发展旅游业的先进做法和成功经验。 考察过程中，考察小组一行8人认真听取了镇远县文化广播体育旅游局胡局长的经验介绍，围绕镇远歌舞文化方面问题进行了广泛深入的交流，实地参观了镇远县旅游景区、一条龙的农家乐观光休闲中心建设情况等。 通过学习考察，同行人员感慨很深，大家都认为要进一步开拓思路，解放思想，激发干劲，不讨论、不争论、不等待，要静下心来一心一意搞好新晃夜郎歌舞文化开发，加深认识到旅游强县可以起到一业兴带百业旺的关联带动作用，不断推进经济社会全面协调与可持续发展。贵州镇远县委、县政府领导高度重视旅游开发工作，以文化开发工作为抓手，以项目建设为动力，明确组织，立足优势，突出重点，加大政府投入，强化政策扶持，取得了成功，获得了良好的经济与社会效益。据介绍该县的旅游收入自2009年来以快速增长，平均涨幅达到60%。其中歌舞文化产业以打造一台歌舞剧《古韵镇远》门票收入每天达到36000元。我们将借鉴镇远的做法与经验，立足新晃夜郎侗文化特色资源，积极配合好玖联集团企业打造文化旅游的夜郎歌舞精品，做实古夜郎旅游强县龙头品牌，推动我县旅游事业又好又快发展。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>185</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>怀化市科技局赴衡阳株洲常德学习考察</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2014-07-18</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/kjj/c100641/201407/2f0a27a5ebe248ba9c9da33a945c9e74.shtml</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['为学习兄弟市州在科技项目包装、扶持企业发展、创新创业团队建设以及建立博士科研流动站和院士工作站等方面的先进经验，7月13日-16日，由市政府副秘书长杨世木带队，市政府文教办、市科技局部分班子成员及相关科室负责人共12人组成的考察组赴衡阳、株洲、常德三市开展学习考察。', '所到之处，学习考察组都认真听取兄弟市先进经验情况介绍，就如何包装科技项目，如何发挥财政科技投入效益、扶持企业快速发展，如何引进科技创新团队等问题与所到市的科技局领导和科室负责人进行了深入交流，并实地考察了一些园区、企业和工作站。在衡阳，实地考察了位于衡阳县的国家农业科技园区；在株洲，实地考察了南车株洲电力机车有限公司；在常德，实地考察了湖南文理学院的省级院士工作站和金鹏印务有限公司的博士创新团队。', '通过学习考察，大家一致认为，这次学习考察很有必要，也非常有效果，4天时间虽然短暂，但很扎实，收获很大。不仅学到了兄弟市州科技管理的具体做法和先进经验，还加深了双方之间的了解，弥补了人员不熟、信息不畅的缺陷，增进了友谊。同时，进一步提振了工作信心，认识到科技工作在调结构、转方式、稳增长方面的巨大作用，明确了努力方向。并表示，考察学习后，要把兄弟市州好的做法和先进经验运用到工作中，加快推进厅市会商机制建设的步伐，重点围绕生物医药、绿色食品、竹木加工和现代种业四大特色产业的发展，突出抓好国家级农业科技园区的创建，进一步加大科技创新平台、科技创新团队建设的力度，加大科技项目物色、储备和包装力度，发挥好财政科技投入的作用，为引导企业技术进步，支撑经济社会发展发挥更加积极的作用。（市科技局供稿）']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>185</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>广西三江县科技局来通道县考察学习</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2015-05-11</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/kjj/c100641/201505/af2be73dfd2a423181da07a68d827619.shtml</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['5月6日-7日，广西三江县科技局局长杨子锋一行6人来到通道考察科技项目管理工作。 6日下午，杨子锋一行来到通道县科技局，考察申报国家科技富民强县项目及创建省级农业科技园，并咨询了相关申报流程、规划、发展主题及项目管理等。通道科技局党组书记、局长就今年的科技项目做了详细介绍，对提出的问题一一作答。在随后的经验交流会中，两局分别讨论了各自在科技创新项目准备及申报中的心得、经验和感悟，用自己科创成绩阐释了各自独特的创新之路。两局人员分别表示受益匪浅，对双方科技创新有了更深一步的了解。 7日上午，在通道县科技局负责人的陪同下，杨子锋一行还实地考察了通道惠龙兔业、源田生蔬菜、玫瑰园等三家企业。杨子锋局长表示：通道这几年在科技项目申报和管理方面积累了丰富经验，成效显著，特别是省级农业科技园区的创建及国家科技富民强县项目的申报管理非常值得学习和借鉴。此次通道之行受益匪浅，回去后，将借鉴通道好的经验和做法，将科技创新理念贯穿到科技工作各个方面，继续抓好科技项目的申报和管理工作。', '6日下午，杨子锋一行来到通道县科技局，考察申报国家科技富民强县项目及创建省级农业科技园，并咨询了相关申报流程、规划、发展主题及项目管理等。通道科技局党组书记、局长就今年的科技项目做了详细介绍，对提出的问题一一作答。在随后的经验交流会中，两局分别讨论了各自在科技创新项目准备及申报中的心得、经验和感悟，用自己科创成绩阐释了各自独特的创新之路。两局人员分别表示受益匪浅，对双方科技创新有了更深一步的了解。', '7日上午，在通道县科技局负责人的陪同下，杨子锋一行还实地考察了通道惠龙兔业、源田生蔬菜、玫瑰园等三家企业。杨子锋局长表示：通道这几年在科技项目申报和管理方面积累了丰富经验，成效显著，特别是省级农业科技园区的创建及国家科技富民强县项目的申报管理非常值得学习和借鉴。此次通道之行受益匪浅，回去后，将借鉴通道好的经验和做法，将科技创新理念贯穿到科技工作各个方面，继续抓好科技项目的申报和管理工作。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>185</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>靖州县考察团学习芷江县精准扶贫工作</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2016-03-27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101116/201603/fbe4f5d55d6945a8a343694d13fd6137.shtml</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['3月23日，靖州县委书记张远松带领相关部门、乡镇负责人组成的考察团赴芷江县考察学习精准扶贫工作。', '考察团实地考察了芷江县三道坑镇五郎溪村的村容村貌建设和产业扶贫情况，听取了当地负责人对精准扶贫工作特色亮点和先进经验的情况介绍，并就如何推进好精准扶贫工作进行深入交谈探讨。', '通过考察学习，考察团认为，芷江县通过精准识别扶贫对象、精准确定目标任务、精准确定扶贫内容、创新扶贫模式等措施，牢牢把握了精准扶贫重点， 最大限度挖掘、运用了各方面的资源和力量，加快了精准扶贫工作的步伐。考察团表示将认真学习、总结、梳理，把芷江县的好经验、好做法带回来，进一步改进和 完善靖州县精准扶贫等各项工作。', '随后，考察团成员在芷江宾馆会议室召开座谈会，与会人员围绕考察学习内容，结合自身实际积极进行总结分析，为推进下步扶贫工作拓宽了思路。张远 松要求，要认识不足，找准差距，善于学习，高度重视，严格按照中央和省、市相关要求，扎实推进精准扶贫工作；要狠抓落实、精准识贫，精准施策，抓好精准扶 贫各项工作的细化落实；要尽快抓好每乡一村的规范化展示阵地建设；要将进一步落实扶贫产业到户到人；要进一步落实好精准识贫；要进一步学习好芷江县的“一 看二算三评”和“一看五评”方法。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>185</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>通道县到贵州三穗考察学习诚信计生工作</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2014-06-30</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/wsjkw/c100577/201406/b71d5f3e63a74d43af962f2c0c8e6c0d.shtml</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['考察组参观滚马乡响水村诚信计生工作。 考察组在滚马乡响水村学习诚信计生工作。 在八弓镇星光村进行诚信计生交流座谈。', '6月26日，通道县计生局、计生协，临口、菁芜洲、马龙三个试点乡镇，石壁、地朗坪、辰口三个试点村一行18人来到贵州省三穗县学习考察诚信计生工作。 在三穗县计生局党组书记罗国永的带领下，考察组一行来到该县“双诚信双承诺”工作示范点滚马乡响水村、八弓镇星光村，实地参观了“双诚信、双承诺”创建工作，具体了解该县“双诚信双承诺”工作模式、开展情况和取得的实效。在滚马乡响水村，乡党政一把手详细介绍了该乡实施诚信计生的具体做法和措施；在八弓镇星光村，举行了“诚信计生”工作经验交流座谈会。罗书记说，在三穗县县委、县政府的大力支持下，该县用两年的时间建立了县、乡、村为纵向、各级职能部门为横向的诚信计生服务网络，按照“守信受益，失信受制”原则，为诚信计生户建立畅通无阻的绿色通道，诚信计生户凭《诚信计生证明》优先办理各项社会事务。通过实施“双诚信、双承诺”的诚信计生工作机制，计生家庭享受到更多的优先优惠政策，人口计生工作得到广大协会会员、育龄群众的广泛支持和充分肯定，从而推动人口计生工作实现质的飞跃。 考察结束后，通道县将以三穗县的工作经验为参考，结合县乡工作实际，尽快落实“诚信计生”试点工作，以点带面，全力推行“诚信计生”，全面提升人口计生工作水平。（杨通彬）']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>185</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>怀化市党政代表团赴毕节学习考察精准扶贫</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2015-07-23</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101111/201507/b5de38a0d9e746d5bc4e336f7704125b.shtml</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['为贯彻落实习近平总书记今年6月到贵州考察时关于加快扶贫工作的指示精神，学习借鉴贵州在精准扶贫方面好的做法、好的经验，促进怀化的扶贫攻坚，7 月21 日至22 日，我市党政代表团赴贵州省毕节市学习考察精准扶贫工作。市领导赵应云、邹吉忠、王行水参加学习考察。毕节市委副书记李建，毕节市人大常委会副主任王炳荣陪同考察。', '来到毕节双山新区，这里绵延数公里的职教城引起了代表团成员的关注。该项目规划建设面积10 平方公里，致力于贫困农户劳动力的就业培训，目前入驻学生1 万多人，树立起了毕节“扶贫先扶智”的典范。', '“怀化的职教城也在建设，毕节在职教城建设方面的做法和经验，值得我们学习。”、“职教城培养有技术的劳动力，为产业发展提供人力支撑，是决战贫困的一个突破口。”考察中，代表团边看边听，并不时交流自己的想法。', '走进毕节七星关区的现代高效农业示范园，园内150 多公斤重的一个个南瓜，5 米多长的一条条蛇瓜，以及诸多其他蔬菜瓜果展现出的丰收景象，让人眼前一亮。该示范园区核心区规划超万亩，800 多人长期在园区务工，2014 年，当地完成2500 人贫困人口脱贫。', '“怀化是农业大市，在现代农业上有很多文章可做，关键是要说干就干，不能停留在口号上。”考察中，赵应云指出，怀化要充分发挥自身农产品和劳动力丰富的资源优势，借助科技力量，精心组织，走科技兴农，产业富农的路子，把现代农业做大做强，促进农民特别是贫困人口的增收。', '贫困人口怎么识别？这是扶贫工作中的一个重要环节，毕节市朱昌镇双堰村探索出了精准识贫的“四看法”：一看房，二看粮，三看劳动力强不强，四看家中有没有读书郎。', '“对家中没有劳动力的，你们怎么帮助他们脱贫？”、“金融机构给农民的贷款，谁来做担保？”在双堰村，代表团仔细询问了该村在精准扶贫方面情况，积极主动与当地干部交流精准扶贫工作措施和方法。当地村干部介绍，双堰村在精准识贫的基础上，有针对性地开展产业扶贫，金融扶贫和教育扶贫，2014 年实现175 人脱贫。', '考察中，赵应云说，毕节市长期以来直面扶贫攻坚任务，合力攻坚，探索出了精准扶贫的一系列模式和经验，特别是瞄准贫困对象，突出生态移民扶贫、产业扶贫、基础设施建设来推动经济发展和扶贫攻坚，扶贫工作扶到点上、扶到根上，真正做到了精准识贫、精准扶贫、精准脱贫。这些好的做法和好的经验值得怀化学习，同时他希望两地以后加强交流，促进两地扶贫工作的进一步提升。', '在毕节期间，我市党政代表团还考察了贵州乌蒙山生物医药产业园，大方县羊肠镇羊肠村中药材品种繁育基地。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>185</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>市社迎接兄弟单位参观考察交流学习促发展</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2018-11-21</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gxs/c110030/201811/0f27378660d44aad90709e1a1b885956.shtml</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['11月20日，湘西州社党组书记、理事会主任符启银一行4人来到我社考察交流综合改革相关工作。我社分管领导及科室负责人详细介绍了综合改革工作情况，并就农村合作经济组织联合会进行了深入交流。', '考察人员参观了我市农村合作经济组织联合会成员单位九丰农博园，考察人员认为我社的农合联工作值得学习和借鉴。', '通过此次活动，密切了双方的联系，为今后工作上的学习交流和互相促进提供了平台，为共同推进综合改革工作再上新台阶提供了保障。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>185</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>市检测中心人员赴广东四地检测机构考察学习</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2017-07-20</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/nyncj/c108769/201707/5fbc03b10c384f3aac7101211fe60efc.shtml</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['随着怀化市农产品质量检验检测中心项目建设逐步进展，为充分利用现有资源，保证实验室建设质量，我中心四名检测人员于2017年7月11日至14日，先后考察了韶关市农产品质量安全监督检验测试中心、清远市农产品质量检验检测中心、广东省农科院农产品检测中心、东莞市农业检验检测所，并与各单位负责人员进行座谈交流。', '在考察学习过程中，我中心人员首先在各中心负责人的带领下参观了各中心的实验室，并听取有关实验室的建设情况和经验介绍，着重学习考察了实验室的 “三废”的处理措施。', '考察参观完实验室后，我中心人员还与各中心负责人举行了会谈，交流了实验室的运行和管理经验。', '在这次考察学习活动中，我中心汲取了很多有关实验室建设的经验和教训，并总结出我中心实验室在未来进行建设时需要注意的各种事项。我们有信心将未来的怀化市农产品质量检验检测中心建设成为武陵源片区的一流农产品检测机构。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>185</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>通道县来鹤城考察学习</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2019-01-11</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101116/201901/c731bab3164a41ee805aea6ecfd6674c.shtml</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['1月8日，通道县委常委、县委办主任廉飞，副县长吴志勇一行11人来到鹤城区，就社区改革及社区建设考察学习。区委常委、区委办主任刘志宏，副区长肖明陪同。', '通道县考察组一行先后来到迎丰街道办事处莲花池社区、坨院街道办事处城东社区实地参观交流。', '通过参观学习，考察组认为，鹤城区在推动社区综合配套改革工作中，以党建为核心，不断加强社区党组织建设，积极稳妥落实各项改革任务，营造推进改革良好氛围，激发社区工作活力，更好地为社区居民提供生活、生产服务，值得他们学习，他们一定将好的经验和做法带回去，推动好社区建设。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>185</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>怀化市社赴娄底邵阳考察学习</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2019-04-12</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gxs/c110030/201904/c57996ca381e42db92ce0ca30ab3bb78.shtml</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['在乡村振兴战略实施过程中，中央18部委联合下文明确了各级供销社在农村生活垃圾回收处理由供销社负责承担实施任务，此项工作如何开展更有捷径，达到事半功倍的效果。4月9日至10日，怀化市社党组书记、理事会主任曾祥元带队组成考察组，先后到娄底、邵阳两地市社进行考察学习，通过查阅资料、座谈交流、现场查看等方式，形成很好的考察意见：', '娄底模式：1、领导极为重视，特别是分管供销社工作的市政府领导，全力支持供销社开展该项工作，先后召开多次协调会，形成政府会议纪要；2、下文明确任务，娄政办发〔2019〕5号文件《关于开展农村生活垃圾分类处理工作意见》和《娄底市农村低值可回收物和有害垃圾回收处理暂行办法》，规定动作由供销社全面实施完成；3、财政大力支持，市政府常务会议明确，从环境整建办工作经费中切割1000万元，交由供销社实施管理；4，要求完成时限，在各方调研规划的基础上，要求供销社开展此项工作并全面实施完成的期限不得超过今年7月底。', '邵东县模式：1、邵东县敢为人先，他们在2017年下半年就在全县开展实施该项工作，且已取得了明显社会效益和经济效益“双丰收”的成效；2、市委、市政府高度重视，在去年9月专门在邵东县召开现场会，各县市区书记、县长及分管供销社工作副书记、副县（市）长和相关部门负责人参加的工作会议，推动力度相当大；3、在农村布点全面开展，到目前为止已在全县22个乡镇了回收网点160个，回收各类废旧物品达5761.2吨，为农民增收385.48万元，帮助乡镇节约垃圾转运费143.53万元；4、邵东县支持力度实在，规定由乡镇分管农业副乡（镇）长担任恢复了组织功能的乡（镇）供销社主任，按市场经济运行模式搭建工作班子。各村无偿给回收站提供场地（含地面硬化），并协调解决具体工作矛盾，明确乡村保洁员为各站点回收员，由供销社负责管理，成功改造后的惠民中心转型为垃圾回收站点、农资供应和商业超市为一体的综合便民服务点；5、市场运行较为规范，县社与一家在经营能力、服务经验、资金技术的企业签订了战略合作框架协议书，组建了邵东县同创再生资源公司，并和各乡镇签订了回收管理合同，实现了全县“一盘棋”，杜绝过去五花八门现象，规范管理有序。', '考察组通过娄底、邵阳两地再生资源回收开展情况考察学习后，针对怀化市实际情况，初步拟定了下步工作设想：1、向市政府做好农村垃圾回收实质性实施开展相关工作汇报，力求向“两地”学习，吸取成功经验；2、作好系统宣传发动，实质性推广开展，召开系统分区域推进会，或组织县市区社到“两地”和浙江金华市考察学习，增强实质性操作技巧；3、招商引资选择一家有实力、有经营、有创新企业（或个人）作为怀化市回收利用经营管理战略合作对象；4、做好规划选址前期准备工作，市社于本月初到城郊相关地段进行选址前期考察，并同符合选址要求地点的县政府及相关部门进行工作沟通，减轻企业前期报规报建压力，缩短建设时间，确保精力、财力集中投入，高效快速实施。', '在考察学习期间，得到了娄底市社、邵阳市社热情接待，传经送宝，充分体现了“天下供销是一家”精神风貌，同创供销工作又一个美好明天。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>185</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>黎春秋带队赴宁乡考察学习</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2024-06-04</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101113/202406/bceb3847b37640338d44e309fee9d079.shtml</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['（6月2日至3日，市委副书记、市长黎春秋率市直有关部门、各县（市、区）政府、产业园区、重点企业主要负责人赴宁乡经济技术开发区考察学习“五好”园区建设助力新质生产力发展工作。图为在楚天科技股份有限公司考察学习。）', '6月2日至3日，市委副书记、市长黎春秋率市直有关部门、各县（市、区）政府、产业园区、重点企业主要负责人赴宁乡经济技术开发区考察学习“五好”园区建设助力新质生产力发展工作。宁乡市（区）领导张作林、张毅、黄滔；怀化市领导邹兴旺、市政府秘书长马源参加。', '3日上午，黎春秋一行先后来到楚天科技股份有限公司、康师傅热饮生产基地、长沙格力暖通制冷设备有限公司、湖南中伟新能源科技有限公司、长沙美妆谷，实地考察学习“五好”园区建设、产业发展、企业管理、安全生产和新质生产力培育等方面的先进经验。', '3日下午，在楚天科技股份有限公司生产一线厂房，宁乡经济技术开发区党工委副书记、管委会主任张毅介绍了经济发展情况，楚天科技股份有限公司董事长唐岳以“怀揣理想来 奔向目标去”为题作专题辅导，为怀化育强企业、建强园区、做强产业提供了有益借鉴。', '黎春秋表示，组织这次考察学习，是开展“怀化企业家日”系列活动的重要内容，是提升培育和发展新质生产力能力的有效举措。要借好“他山之石”，充分学习吸收宁乡市在“五好”园区建设以及楚天科技等企业在科技创新、管理运营上的先进经验，把握企业与园区“共生共荣”、产业与就业“相互促进”的关系，强化企业创新主体地位，推动科技创新和产业创新深度融合，以高质量产业带动高质量就业、提升市民素质，努力培育彰显怀化特色的新质生产力。怀化是湖南对接东盟的重要口岸，是一座包容开放的城市，欢迎宁乡与怀化携手并进、共谋发展，帮助更多企业“借船出海”、扬帆远航，让西部陆海新通道成为双方互联互通、互利共赢之路。', '张作林、张毅表示，怀化作为湖南的“西大门”，有着深厚的历史文化底蕴和优美的自然环境。近年来，怀化把国际陆港作为内陆改革开放高地的标志性工程来打造，形成了“依托双通道、对接两大洋、服务双循环”的对外开放新格局，奋力上演“转身向海、驶向蔚蓝”的精彩蝶变。新一届宁乡市委将始终坚持“工业强市、幸福宁乡”发展定位和“建设省会副中心、挺进全国前十强”发展目标，确保不断延续宁乡良好的发展势头。希望双方能够以此次活动为契机，进一步加强产业发展、文化旅游、园区建设等方面的对接互动，携手开创合作共赢的崭新局面。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>185</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>临澧县考察组赴麻阳县考察学习计生工作</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2017-01-22</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/wsjkw/c119252/201701/e8850a603f2c4ea0af207e107b1e3198.shtml</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['1月18日，常德临澧县卫生计生局常务副局长张兴金一行9人来麻阳县考察学习计生工作，县卫生计生局常务副局长舒晓利参加陪同。 考察组首先在县纪委会议室观看了“互联网+计生征信体系”平台运行，县纪委工作人员为考察组详细讲解了该平台的功能、特点和应用等情况，借助“互联网+”技术，麻阳县将诚信计生信息数据与各部门终端数据对接，构建全县“互联网+计生征信体系”大数据信息共享平台，建立起守信激励和失信约束的奖惩机制，有力推进了计划生育信用体系建设，有效解决了新时期下计生工作难题。随后，在县卫生计生局二楼会议室召开了座谈会，双方就诚信计生、计划生育优质服务等方面的工作进行了深入交流。 考察组对麻阳县诚信计生工作给予了高度评价，特别是“互联网+计生征信体系”创新思路和经验做法更是值得学习和借鉴，表示回去后将借鉴先进经验创新管理，加强沟通学习交流，促进两地计生工作再上新台阶、再上新水平。（陈晟程）']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>185</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>黎春秋带队赴宁乡考察学习</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2024-06-11</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gyxxhj/c100641/202406/03951584207b42968ce8b34bd93249b0.shtml</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['（6月2日至3日，市委副书记、市长黎春秋率市直有关部门、各县（市、区）政府、产业园区、重点企业主要负责人赴宁乡经济技术开发区考察学习“五好”园区建设助力新质生产力发展工作。图为在楚天科技股份有限公司考察学习。）', '怀化日报全媒体讯 6月2日至3日，市委副书记、市长黎春秋率市直有关部门、各县（市、区）政府、产业园区、重点企业主要负责人赴宁乡经济技术开发区考察学习“五好”园区建设助力新质生产力发展工作。宁乡市（区）领导张作林、张毅、黄滔；怀化市领导邹兴旺、市政府秘书长马源参加。', '3日上午，黎春秋一行先后来到楚天科技股份有限公司、康师傅热饮生产基地、长沙格力暖通制冷设备有限公司、湖南中伟新能源科技有限公司、长沙美妆谷，实地考察学习“五好”园区建设、产业发展、企业管理、安全生产和新质生产力培育等方面的先进经验。', '3日下午，在楚天科技股份有限公司生产一线厂房，宁乡经济技术开发区党工委副书记、管委会主任张毅介绍了经济发展情况，楚天科技股份有限公司董事长唐岳以“怀揣理想来 奔向目标去”为题作专题辅导，为怀化育强企业、建强园区、做强产业提供了有益借鉴。', '黎春秋表示，组织这次考察学习，是开展“怀化企业家日”系列活动的重要内容，是提升培育和发展新质生产力能力的有效举措。要借好“他山之石”，充分学习吸收宁乡市在“五好”园区建设以及楚天科技等企业在科技创新、管理运营上的先进经验，把握企业与园区“共生共荣”、产业与就业“相互促进”的关系，强化企业创新主体地位，推动科技创新和产业创新深度融合，以高质量产业带动高质量就业、提升市民素质，努力培育彰显怀化特色的新质生产力。怀化是湖南对接东盟的重要口岸，是一座包容开放的城市，欢迎宁乡与怀化携手并进、共谋发展，帮助更多企业“借船出海”、扬帆远航，让西部陆海新通道成为双方互联互通、互利共赢之路。', '张作林、张毅表示，怀化作为湖南的“西大门”，有着深厚的历史文化底蕴和优美的自然环境。近年来，怀化把国际陆港作为内陆改革开放高地的标志性工程来打造，形成了“依托双通道、对接两大洋、服务双循环”的对外开放新格局，奋力上演“转身向海、驶向蔚蓝”的精彩蝶变。新一届宁乡市委将始终坚持“工业强市、幸福宁乡”发展定位和“建设省会副中心、挺进全国前十强”发展目标，确保不断延续宁乡良好的发展势头。希望双方能够以此次活动为契机，进一步加强产业发展、文化旅游、园区建设等方面的对接互动，携手开创合作共赢的崭新局面。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>185</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>考察学习取真经借鉴经验促提升</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2018-06-12</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/jtj/c108772/201806/b812c44d913045308f6a253dc517c8c8.shtml</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['为积极贯彻落实习近平总书记关于“建好、管好、护好、运营好”农村路的重要指示精神，全力推进新晃“四好农村路”建设工作。近日，由新晃县人民政府副县长张世湘带队交通、公路、运管部门共10人，赴贵州湄潭县考察学习当地“四好农村路”建设方面的成功经验。', '考察组一行通过询问交流、实地观摩、查阅资料等方式，详细了解到湄潭县在推进“四好农村路”方面的具体做法。一是政府主导、部门联动，形成创建合力；二是因地制宜、合理规划，打造四好公路；三是注重品质、提升内涵，建设生态景观；四是融合转型、创新驱动，助推县域发展。同时，考察组一行听取了湄潭县在“四好农村路”建设、管理、养护、运营及资金来源等方面的介绍，大家一致认为，湄潭县“四好农村路”创建工作呈现出自己的亮点，特别是为助力脱贫攻坚、促进旅游发展和美丽乡村建设创造了许多可借鉴、可复制、可推广的宝贵经验，起到了良好的示范作用。考察组表示，将认真借鉴、吸取先进经验，结合自身实际，融会贯通，努力推动我县“四好农村路”建设工作迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>185</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>胡瑜处长一行赴长沙博物馆考察学习</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2016-05-27</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/wlgdtj/c108768/201605/1ec03caf7bbd41888e3726293a1cef14.shtml</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['为了发展公共文化设施，怀化市拟修建博物馆新馆，并将原博物馆实施改建，继续发挥文化功能。5月18日，为学习交流博物馆建设、陈列设计和管理经验，怀化市文体广新局党组成员、市文物处处长、市博物馆馆长胡瑜率队赴长沙博物馆考察学习。', '胡瑜处长实地参观考察了长沙博物馆陈列展厅、服务设施、办公场所、文物库房等功能区域，并就博物馆的资金来源、运营维护、陈列展览、安全防范、岗位设置、人才培养、宣传教育等方面与该馆负责同志进行了深入座谈。', '最后，胡瑜处长对长沙博物馆分享的博物馆工作经验表示衷心感谢，表示这些经验将在怀化博物馆新馆的建设和未来管理中发挥重要的参考作用。他希望两地在今后文博工作中进一步保持联系、加强交流，同时诚挚地邀请长沙博物馆的同志来怀考察指导工作。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>185</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>怀化市党政代表团赴永州学习考察</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-11-05</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101112/202311/76ee305e4a074706875d00652e15232c.shtml</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['（11月2日下午至4日上午，怀化市党政代表团赴永州学习考察。图为怀化市党政代表团在江华瑶族自治县了解“一主一特”产业发展等情况。怀化日报全媒体记者 杨智伟 摄）', '11月2日下午至4日上午，怀化市党政代表团赴永州学习考察。永州市委书记朱洪武，怀化市委书记许忠建，永州市委副书记、市长陈爱林，永州市委副书记、市委统战部部长侯文，怀化市人大常委会主任李万千，怀化市政协主席印宇鹰参加有关活动。', '考察中，朱洪武代表永州市委、市政府对怀化市党政代表团表示欢迎。他说，永州和怀化是“兄弟市”，长期以来人员往来频繁、经贸合作密切，形成了携手并进、合作发展的好局面。近年来，怀化市委、市政府全面贯彻落实习近平总书记关于湖南工作的重要讲话和指示批示精神，锚定“三高四新”美好蓝图，深入实施“五新四城”战略，加快建设怀化国际陆港，着力打造对接东盟的战略平台，积极融入共建西部陆海新通道，经济社会各项事业取得了新进步，许多好经验好做法值得永州学习借鉴。近年来，永州坚持以习近平新时代中国特色社会主义思想为指导，全面落实“三高四新”美好蓝图，牢牢把握“六大战略支点”，抓紧抓实高质量发展这个首要任务，奋力建设现代化新永州。当前，全市上下坚持把发展产业当使命、抓项目建设像拼命、视营商环境如生命，聚焦“一主一特”产业，精心培育五大千亿产业，奋力推动经济实现质的稳步提升和量的合理增长。希望两市以此次考察交流为契机，深化对接互动，拓宽合作领域，以更大力度、更实举措推动优势互补、互利共赢，携手走好高质量发展之路。', '许忠建代表市委、市政府向永州长期以来对怀化工作的大力支持表示感谢。他说，近年来，永州深入学习贯彻党的二十大精神和习近平总书记关于湖南工作的重要讲话和指示批示精神，抓紧抓实高质量发展这个首要任务，牢牢把握“六大战略支点”，建设现代化新永州取得新成效，呈现了改革开放活力迸发、产业发展蹄疾步稳、政治生态风清气正的良好局面。怀化与永州是山水相连的“好邻居”、地缘相近的“好兄弟”、携手共进的“好伙伴”，两地在发展定位、战略目标、产业重点上有很多相似和互补之处。当前，怀化正深入贯彻落实党的二十大精神，锚定“三高四新”美好蓝图，深入实施“五新四城”战略，充分发挥怀化国际陆港战略支点作用，加快构建“5十N”现代化产业体系和区域协调发展体系，着力打造“国际种业之都”“国际箱包之都”，全力推动高水平开放高质量发展。怀化将以本次学习考察为契机，认真借鉴永州市的好做法、好经验、好作风，与永州深化战略规划对接互动，推动两地资源共享、优势互补、联动合作，共同为湖南推进内陆地区改革开放高地建设作出新贡献。', '在永州期间，怀化市党政代表团先后在零陵、祁阳、冷水滩、双牌、江华等地，考察了零陵古城、祁阳大联纺织有限公司、祁阳东骏纺织有限公司、唐家山油茶产业园、湖南益安运动用品有限公司、祁阳住信电气有限公司、祁阳市交通小区、永州陆港、永州国际农产品智慧冷链物流中心、双牌县茶林镇桐子坳村、江华县规划展示馆、中稀（湖南）稀土开发有限公司、江华绿宝石新能源储能科技有限公司、湖南丰辉电机有限公司、江华长锦成产业园，了解县域特色产业发展、陆港规划建设发展、文旅融合发展、招商引资、美丽乡村建设、老旧小区改造等情况。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>185</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>全市政务服务中心来鹤考察学习</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-03-22</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101116/202303/65892fdfb2434f88854c9a768e59c17d.shtml</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['3月22日，怀化市政务服务中心组织各县市区、怀化高新区、怀化国际陆港经开区政务服务中心来鹤城区考察学习政务服务大厅及主城区“15分钟政务服务圈”建设工作。', '考察组一行先后到区政务服务中心、城东社区、坨院街道进行考察参观，就各办事大厅的建设、运行、维护、管理等情况进行了实地查看，对鹤城区“15分钟政务服务圈”建设工作取得的成效给予了充分肯定。', '在区政务服务中心，考察组一行实地参观了中心整体布局，查看了窗口设置、帮代办服务、“互联网+政务服务”运用、“办不成事”投诉反映机制等情况。在行政审批服务大厅，详细了解了我区“前台综合受理、后台分类审批、窗口统一出件”的“一窗式”改革创新，对我区“在一个窗，办一揽子事”的服务品牌予以高度评价。', '下一步，鹤城区政务服务中心将以此次考察学习为契机，深入贯彻党的二十大精神，以深化“放管服”改革为牵引，争创最优政务服务营商环境，充分释放利企便民实效，树立“身在鹤城、一办就成”政务服务品牌，为谋划怀化市政务服务发展大局贡献鹤城力量。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>185</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>市社赴十八洞村学习考察精准扶贫工作</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2018-11-23</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gxs/c110030/201811/5c40e51de987409996abc3b5d2245ebf.shtml</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['11月23日，怀化市供销合作社组织机关干部职工、驻村帮扶工作队、乡镇、村支两委等共28人赴湘西土家族苗族自治州花垣县双龙镇十八洞村，考察学习当地的精准扶贫先进工作经验。', '沿着习近平总书记留下的足迹，全体考察人员参观了村部、电商服务站、村镇银行等，切身感受到了精准扶贫政策给十八洞村带来的巨大变化。在现场，当地的扶贫专干现场讲解还原了习近平总书记在十八洞村考察的精彩场景，还介绍了十八洞村的四个脱贫模式，即开展思想建设星级化管理模式、跳出十八洞建设十八洞模式、十八洞建设资金整合模式及十八洞“113”工程助推乡村旅游发展模式。', '通过这次学习考察，全体考察人员进一步体会到了十八洞村的扶贫精神，一致认为此次考察收获颇丰，十八洞村的脱贫工作亮点突出，成效斐然，纷纷表示要将在十八洞村的所感所悟带到工作中去，努力搞好扶贫工作，坚决打赢脱贫攻坚战。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>185</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>怀化市民宗委民族工作考察组赴湖北恩施州和湘西州考察学习</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2016-06-12</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/mzswj/c108772/201606/143fee9258fb447991abfa0eedb0b6ba.shtml</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['5月31 日至6 月4 日， 怀化市民宗委民族工作考察组在委党组成员、副主任刘芝义带领下，赴湖北省恩施州和湘西州进行了为期五天的考察学习， 这次民族工作考察组由五个民族自治县民族宗教文体旅游广电局、两个民族过半县民族工作部门、洪江市政府办民宗办、委机关相关科室共十五人组成。 考察组一行先后深入湖北省来凤县三胡乡黄柏村、石桥村， 咸丰县唐崖土司遗址，宣恩县伍家台村、水田坝村、恩施州文化中心、恩施女儿城以及湘西州吉首市朗坪村、十八洞村、德夯苗族风情园等实地考察， 详细了解湖北省恩施州及湘西州特色村寨建设和民族文化保护传承等方面的工作，重点学习湖北省恩施州和湘西州贯彻落实党和国家相关民族政策等情况。 考察组一行决心将此次考察学习到的新经验和新做法带回怀化， 积极认真的向当地党委政府领导做好汇报，结合怀化的实际， 切实贯彻好中央和湖南省委民族工作会议精神，紧紧围绕精准扶贫和全面建成小康社会等中心工作， 扎实推进民族宗教工作取得新的成效。', '怀化市民宗委民族工作考察组在委党组成员、副主任刘芝义带领下，赴湖北省恩施州和湘西州进行了为期五天的考察学习', '这次民族工作考察组由五个民族自治县民族宗教文体旅游广电局、两个民族过半县民族工作部门、洪江市政府办民宗办、委机关相关科室共十五人组成。', '考察组一行先后深入湖北省来凤县三胡乡黄柏村、石桥村， 咸丰县唐崖土司遗址，宣恩县伍家台村、水田坝村、恩施州文化中心、恩施女儿城以及湘西州吉首市朗坪村、十八洞村、德夯苗族风情园等实地考察， 详细了解湖北省恩施州及湘西州特色村寨建设和民族文化保护传承等方面的工作，重点学习湖北省恩施州和湘西州贯彻落实党和国家相关民族政策等情况。', '咸丰县唐崖土司遗址，宣恩县伍家台村、水田坝村、恩施州文化中心、恩施女儿城以及湘西州吉首市朗坪村、十八洞村、德夯苗族风情园等实地考察', '详细了解湖北省恩施州及湘西州特色村寨建设和民族文化保护传承等方面的工作，重点学习湖北省恩施州和湘西州贯彻落实党和国家相关民族政策等情况', '考察组一行决心将此次考察学习到的新经验和新做法带回怀化， 积极认真的向当地党委政府领导做好汇报，结合怀化的实际， 切实贯彻好中央和湖南省委民族工作会议精神，紧紧围绕精准扶贫和全面建成小康社会等中心工作， 扎实推进民族宗教工作取得新的成效。', '切实贯彻好中央和湖南省委民族工作会议精神，紧紧围绕精准扶贫和全面建成小康社会等中心工作']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>185</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>市委改革办市农经站赴常德市考察学习</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2016-07-27</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/nyncj/c108769/201607/4c0c0e5a716a43e5803bfbf4b194931e.shtml</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['为整改落实好省委改革办督办函中指出的“农村承包土地流转行为不够规范”和“农村经营管理机构责权利不对等”等问题，切实加强我市农村经营管理工作，促进农村综合改革的顺利实施。7月20至21日，市委改革办副主任贺巍，市农委党组成员、市农经站站长阳承凡率市委改革办、市农经站有关工作人员和洪江市农经站负责人赴常德市考察学习农经工作。常德市经管局局长、高级经济师张业湘，武陵区、临澧县等农经部门负责人陪同考察。', '考察组一行先后考察学习了武陵区农村集体资产股份制改革和网格化社区治理综合信息平台、临澧县盛泰种养专业合作联合社、临澧县梅林果业专业合作社。并召开座谈会，就农村经营管理工作进行学习交流。', '通过考察学习和交流，了解到常德市农经各项工作均遥遥领先于我市，走在全省前列，有许多好的经验和做法值得我们学习和借鉴。农村土地确权颁证工作已经完成60%左右；农民合作社发展迅速，亮点纷呈，工作力度很大，建立了300万元专项扶持资金，每年进行一次集中培训；农村土地流转探索总结出五种模式；农村集体产权制度改革在武陵区全面试点；惠农减负建立了市重点监控制度；所有县市区农经机构保留正科级。', '考察组在常德市召开了考察学习总结会，认真总结常德工作经验，计划结合怀化自身实际，找准突破口，切实抓好农村经营管理各项工作。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>185</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>贵州省供销系统组团来新晃学习考察</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2018-05-30</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gxs/c110031/201805/ee0d5014f33645a6bd1f07ea109b5e55.shtml</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['5月23日，贵州省供销社系统同志一行来新晃考察学习，考察组参观了新晃晴方蜂业生产专业合社、新晃县扶罗镇伞寨村电商服务站、新晃县电商产业园。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>185</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>怀化市党政代表团赴铜仁市学习考察</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2015-07-26</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101111/201507/6b79cfab9759439f9a1c2ef5f9e6e9de.shtml</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['为加强与邻近市州的交流，扩大双方之间的合作，做好精准扶贫文章，7 月 23 日，市委书记彭国甫，市委副书记、市长赵应云带领我市党政代表团赴贵州省铜仁市学习考察。铜仁市委书记、市长夏庆丰，铜仁市人大常委会主任雷甘霖， 铜仁市政协主席陈达新，铜仁市领导阳向东、陈康、杨德华、王开禄、陈代文、肖洪、冉晓东陪同考察，怀化市领导谢宏有、邹吉忠、王行水参加考察。', '代表团一行首先来到铜仁市碧江区的天翔棉纺厂。该厂总投资12 亿元，年创税收 3500 万元，可提供就业岗位 2500 个，属于劳动密集型企业。 “纺织厂虽然是传统企业，但只要规模起来了，效益还是不错的。 ” “我们招商引资，既要积极引进高新企业，也需要这样能扩大就业的劳动密集型企业，老百姓有了工作，脱贫就容易多了。 ”考察中，彭国甫、赵应云说，扶贫要抓产业发展，产业发展离不开招商引资，招商引资要因地制宜，只要是没有污染，对本地发展有利、能促进人民增收的项目，都可以大胆的引进，为精准扶贫提供不竭动力。', '铜仁农夫山泉生产基地引进了德国制造的 3 条生产线，其中一条生产线每小时可生产 72000 瓶矿泉水，是目前世界上最先进、最高速的天然饮用水生产线。该项目的取水点位于铜仁九龙洞国家级 4A 风景区，全程 12 公里采用食品级不锈钢管道，利用高差无动力自流方式输送至工厂。该基地的产品销往贵州、广西、湖南、四川、云南、重庆等地。考察中，彭国甫说，铜仁利用本地的好山好水，做生态产业文章，不仅促进了区域经济的发展，也深入推进了扶贫攻坚工作。怀化和铜仁山水相连，生态相似，铜仁在这方面的做法和经验值得我们学习借鉴。当前怀化大力推进“五省边区生态中心城市”建设，掀起新一轮扶贫攻坚，发展生态产业是我们实现这些战略目标的重要抓手，必须把怀化的资源优势变为产业优势，将生态效益转化为经济效益，以经济的转型发展促进扶贫攻坚。', '对我市党政代表团的到来，铜仁市委书记、市长夏庆丰表示热烈的欢迎。夏庆丰说，当前，怀化市紧紧围绕建设“五省边区生态中心城市”的战略目标，大力实施“生态怀化、法治怀化、智慧怀化、幸福怀化”的发展战略，经济社会取得了很大成就，持续领跑武陵山区，让我们十分钦佩。怀化是大西南连接华东、华南的重要枢纽，铜仁是贵州向东开发的前沿，双方共同担负精准扶贫、精准脱贫、同步小康的政治任务和历史使命。 在 “十三五”发展规划编制的重要关头，我们有更多互联互通的基础设施需要纳入国家规划；有更多普惠民生的公共服务需要携手向上争取；有更多发展新路需要共同探索。特别是渝怀高铁，我们希望能共同向上反映和规划。怀铜高速，我们希望能够尽早开工建设，从而进一步扩大双方的合作，促进共赢发展。', '彭国甫在讲话中说，铜仁和怀化山同脉、水同源、人同俗，两地的各级领导干部、人民群众之间的交往友情、支持帮助渊远流长。铜仁与怀化同处武陵山区，现在高铁通了，我们的距离更近了，高速通了，我们的合作更多了，两市走得更近了，老百姓受益更大。彭国甫表示，通过这次考察，衷心希望双方进一步创新合作方式，拓宽双方友谊，提升和扩大合作层次，扎实推进城市交往、产业发展共赢，特别是积极携手向上争取重大基础设施项目的互通互联，共同创建政治生态、经济生态和社会生态、自然生态的幸福家园，让武陵山区老百姓共享合作发展福利。', '在铜仁期间，我市党政代表团还考察了铜仁麟龙国际会展城、铜仁高新区电商产业园、正大生态茶园农旅一体化项目、苗王城美丽乡村建设。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>185</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>广西龙胜县政协来麻考察学习扶贫工作</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2016-09-27</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/mzswj/c108772/201609/278550e4b7a24485bd486a0d7f21b224.shtml</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['广西壮族自治区龙胜各族自治县政协主席杨桂姬来麻阳考察交流扶贫工作。县委副书记李兴华', '当天， 杨桂姬一行深入麻阳县大桥江乡石垅溪村红心猕猴桃创业园、文昌阁乡西皮溪村移民搬迁安置点、锦和镇黑木耳种植基地、谭家寨乡楠木桥村大学生村官创业园，实地考察学习金融产业扶贫、易地扶贫搬迁、“互联网+ ”的经验与做法。', '杨桂姬一行深入麻阳县大桥江乡石垅溪村红心猕猴桃创业园、文昌阁乡西皮溪村移民搬迁安置点、锦和镇黑木耳种植基地、谭家寨乡楠木桥村大学生村官创业园，实地考察学习金融产业扶贫、易地扶贫搬迁、“互联网', '麻阳县目前有贫困村106 个， 建档立卡贫困户24327 户， 贫困人口86102 人。 面对这一形势，县委、县政府在精准识别贫困人口的基础上， 不断发展壮大扶贫产业，坚持集约化、规模化产业扶贫思路， 引导龙头企业、专业合作社、家庭农场等新型农业经营主体与贫困户建立紧密的利益联结机制，并实施黑木耳种植等特色增收项目。 同时，大力实施易地扶贫搬迁工程， 持续改善贫困村基础设施，并且积极实施金融产业扶贫， 走出了一条“政府支持、银行主导、企业参与、农户贷款、扶贫贴息、产业发展”的精准扶贫路子。2015 年， 我县减贫17480 人， 占全县建档立卡贫困人口的20.3% 。 20 个贫困村的贫困发生率降到4% 以下， 占全县贫困村总数的18.9% 。', '引导龙头企业、专业合作社、家庭农场等新型农业经营主体与贫困户建立紧密的利益联结机制，并实施黑木耳种植等特色增收项目', '走出了一条“政府支持、银行主导、企业参与、农户贷款、扶贫贴息、产业发展”的精准扶贫路子。', '通过听取情况介绍和实地考察， 杨桂姬认为，麻阳的扶贫工作成效突出， 极大帮助了贫困人口脱贫致富，经验做法值得学习借鉴， 希望龙胜、麻阳两县能多学习、多交流，共同促进双方的扶贫工作取得新成效。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>185</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>我局赴长沙考察学习跨境电商发展经验</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-03-28</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/swj/c100577/202303/87651594deb1464c8f60f07c96b4f905.shtml</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['3月23-24日，我局李华副局长带领电商科一行赴中国（湖南）自由贸易区长沙片区临空管委会学习跨境电商综合实验区申报、管理经验。实地考察了新航路跨境电商监管中心、跨无止境1210保税仓、跨境荟、湖南葆寅进出口公司等开展跨境电商进出口的企业。', '通过对湖南葆寅进出口公司的实地考察，非常直观的了解了开展跨境电商所需经过的完整流程：从接到国外网上订单开始，到组织货源发货，报关出口，海外仓配送，送达客户，收汇，退税等。实地在跨境荟模拟购物，体验到了可以获得关税、消费税优惠购买1200余种进口产品的方便快捷。通过新航路跨境电商监管中心负责人介绍，学习了在9610模式下如何高效开展集货、报关、监管等业务。', '通过学习和实地考察，明确了在没有获批跨境电商综试区的情况下，如何针对性出台跨境电商优惠支持政策，快速补齐我市跨境电商短板，引导企业有效开展跨境电商业务，促进我市跨境电商高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>185</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>湖南省党政代表团赴广东学习考察</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023-09-25</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gjj/c108768/202309/d4302f9685cb472fbe52dcf7383c96f1.shtml</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['湖南日报广州9月24日电（全媒体记者 刘燕娟）9月23日至24日，湖南省党政代表团赴广东学习考察。24日下午，广东·湖南两省合作发展交流座谈会在广州召开，共商深化湘粤交流合作事宜。广东省委书记黄坤明主持会议并讲话，湖南省委书记沈晓明出席并讲话，广东省委副书记、省长王伟中，湖南省委副书记、省长毛伟明分别介绍本省经济社会发展情况。广东省委副书记、深圳市委书记孟凡利参加有关活动。', '（9月24日下午，广东·湖南两省合作发展交流座谈会在广州召开，共商深化湘粤交流合作事宜。）', '黄坤明代表广东省委、省政府对湖南省党政代表团表示欢迎，对湖南现代化建设取得的新成就表示祝贺，并对湖南长期以来给予广东的大力支持表示感谢。他说，广东与湖南山水相连、人文相亲，长期以来人员往来频密、经贸合作密切，形成了携手并进、合作发展的好局面。近年来，湖南省委、省政府深入学习贯彻习近平总书记关于湖南工作的重要讲话、重要指示精神，全面落实“三高四新”美好蓝图，推动高质量发展迈出坚实步伐，许多好经验好做法值得广东学习借鉴。当前，广东正深入学习贯彻党的二十大精神和习近平总书记视察广东重要讲话、重要指示精神，以开展主题教育为契机，以高质量发展为牵引，奋力在推进中国式现代化建设中走在前列。我们将始终牢记总书记要求广东深化对内经济联系、增加经济纵深的殷殷嘱托，以更大力度、更实举措开展与湖南等省际交流合作，优势互补、强强联手，共同迈向现代化。希望与湖南在深化发展战略对接中相互赋能，加强基础设施互联互通，便利双向投资，积极开展消费和开放合作，不断密切经济联系、畅通经济循环，更好服务和融入新发展格局。在深化产业科技合作中相互支撑，聚焦高端装备、电子信息、新能源汽车、新材料、种业等强化产业对接、创新协同、要素保障，共同促进产业链、创新链、供应链整体提升。在深化文化旅游合作中相互促进，携手做好红色文化、中华优秀传统文化的传承发展、创新利用，合力推动文旅产业提质升级。在深化生态环保合作中相互联动，共同抓好生态治理，聚焦落实“双碳”目标促进电力能源共享互济，积极发展绿色产业，将两省生态优势转化为发展优势。在深化社会民生合作中相互提升，加强人力资源协作，推动更多便民事项跨省通办，不断满足两省人民美好生活需要。', '沈晓明代表湖南省委、省政府向广东长期以来给予湖南经济社会发展的大力支持表示感谢。他说，广东坚持以习近平总书记视察广东重要讲话、重要指示精神为统揽，大力实施“1310”具体部署，扎实推进中国式现代化建设的广东实践，取得了举世瞩目的重大成就。湖南将全方位学习借鉴广东的好做法、好经验、好作风，更加扎实有效地做好全省各项工作。湖南和广东是山水相连、人文相通的好邻居，湘粤两省交流合作既有深厚的基础和纽带，也有广阔的潜力和前景，要乘势而上推动两省合作迈向更高水平、取得更大成果。紧扣高质量发展和一体化这两个关键词，在粤港澳大湾区建设框架下进一步加强省际战略规划对接，共同争取国家重大政策、项目支持，加快联动发展、协同发展。大力推进两省在高端装备制造、人工智能、电子信息、新型储能、新能源汽车、新材料、生物医药与健康等领域的产业合作，突出加强能源保供和产业对接承接合作，进一步促进产业发展协作。加强科技人才联合培养、关键核心技术联合攻关、新型研发机构联合引进，积极推进国家级实验室、工程研究中心、中试基地等创新平台、重大科研基础设施和大型科研仪器设备共建共享，营造创新要素跨区域流动和融通的创新生态，进一步推动科技创新合作共赢。学习借鉴广东改革创新经验，用好广交会、中非经贸博览会等国家级平台，推动开放通道共建、开放平台共享，进一步推进改革开放交流互动。持续拓展两省社会民生领域合作，共同推进环境保护源头防控，推进两省间优质科技资源、教育资源、医疗资源、智力资源、社会保障等合作互惠，进一步抓好公共服务共建共享。', '在广东期间，湖南省党政代表团先后在深圳、东莞、广州等地考察了中国科学院深圳先进技术研究院、前海深港现代服务业合作区、迈瑞生物医疗电子股份有限公司、研祥高科技控股集团、中国散裂中子源、华为终端总部、广州市黄埔区初心使命实践馆、广州海格通信集团股份有限公司、乐金显示光电科技（中国）有限公司、广州市智慧城市运行中心，了解粤港澳大湾区建设、改革开放、科技创新和成果转化、高新技术产业发展、园区体制机制创新和数字政府建设等方面的经验做法。', '广东省领导陈建文、王曦、郭永航、肖亚非、谭玲、张新、黄武，深圳市市长覃伟中，湖南省领导吴桂英、谢卫江、乌兰、秦国文、黄兰香、虢正贵参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>185</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>溆浦县审计局投资股赴长株潭学习考察</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2016-06-07</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/sjj/c100641/201606/06deb06cbcb34f0f99a5d50bd1e01a24.shtml</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['，溆浦县审计局固定资产投资审计股3名审计干部在分管领导的带领下，前往长株潭审计部门进行学习交流，并实地考察了两家中介审计机构。', '投资股一行虚心学习了省审计厅、湘潭审计局等部门的先进经验，特别是关于现阶段的政府投资项目审计的经验做法。对于省审计厅、湘潭审计局等以结算审计为主，在跟踪审计中不断探索、追求质量，在聘用中介机构方面重视定位，明确中介机构“做什么、怎么做、回报什么”等做法，投资股一行结合溆浦县审计工作实际进行了学习吸纳。另外，投资股一行还实地考察了湖南创迪工程管理咨询有限公司和湖南精算堂工程项目管理有限公司，重点了解两家中介公司的综合实力、运行模式和人力管理等方面的情况。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>185</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>市国资委组织党员干部赴常德学习考察</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2009-04-22</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gzw/c108772/200904/2cd39132f131492b8e45d5ecf6bbbe1b.shtml</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['市国资委在深入学习实践科学发展观活动中，为了使全体党员干部进一步加深对科学发展观的认识，在学习调研阶段，积极创新学习形式，促进我市国资监管工作科学发展。在前段组织自学、集中学习、举办专题讲座的基础上，于 4月19日至20日组织机关党员和二级机构负责人等一行16人由党委副书记李桂香同志带队赴常德市国资委学习经验，开拓思路。通过学习考察，大家认为收获很大，常德经验很有特色，他们坚持科学发展，开拓创新，紧紧利用“融资”这个平台大做文章，他们创新机制体制，整合资产资源，搞活资产经营，加强监督管理，做活了“融资”这篇文章，不仅盘活了国有资产，而且也壮大了国有经济，实现了国有资产的保值增值。他们的经验值得我们很好地学习和借鉴。市委学习实践科学发展观活动第十二指导检查组成员邬定才同志应邀参加。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>185</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>市人大常委会召开座谈会传达学习省人大常委会考察组赴上海浙江考察报告精神</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2018-11-29</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gjj/c108768/201811/704c35de16eb4bda82f90cd71f8a461a.shtml</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['市人大常委会召开座谈会 传达学习省人大常委会考察组赴上海、浙江考察报告精神 - 市住房公积金管理中心', '11月27日，市人大常委会召开座谈会，传达学习省人大常委会考察组赴上海、浙江考察报告精神。市人大常委会党组书记、常务副主任石希欣出席并讲话。', '10月29日至11月2日，在省人大常委会党组书记、副主任刘莲玉的带领下，省人大常委会法工委及株洲市、岳阳市、怀化市人大常委会负责同志，赴上海市、浙江省考察学习，深入了解沪浙两地在学习贯彻习近平新时代中国特色社会主义思想特别是坚持和完善人民代表大会制度的重要思想，充分发挥人大在立法中的主导作用，坚持正确监督有效监督，推动地方人大工作高质量发展，为服从服务大局提供有力法治保障和制度支持的好思路、好做法、好经验。', '石希欣强调，要深入学习贯彻习近平总书记关于坚持和完善人民代表大会制度的重要思想，提高政治站位，坚定“四个自信”。各级人大要准确把握习近平总书记关于坚持和完善人民代表大会制度的重要思想的重要内涵和重要意义，把其要纳入各级党委党组中心组的学习范畴。要全面学习借鉴上海、浙江人大工作经验，坚持创新发展，强化项目管理。要认真贯彻落实中共中央政治局常委、全国人大常委会委员长栗战书关于人大工作“三个紧紧扣住”的要求，创新监督方式，落实工作责任，提高监督实效，不断推进人大工作高质量发展。要切实加强人大机关及干部队伍建设，坚持把党的全面领导体现到人大工作各方面和全过程，增强依法履职的责任感，提升人大队伍的专业化水平。', '会上，13个县（市、区） 人大常委会负责人就学习贯彻省人大常委会考察组赴上海、浙江考察报告精神做了交流发言。（记者 向文娟）']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>185</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>贵州省天柱县民宗局到靖州学习考察民族宗教工作</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2016-07-12</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/mzswj/c108772/201607/cfe4ff10d0754a6ebbcf64fc43e15a82.shtml</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['，贵州省天柱县民宗局党组书记、局长杨丽君一行到靖州学习考察少数民族特色村寨建设和宗教活动场所管理情况。', '一行听取靖州民族宗教工作情况，翻阅了寨牙乡岩脚侗寨和三锹乡地笋苗寨少数民族特色村镇规划，到飞山视察宗教活动场所―飞山禅寺，了解宗教文化，寺院管理、宗教人士生活情况，就两县民族宗教工作进行相互交流。', '考察组对靖州民族宗教工作、少数民族特色村镇建设规划和宗教场所管理提出宝贵意见和建议。纷纷表示将靖州民族宗教工作经验在贵州进行宣传，更好地把天柱县少数民族特色村镇建设规划起来，打造两县接边地区少数民族特色村镇示范，促进两县旅游产业。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>185</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>认真学习借鉴经验提升开放平台能级许忠建在重庆国际物流枢纽园区考察学习</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023-11-03</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gjj/c108768/202311/a1328573c75849a98b4b7ad758296e96.shtml</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['认真学习借鉴经验 提升开放平台能级 许忠建在重庆国际物流枢纽园区考察学习 - 市住房公积金管理中心', '（11月2日上午，市委书记许忠建在重庆国际物流枢纽园区考察学习。图为许忠建在内陆国际物流枢纽展示中心了解重庆市内陆开放高地特别是口岸物流、开放通道建设发展的关键历程和最新成果。怀化日报全媒体记者 杨智伟 摄）', '怀化日报全媒体讯11月2日上午，市委书记许忠建在重庆国际物流枢纽园区考察学习。他说，要认真学习借鉴重庆国际物流枢纽园区建设的经验做法，进一步加快怀化国际陆港建设，着力提升开放平台能级，更好融入共建西部陆海新通道。陆海新通道运营有限公司总经理王开乐、副总经理段本生陪同。市领导李卫林、胡和平、韩晓波参加考察学习。', '许忠建首先来到重庆国际物流枢纽园区的内陆国际物流枢纽展示中心，重点了解重庆市内陆开放高地特别是口岸物流、开放通道建设发展的关键历程和最新成果。在重庆无水港，许忠建认真听取介绍。无水港是将西部陆海新通道原本要在海港进行的铁路与海运的组织衔接、铁路箱与海运箱的置换流转等服务，前置到了陆运环节，实现通道陆运体系与海运网络的有效衔接，全面建成投用后，将成为集“通道+物流+贸易+产业”于一体的国际物流分拨中心。', '重庆铁路集装箱中心站货物线有16条，每年的货物吞吐能力超过1100万吨。重庆整车进口口岸是西部内陆首个整车进口口岸，今年1-9月进口汽车5618辆，数量、品类均居内陆铁路口岸第一。许忠建认真听取中心站、整车进口口岸的情况介绍，重点了解营运机制等情况。许忠建一行还参观了陆海新通道运营有限公司数字化展厅，了解该公司跨区域综合运营平台建设情况。', '许忠建在考察中说，重庆在共建西部陆海新通道中走在前列，创造了许多好经验好做法。我们要认真学习借鉴重庆的经验做法，进一步加快怀化国际陆港建设，突出提升开放平台、服务平台能级，强化战略支点作用，高水平共建西部陆海新通道，融入共建“一带一路”，加快推动怀化高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>185</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>怀化市农业农村局李兴华带队赴省农科院考察学习</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2019-09-05</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/nyncj/c108769/201909/f5db656c2e0c48c7a218a28f7c876046.shtml</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['月3日，怀化市农业农村局党组副书记、局长李兴华带队赴省农科院考察学习农业科技“院市合作”工作，与省农科院副院长邓华凤及相关处所负责人、专家共20人座谈，双方围绕实施乡村振兴战略、发展省千亿产业等进行交流座谈。', '会上，李兴华对省农科院专家一直以来对怀化农业的帮助和支持表示感谢。李兴华介绍说，怀化农业产业在特色强农、品牌强农、质量强农、产业融合强农、科技强农、开放强农等“六大强农行动”推动下迅速发展。为搭上粤港澳大湾区“菜篮子”工程建设的快车，更好满足产业兴旺的需求，怀化急需农业新技术、新品种、新经营管理模式。李兴华表示，希望通过与省农科院深化合作，搭建一批平台、请进一批专家、攻克一批技术难题、示范一批品种、打造一批品牌，为怀化农业农村的发展搭上科技的快车道，进一步推动我市与省农科院长期以来的院市科技共建活动迈向规范化、高层次运行的新阶段。', '邓华凤副院长表示，怀化是农业宝地，物种丰富，生态良好，非常适合农业发展。“院市合作”将更好推动理论与实践相结合，让更多新技术、新品种、新成果走出实验室，找到试验示范推广的好去处，有利于产学研的深度融合，省农科院将一如既往地支持怀化农业农村的发展，为现代农业发展和乡村振兴提供强有力的科技支撑。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>185</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>怀化市农业农村局李兴华带队赴省农科院考察学习</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2019-09-06</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101115/201909/06304cdd71d54b1c81c63ebcf682cd8f.shtml</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['9月3日，怀化市农业农村局党组副书记、局长李兴华带队赴省农科院考察学习农业科技“院市合作”工作，与省农科院副院长邓华凤及相关处所负责人、专家共20人座谈，双方围绕实施乡村振兴战略、发展省千亿产业等进行交流座谈。', '会上，李兴华对省农科院专家一直以来对怀化农业的帮助和支持表示感谢。李兴华介绍说，怀化农业产业在特色强农、品牌强农、质量强农、产业融合强农、科技强农、开放强农等“六大强农行动”推动下迅速发展。为搭上粤港澳大湾区“菜篮子”工程建设的快车，更好满足产业兴旺的需求，怀化急需农业新技术、新品种、新经营管理模式。李兴华表示，希望通过与省农科院深化合作，搭建一批平台、请进一批专家、攻克一批技术难题、示范一批品种、打造一批品牌，为怀化农业农村的发展搭上科技的快车道，进一步推动我市与省农科院长期以来的院市科技共建活动迈向规范化、高层次运行的新阶段。', '邓华凤副院长表示，怀化是农业宝地，物种丰富，生态良好，非常适合农业发展。“院市合作”将更好推动理论与实践相结合，让更多新技术、新品种、新成果走出实验室，找到试验示范推广的好去处，有利于产学研的深度融合，省农科院将一如既往地支持怀化农业农村的发展，为现代农业发展和乡村振兴提供强有力的科技支撑。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>185</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>洪江市民政局赴绥宁县考察学习养老服务工作</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2018-11-07</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/mzj/c108772/201811/29362b80bb61471686c5cb082787cca3.shtml</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['为考察学习外地养老服务工作先进经验，近日，洪江市民政局组织老龄办、安江镇民政办及相关养老服务机构负责人前往绥宁县考察学习社会养老服务工作。', '考察组一行先后实地参观了该县福康社会养老服务中心、社会福利中心(康乃馨老年养护院)，认真听取了相关机构负责人的经验介绍，详细了解了有关养老模式、服务理念及相关养老政策，并就如何加强社会养老服务工作进行了交流探讨。', '通过考察学习，大家表示要将学到的先进经验及理念应用到今后的实际工作中去，并结合我市养老服务工作实际，进一步加强养老服务机构信息化建设，全面提升养老服务质量和水平。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>185</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>甘肃省陇南市康县来鹤考察学习政务服务管理工作</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101116/202304/9bd63a95d51b41bf849c84bf25d1296f.shtml</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['月3日，甘肃省陇南市康县县委编办主任张成明、康县政务服务中心主任蒲松峰、康县医保中心主任李兴哲带队，组织康县市场监管局、税务局、政务服务中心、医保中心相关负责同志等一行6人来我区政务服务中心进行考察交流。', '考察组一行实地参观了区政务服务中心办事大厅，重点学习我区在事项进驻、政务服务创新、内部管理、政务服务标准化规范化便利化建设等方面的经验做法，观看了我区“一窗式”改革视频介绍，详细了解了综合窗口设置运行管理、“一件事一次办”等改革情况。', '康县考察组一行对我区政务服务大厅超前的改革做法、先进的硬件设施、精细的规划布局以及优质的服务理念感触颇深，对我区的政务服务改革工作所取得成绩给予高度称赞，下一步，将切实加强合作，不断提升政务管理服务水平，助推两地政务管理服务工作共同迈上新的台阶。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>185</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>我局赴长沙金霞经济开发区考察学习跨境电商发展</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2023-05-31</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/swj/c110038/202305/26ee0279279b4130b64acae0b79e9a46.shtml</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['5月30日，我局李华副局长带领电商科、鹤城区商务局一行赴长沙金霞经济开发区学习。实地考察了长沙世碁电子商务有限公司、湖南普奇研究院等开展跨境电商进出口的企业。', '通过对长沙世碁电子商务有限公司的实地考察，从该公司产品展示、公司版图、发展历程、销售渠道、销售市场等角度全方位了解了公司开展跨境电商业务流程，对海外仓配送、独立站建设等业务方面进行了深入探讨。湖南普奇研究院从2015年底出口国际市场，主要致力于PQWT品牌打造和全方位营销推广。地质勘探系列产品主要出口非洲、印度等国家地区，侧漏管网减损设备远销欧美和中东等，海外市场已经有一定的用户基础和品牌知名度。', '随后，我市一行赴长沙金霞经济开发区，在长沙金霞保税物流中心党工委副书记、管委会主任候凌新主持下，就保税物流区的招商引资、跨境电商产业的打造等工作进行了深入的探讨交流。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>185</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>省国资系统负责人到长沙市部分优秀企业考察学习</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2019-01-25</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gzw/c108772/201901/8230c24bdebf48f7b4c9e178b0b030d5.shtml</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['省国资系统负责人到长沙市部分优秀企业考察学习 - 市人民政府国有资产监督管理委员会', '日上午， 省属监管企业市州国资委负责人会议召开。省委常委、省国资委党委书记张剑飞， 省人民政府副省长陈飞出席会议并讲话，省人民政府副秘书长易佳良主持会议， 省国资委主任丛培模作工作报告，省委组织部部务委员邓广雁参加会议。', '张剑飞充分肯定2018年工作成绩：质量效益显著增长， 改革成效显著提升，布局结构显著优化， 党的建设显著增强。他指出， 要大力推进国有企业高质量发展，突出主业， 紧盯目标，开拓市场， 降本增效，创新驱动； 要进一步加强国有企业党的建设，把党的领导融入公司治理各环节， 夯实党建工作基础，抓住“关键少数”， 严守廉政底线，为高质量发展提供政治保障； 要突出优化监管，推动职能转变， 寓“监管”于“服务”，转变机关工作作风， 关爱企业干部，为高质量发展创造良好环境。', '陈飞在讲话中指出， 要把握市场主体问题，让企业成为独立的市场主体， 按照经济规律来办事，重视效益； 要重视企业战略问题，围绕企业内外部环境， 制定战略，及时调整； 要重视改革和管理，改革是解决问题的关键， 管理是企业永恒的主题；要重视创新， 向创新要效率，向创新要市场竞争力； 要重视党建，落实党建， 加强党性教育，严明政治纪律和规矩。', '2019年， 将坚持稳中求进工作总基调，围绕高质量发展的主线， 加大国有企业市场化改革力度，加快实施创新引领开放崛起战略， 加速实现国资监管从管企业向管资本转变，加强全面从严治党， 着力推动国有资本做强做优做大，重点抓好稳增长促发展、国资布局结构调整、现代企业制度建设、国资监管体制改革、历史遗留问题处理等工作， 强化党的建设和企业领导人员队伍建设。', '着力推动国有资本做强做优做大，重点抓好稳增长促发展、国资布局结构调整、现代企业制度建设、国资监管体制改革、历史遗留问题处理等工作', '会上， 华菱钢铁集团有限责任公司、湖南建工集团有限公司、中联重科股份有限公司、长沙市国资委、衡阳市国资委作典型发言，湘投控股集团有限公司、湖南省水运建设投资集团有限公司、湖南省轻工盐业集团有限公司、湖南省煤业集团有限公司、株洲市国资委、常德市国资委等单位书面交流了本单位的做法和经验。', '华菱钢铁集团有限责任公司、湖南建工集团有限公司、中联重科股份有限公司、长沙市国资委、衡阳市国资委作典型发言，湘投控股集团有限公司、湖南省水运建设投资集团有限公司、湖南省轻工盐业集团有限公司、湖南省煤业集团有限公司、株洲市国资委、常德市国资委等单位书面交流了本单位的做法和经验', '省国资委领导班子成员、副厅长级干部， 省属监管企业主要负责人，各市州国资委主要负责人， 驻委纪检监察组副组长、委机关处室、直属单位主要负责人参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>185</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>怀化市供销合作社赴永州市供销合作社考察学习</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2018-06-28</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gxs/c110030/201806/27c1361bf8a04edf92f5ca6db0f5b6be.shtml</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['“抓重点、补短板、强弱项”大调研活动，进一步深化供销合作社综合改革工作，6月20日', '至22日，怀化市供销合作社党组书记、主任曾祥元带领党组成员、总经济师邓宏华、调研员伍小品及鹤城、沅陵、麻阳、芷江供销合作社主任等10人，赴永州市供销合作社考察学习。', '分别到永州市祁阳县“供销惠万家”县级运营中心、祁阳翔云蜂蜜公司、湖南永怡茶业公司九泥村茶场，冷水滩区马坪现代为农服务中心、永州市湘合作再生资源公司、冷水滩区“供销惠万家”运营中心、岚角山办事处村级店、陈兰供销公司等单位进行了现场考察学习，深入了解他们在基层组织建设、发展农村电子商务、专项资金“拨改投”及再生资源等方面的做法和经验，认真听取永州市、祁阳县、冷水滩区等供销社的工作经验介绍，并与这些地区的同行就“乡村振兴战略”、强化服务“三农”能力等方面如何']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>185</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>许忠建主持市委理论学习中心组集体学习深入学习贯彻习近平总书记考察湖南重要讲话和指示精神</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2024-04-07</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gjj/c108768/202404/ec5005bcd7b7433a9c6b789c2363ddb7.shtml</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['许忠建主持市委理论学习中心组集体学习，深入学习贯彻习近平总书记考察湖南重要讲话和指示精神 - 市住房公积金管理中心', '许忠建主持市委理论学习中心组集体学习，深入学习贯彻习近平总书记考察湖南重要讲话和指示精神', '怀化日报全媒体讯 4月2日上午，市委理论学习中心组举行集体学习，深入学习习近平总书记考察湖南重要讲话和指示精神，深刻领会把握丰富内涵、精神实质、实践要求，进一步统一思想、统一意志、统一行动，坚定不移沿着习近平总书记指引的方向前进。市委书记许忠建主持集体学习并谈认识体会。市委副书记、市长黎春秋，市委副书记、市委政法委书记贺遵庆，市人大常委会主任李万千，市政协主席印宇鹰作交流发言。', '会议指出，习近平总书记亲临湖南考察，并在长沙主持召开新时代推动中部地区崛起座谈会，充分体现了对湖南工作的高度重视、对湖南人民的关心关怀。全市上下要始终牢记嘱托、感恩奋进，以实干实绩深刻领悟“两个确立”的决定性意义、做到“两个维护”。', '会议强调，要学深悟透习近平总书记重要讲话和指示的丰富内涵、精神实质、实践要求，自觉用以统一思想、统一意志、统一行动。要从习近平总书记对湖南工作的肯定勉励中坚定信心决心，持续巩固和增强经济社会发展追赶上升势头。要从习近平总书记赋予湖南的战略定位中锚定努力方向，始终保持战略定力、抓好战略执行，在奋力谱写中国式现代化湖南篇章中展现新作为。要从习近平总书记提出的重点任务中明确思路举措，做好深化、细化、转化，确保各项部署见行见效。', '会议强调，要学好用好习近平总书记重要讲话和指示精神中蕴含的科学方法，提升推动高水平开放高质量发展的能力水平。要把握好共性要求和个性要求的辩证统一关系，坚持稳中求进工作总基调，坚持高质量发展不动摇，坚持改革创新、求真务实，切实抓好怀化国际陆港建设、“5+N”现代化产业体系建设、鹤中一体化发展等重点工作。要把握好发展一域和服务全局的辩证统一关系，主动对接和融入国省战略，以承办第十一届全球湘商大会为契机，力争在重大招商、重点产业、重要基础设施方面取得新突破。要把握好目标导向和问题导向的辩证统一关系，着力解决制约高水平开放高质量发展的堵点难点问题，推动深入实施“五新四城”战略取得更大成效。要把握好物质文明建设和精神文明建设的辩证统一关系，更好担负起新的文化使命，充分保护和利用好文化资源，培育时代新风新貌。要把握好高质量发展和高水平安全的辩证统一关系，全力防范化解各领域风险隐患，以高水平安全保障高质量发展。', '会议指出，要充分发挥领导干部示范带动作用，推动学习宣传贯彻走深走实。全市各级领导干部特别是市级领导要带头学习领悟，坚持原原本本学、融会贯通学、结合实际学，做到学以致用、知行合一。要带头宣传宣讲，切实把习近平总书记的关心厚爱和殷殷嘱托传遍五溪大地。要带头调查研究，结合实际提出贯彻落实的措施和办法。要带头狠抓落实，抓紧对接、加强调度，确保一项一项落实到位。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>185</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>许忠建主持市委理论学习中心组集体学习深入学习贯彻习近平总书记考察湖南重要讲话和指示精神</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2024-04-03</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101112/202404/d837eeaab99b45e5a724f67d6d40a916.shtml</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['许忠建主持市委理论学习中心组集体学习，深入学习贯彻习近平总书记考察湖南重要讲话和指示精神 - 怀化市人民政府', '许忠建主持市委理论学习中心组集体学习，深入学习贯彻习近平总书记考察湖南重要讲话和指示精神', '4月2日上午，市委理论学习中心组举行集体学习，深入学习习近平总书记考察湖南重要讲话和指示精神，深刻领会把握丰富内涵、精神实质、实践要求，进一步统一思想、统一意志、统一行动，坚定不移沿着习近平总书记指引的方向前进。市委书记许忠建主持集体学习并谈认识体会。市委副书记、市长黎春秋，市委副书记、市委政法委书记贺遵庆，市人大常委会主任李万千，市政协主席印宇鹰作交流发言。', '会议指出，习近平总书记亲临湖南考察，并在长沙主持召开新时代推动中部地区崛起座谈会，充分体现了对湖南工作的高度重视、对湖南人民的关心关怀。全市上下要始终牢记嘱托、感恩奋进，以实干实绩深刻领悟“两个确立”的决定性意义、做到“两个维护”。', '会议强调，要学深悟透习近平总书记重要讲话和指示的丰富内涵、精神实质、实践要求，自觉用以统一思想、统一意志、统一行动。要从习近平总书记对湖南工作的肯定勉励中坚定信心决心，持续巩固和增强经济社会发展追赶上升势头。要从习近平总书记赋予湖南的战略定位中锚定努力方向，始终保持战略定力、抓好战略执行，在奋力谱写中国式现代化湖南篇章中展现新作为。要从习近平总书记提出的重点任务中明确思路举措，做好深化、细化、转化，确保各项部署见行见效。', '会议强调，要学好用好习近平总书记重要讲话和指示精神中蕴含的科学方法，提升推动高水平开放高质量发展的能力水平。要把握好共性要求和个性要求的辩证统一关系，坚持稳中求进工作总基调，坚持高质量发展不动摇，坚持改革创新、求真务实，切实抓好怀化国际陆港建设、“5+N”现代化产业体系建设、鹤中一体化发展等重点工作。要把握好发展一域和服务全局的辩证统一关系，主动对接和融入国省战略，以承办第十一届全球湘商大会为契机，力争在重大招商、重点产业、重要基础设施方面取得新突破。要把握好目标导向和问题导向的辩证统一关系，着力解决制约高水平开放高质量发展的堵点难点问题，推动深入实施“五新四城”战略取得更大成效。要把握好物质文明建设和精神文明建设的辩证统一关系，更好担负起新的文化使命，充分保护和利用好文化资源，培育时代新风新貌。要把握好高质量发展和高水平安全的辩证统一关系，全力防范化解各领域风险隐患，以高水平安全保障高质量发展。', '会议指出，要充分发挥领导干部示范带动作用，推动学习宣传贯彻走深走实。全市各级领导干部特别是市级领导要带头学习领悟，坚持原原本本学、融会贯通学、结合实际学，做到学以致用、知行合一。要带头宣传宣讲，切实把习近平总书记的关心厚爱和殷殷嘱托传遍五溪大地。要带头调查研究，结合实际提出贯彻落实的措施和办法。要带头狠抓落实，抓紧对接、加强调度，确保一项一项落实到位。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>185</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>张继田一行赴贵州省黔东南州学习考察诚信计生工作</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2013-10-14</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/wsjkw/c100577/201310/92fa86f4f61c4cdb803fc7a7876e041d.shtml</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['10月10日至12日,怀化市计生协会会长张继田,市人口计生委党组书记、主任侯小平，市计生协会常务副会长张在宣带领部分县市区计生协会、人口计生局主要负责人赴贵州省黔东南州学习考察人口计生“双诚信、双承诺”工作。 张继田一行先后实地参观考察了镇远县江古村、黄桑田村和三穗县滚马村、星光村两地诚信计生现场，详细了解了诚信计生、宣传服务、部门联动、利益导向等工作情况，并与当地干部群众亲切交流。 在随后召开的座谈会上，黔东南州人口计生委党组书记张启英、计生协专职副会长许玉红及镇远县和三穗县的领导分别介绍了开展“双诚信、双承诺”的工作情况，侯小平主任就我市当前人口计生形势、今后工作思路、对策进行交流与探讨，并就如何借鉴黔东南州经验，在怀化普遍开展与推广诚信计生活动交换了意见。 会后，张继田要求，我市要以此次学习考察为契机，尽快拿出实施方案，积极推动诚信计生工作，着力夯实人口计生基层基础，全面提升我市人口计生工作整体水平。（杨红）']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>185</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>关于赴江苏省江阴市供销社考察学习三会制度建设的报告</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2018-07-04</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gxs/c110030/201807/0868654fb3d44442bbadc5634b8b5612.shtml</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['社员代表大会、理事会、监事会“三会”是供销合作社的基本组织架构，是供销合作社履行职能和健康发展的重要组织保障。为积极稳妥推进“三会”制度建设，经市社党组研究同意，6月19日到22日，由市社监事会主任符健带队组成考察组一行4人，赴江苏省江阴市供销合作社考察学习“三会”制度建设。考察组通过直插基层、座谈走访、听取汇报、查阅资料等多种方式，深入江阴市机关各科室、华士镇基层供销社，搜集了第一手的资料，在综合汇总分析的基础上，总结江阴市社“三会”制度建设取得的成绩，为推进怀化市的“三会”制度建设提供有益参考。', '5月20—21日，江苏省江阴市供销合作社第五次代表大会召开，省总社党组书记、理事会主任诸纪录，无锡市委常委、江阴市委书记陈金虎，省总社监事会副主任迟洪波，无锡市社党委书记、理事会主任吴满良及江阴市四套班子部分领导参加开幕式，来自市直各机关、基层社、涉农龙头企业、农村社区的113位供销合作社代表齐聚一堂，共商共议，描绘新时期供销合作事业改革发展蓝图。此次会议距1984年江阴市供销合作社第四次代表大会召开已经整整34年，是江阴供销合作事业改革发展的里程碑，对江阴供销合作社未来发展将产生深远的影响。', '大会审议通过了第五次代表大会《工作报告》和修订的《江阴市供销合作总社章程》；选举产生了江阴市供销合作总社第五届理事会、监事会领导机构；全面确立了供销合作社今后改革发展的指导思想、奋斗目标、发展战略和工作任务。对完善联合社治理机制、落实社员代表大会制度具有重要的意义。', '（一）铭刻初心，主动作为。江阴市社领导班子深知供销合作社是为农服务的合作经济组织，主责主业是服务“三农”，主阵地在乡村；要发挥好服务农民生产生活的主力军和综合平台作用，必须在乡村振兴中主动担当、主动作为，这既是供销合作社履行为农服务宗旨的客观要求，也是义不容辞的重要使命。五代会的召开，既是落实试点任务的需要，更是市社自身的需要，一是为做好资金互助打好群众基础；二是为了打通专业合作社、种养大户信息互通共享的渠道，三是为了完善组织架构，增强供销社人工作信心和存在感。', '（二）领导重视，争取支持。江阴市社借助开展“三会”建设专项试点工作，积极向市委、市政府、无锡市社专题汇报。市委、市政府高度重视，就做好有关工作提出明确要求，对供销社综合改革工作提供大力支持。今年4月4日，江阴市机构编制委员会正式发文，印发《江阴市供销合作总社主要职责内设机构和人员编制规定》的通知，明确江阴市供销合作总社主要职责、内设机构、人员编制，增设监事会办公室，理清职责，有力推进江阴市社三会制度建设；五代会会议通知、会议代表推选通知都是以市政府办名义下文；江阴市财政给予五代会会议专项经费10万元。', '会前1个多月起，江阴市社主任朱富强就积极多次向江苏省社、江阴市委汇报会议筹备进展情况，力邀省总社理事会主任诸纪录、江阴市委书记陈金虎参会，为协调领导的时间将开会时间安排在周日，两位领导都如约参会并作重要讲话。当地各政府部门也鼎力支持，11个供销社综合改革成员单位，18个镇（区、街道）分管领导做为特邀嘉宾参会。由组织部门下文任命的市农工办、市发改委等10个单位分管领导作为委派监事也应邀参会。', '（三）精心筹划，周密组织。江阴市五代会的筹备工作是从去年9月开始的，倾其全社之力，25名干部职工团结一致，耗时近半年才有了五代会的成功举办。一是搭建工作班子。2017年9月，江阴市社成立“三会”制度建设工作领导小组，市总社主要领导任组长，班子其他成员任副组长，机关各科室负责人任组员。二是开展调研学习。2017年11月22—23日，江阴市社主要领导带队，组织相关职能科室赴盐都、大丰和东台三地供销社学习参观“三会”制度建设先进经验，充实完善该社“三会”制度建设工作的举措，统一思想，形成共识。三是明确目标任务。健全治理结构，恢复建立代表大会、理事会、监事会制度，修订完善江阴市供销社章程，固化江阴市总社“三会”治理体制。四是制订工作方案。在广泛调查研究的基础上，根据江阴实际，2017年9月,形成“三会”制度建设工作初步方案，2017年12月1日形成“三会”制度建设工作深化方案，并在机关、基层两个层面征求意见，12月25日，贴近本社实际的“三会”制度建设工作方案正式确定。五是报送筹备请示。2018年1月3日，分别向市委市政府报送请示，请求召开第五次代表大会。江阴市主要领导和分管领导均作出同意召开五代会批示，分管市长要求围绕时间节点加快前期准备圆满完成省社试点任务。六是确定代表组成。依据《江阴市供销合作总社章程》，借鉴无锡市总社的基本做法，市总社对代表类型和原则要求提出了指导意见，经各基层供销社、社有企业、相关专业合作社自下而上推选，并征求相关镇（街道）党委政府意见，共产生出席本届代表大会的代表113名。“五代会”组织组通过审核代表条件、征求相关单位意见等形式对代表资格进行初审，并经市总社五代会筹备工作领导小组研究审查，确认这113名代表符合代表条件，代表资格有效。七是确立三定方案。2018年4月4日，江阴市机构编制委员会正式发文，印发《江阴市供销合作总社主要职责内设机构和人员编制规定》的通知。八是确定组织架构。2018年3月7日，向市委组织部报送请示，按照供销合作社《章程》的相关规定，代表大会将选举产生新一届理事会、监事会成员，并选举产生理事会主任、副主任和监事会主任。理事会主任、副主任和监事会主任人选已于2018年5月9日由市委常委会提名通过，经第五次代表大会选举后报组织部。按《章程》规定，监事会成员中需有系统外监事，相关部门分管负责人担任组织委派兼职监事，系统外监事原身份和隶属关系不变。九是同意修订《章程》。2018年4月2日，向市政府报送《关于报审&lt;江阴市供销合作总社章程&gt;（修订稿）的请示》。2018年4月20日，市政府下发《市政府关于江阴市供销合作总社章程的批复》（澄政复〔2018〕16号），原则同意《江阴市供销合作总社章程》，要求按照有关程序提请江阴市供销合作社代表大会审议通过后实施，并报市政府备案。十是正式召开大会。2018年5月20-21日正式召开第五次社员代表大会，会期一天半。为保证五代会的顺利召开，专门成立了由党委书记、主任朱富强任组长，党委副书记包云丹、副主任黄伟庆、纪委书记冯亮为副组长，各科室负责人为成员的会务工作领导小组，领导小组下设三个分小组，分别是秘书组、组织组、后勤组。这次会议分三个代表团，分别由市社三位社领导担任团长。会议期间进行了多次分团审议讨论等活动，由各基层联合社主任要担负起组织本区域代表职责，及时掌握情况，做好通知协调等组织工作，随时向团长报告情况。会议座位、用餐时间、用餐桌号、午间休息房号都作了统一安排，具体在会议须知中都作了详细说明。对拍照天气、拍照时的站位秩序、选举投票线路等细节都充分考虑，会议期间全程有专人指引，让与会人员感到心情愉悦、健康舒心、宾至如归。', '（四）规范选举，顺应民意。在五代会第二次全体会议上通过了《第五次代表大会选举办法》，在第五届理事会第一次会议上通过了《第五届理事会主任、副主任选举办法》，在第五届监事会第一次会议上通过了《第五届监事会主任选举办法》，选举采取等额、无记名投票方式，被选举人得到的赞成票超过全体人员的半数，方得当选。经过各代表团分组讨论，主席团会议审议，确定市总社第五届理事会理事、监事会监事候选人名单。由总监票人、监票人、计票人和选举工作人员，清点人数，检查票箱，实到人数超过应到人数三分之二，符合选举的规定人数，方可进行选举。提醒选举注意事项：一是本次大会理事会理事候选人选票为粉红色，监事会候选人选票为黄色。二是代表对选票上的候选人，可以投赞成票、反对票和弃权票。每张选票所选的人数，等于或少于应选人数的为有效票，多于应选人数的为无效票。三是投票顺序：先由总监票人、监票人和计票人投票，再由主席团成员投票，最后其他代表按照工作人员的引导依次投票，顺序是从第一排最左边第一人开始投票。四是投票结束后，各代表不要离开会场，待计票结束后，继续开会，宣布选举结果。新当选的理事、监事分别到一楼第一教室和二楼第三教室参加第五届理事会、监事会第一次会议，由市委组织部同志宣读关于理事会主任、监事会主任、理事会副主任提名人员名单。此次新选出的理事会主任、监事会主任、理事会副主任都是全票通过，标志着会议取得圆满成功。', '强化组织保障。要主动汇报，积极争取党委、政府的重视，在政策、资金、人力等各方面给予支持。为确保会议胜利召开，成立会务工作领导小组，领导小组下设三个分小组，分别是秘书组、组织组、后勤组，做到合理分工，条理清楚，任务到人。秘书组主要负责会议材料的起草工作，包括领导的致辞、开闭幕式上的讲话材料，工作报告，《江阴市供销合作社章程》修正案，各次会议主持人讲话材料，《关于工作报告的决议》（草案），《关于修改江阴市供销合作总社章程的决议》（草案）等等；组织组主要负责代表资格审查及选举工作组织，主要任务是特邀代表、列席代表的邀请，拟定代表资格条件文书，代表产生及代表资格审查，大会《选举办法》，主席团成员、秘书长、理事、监事候选人建议名单，委派监事建议人选名单，大会总监票人、总计票人名单以及票箱、选票、计票汇总表等；宣传、后勤小组主要负责会议后勤保障和信访稳定工作，以及联系记者、发表报道等宣传工作。', '明确会议任务。要确定好会议的中心任务，江阴县会议的主要任务是：认真总结供销合作社第四次社员代表大会以来供销合作社改革发展的主要成效和基本经验，深入分析当前面临的新形势新任务，贯彻落实中共中央、国务院和省、市关于深化供销合作社综合改革的精神，积极谋划新阶段推进改革发展蓝图，统一思想认识，明确工作重点，部署改革发展任务；选举产生市总社第五届理事会和监事会；修改完善《江阴市供销合作总社章程》。并紧紧围绕这个会议任务，抓好前期准备工作。', '细化选举流程。切实把好代表审查关，做好正式代表候选人确定工作，进一步优化代表的整体结构，推选既有“三农”代表性，更有推进供销社改革发展的先进性的代表。明确工作重点，把握关键环节，组织相关人员学习换届选举工作流程，并重点强调在选举过程中需要把握的关键点、常见问题、方法原则等，要引导代表积极有序参加选举，确保代表正确行使民主权利，确保候选人收到公平公正的选举结果。做好统筹考虑，全面分析问题，各代表团长要认真考虑存在的问题，分析可能出现的突发状况，并及时沟通，做好相应的应急预案，不能有影响会议顺利进行的不当言行发生。换届选举过程要严守党章党规党纪、有序推进、风清气正，确保选举结果实现组织意图、体现群众意愿。', '注重相关细节。根据会议方案有条不紊地开展会议，确保会议有序，程序依法依规，工作人员要各负其责，既做分内之事，又要相互补台，确保会议圆满成功。会议宣传层面要达到那个级别、社会反响要达到什么效果，都要事前考虑，及时请相关媒体到场报道；与会人员都在胸前佩戴工作证、代表证、列席证等相关胸牌；会议布置既要端正严肃，又要能提升供销社形象，营造供销社人一家亲的氛围；要全程摄像记录会议过程， 留存珍贵的历史记忆；整理完善相关会议资料，统一归档；协调好上级领导参会时间，以便领导如期参会。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>185</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>张家界市水利局来靖州县考察学习以电代燃建设项目</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2017-02-15</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/slj/c110001/201702/6eb135042498446a9c81fbba7d3ab336.shtml</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['2月14日，张家界市水利局考察团一行，来靖州县考察学习以电代燃建设。怀化市水利局副总工许志强、电管站站长张军民和靖州县水利局相关人员陪同考察。', '考察团认真查看了贯堡渡小水电代燃料工程相关资料，和电站负责人进行了详细交流，了解了电站在发电后对当地生态环境保护，村民用电经济清洁等带来了诸多方面的益处。张家界水利局考察团对我县以电代燃项目取得的成绩给予肯定，并表示要充分借鉴我县在以电代燃工程建设和管理中的宝贵经验，探索出一条符合张家界市实际情况的新道路。', '贯堡渡小水电代燃料工程位于靖州苗族侗族自治县北部甘棠镇、太阳坪乡，辖有代燃料用户3079户。代燃料电站坐落在沅水一级支流，渠水中下游的贯堡渡村，电站总装机容量4000千瓦。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>185</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>怀化市社赴岳阳考察学习深化供销合作社综合改革工作</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2018-10-23</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gxs/c110030/201810/d8e6ee2be0be4395bab9f113f0619d04.shtml</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['为贯彻落实全省深化供销合作社综合改革现场推进会议精神，学习岳阳市供销改革先进经验，推动我市深化供销合作社综合改革工作，怀化市供销合作社党组成员、理事会副主任张克宽带领市社相关科室及部分县市区供销合作社负责同志，赴岳阳市供销合作社就深化供销合作社综合改革工作，进行了为期两天的考察学习。', '怀化市社考察组一行先后考察学习了君山岳阳市新合作农业生产资料有限公司、钱粮湖镇供销社、华容县三封寺镇惠农服务中心、新河乡供销社。重点学习了岳阳市供销改革“两组织一平台”建设，详细了解了基层供销社、农民专业合作社联合社、乡镇惠农服务中心建设工作的具体措施和运营模式。在随后的座谈会上，岳阳市社和华容县社分别从不同角度对深化供销合作社综合改革工作做了经验介绍，怀化市社考察组同志就供销改革工作中遇到的问题和困惑向岳阳市社与会同志进行了详细咨询，双方进行了热烈的探讨和深入的交流。', '通过此次学习交流，考察组一行认为岳阳市供销改革工作站位高、思路清、措施实、效果好，为怀化市深化改革工作提供了宝贵经验，并对我市的供销改革工作信心更足、思路更清。此前，在市人民政府第27次常务会议上专题学习了全省供销合作社综合改革现场推进会议精神，并对我市深化供销合作社综合改革工作的几个具体问题进行了研究，明确每建好一个乡镇基层社，市财政以奖代补5万元，同时根据改革实际需要，市财政予以大力支持并加以解决。下一步，我们将学习借鉴岳阳市供销改革经验，结合怀化实际，就基层社恢复、农民专业合作社联合社和惠农服务中心等基层组织建设核心问题，进一步厘清思路，积极向市委常委会汇报，争取支持，更好地完成我市深化供销合作社综合改革工作任务。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>185</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>怀化农业系统考察学习武陵区蔬菜产业发展先进经验</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2012-11-01</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/nyncj/c108769/201211/c8cf51b824d44bafb8aae0bc6eda4d44.shtml</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['10月31日，怀化市农业系统30多人专程来到武陵区考察学习蔬菜产业发展的先进经验，在市、区农业部门领导的陪同下，深入到常德市万亩城市蔬菜基地，先后考察了熊家坪蔬菜基地、田园蔬菜产业示范园。', '在听取了蔬菜办的情况介绍，并目睹该区蔬菜产业发展所取得的成效后，怀化考察团赞不绝口，并表示要学习该区先进的经验，壮大怀化的蔬菜产业。', '近年来，该区一直把发展蔬菜生产作为保障城区供应、促进菜农增收的战略产业来抓，引导菜农实施科技种植，提升品质，蔬菜生产已经成为该区农业的支柱产业。由于该区蔬菜产业采取高标准规划、高标准建设，蔬菜产业得到飞速发展，吸引了贵州同仁、湖南怀化及本市其他区县市等多个省内外考察团前来考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>185</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>李兴华带队赴浏阳学习考察农业科技园区建设</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2022-01-11</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/kjj/c100641/202201/9507bcda3d314889a3fa84a347cfaa05.shtml</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['1月7日，市科技局党组书记、局长李兴华带队，赴浏阳市考察农业科技园区建设工作，市科技局党组成员、副局长王宏文、怀化农科园管委会党工委书记钟家勇等参加考察。', '在浏阳市，李兴华一行重点学习考察了两型产业园建设情况。浏阳市两型产业园是以绿色食品加工为主的农业产业园区，园区经过21年的建设，入园企业达110余家，产值达143.79亿元，是浏阳市千亿绿色食品产业集群的重要组成部分。李兴华一行先后实地考察了园区农业企业生产基地，园区龙头企业新聪厨食品有限公司、高朗烈酒酿造有限公司，在园区管委会召开了工作交流会，与浏阳市科技局、两型产业园管委会主要负责人等进行座谈交流。交流会上，浏阳市科技局局长邓恩、浏阳市两型产业园管委会党工委书记刘正德，详细介绍了浏阳市科技创新工作情况和两型产业园基本情况、管理模式、运行机制等，双方就科技创新工作和园区建设工作进行了交流。李兴华表示，浏阳市科技创新工作有许多好的做法、好的思路、好的机制值得科技管理部门学习借鉴，浏阳市两型产业园在建设规模、入园企业数、工业产值、税收上都是省内农业科技园区的样板，为农业科技园区建设提供了成熟经验，下一步我们将认真吸收，融入国家农业科技园区的建设和管理实践之中。', '李兴华一行还实地考察了浏阳市农民科技专家“辣椒大王”杨意红的辣椒科研基地。杨意红老人一辈子、三代人致力于辣椒研究，选育出“鸡肠子”辣椒新品种，获国家地理标志产品认证，所在的葛家镇以此为依托全力打造“辣椒小镇”。杨老的辣椒科研基地还与湖南农大、省农科院有产学研合作，是樟树港辣椒提纯复壮基地，在这里，处处彰显“土专家”的科研情怀和农业科技的魅力。李兴华表示，“小辣椒”也有“高科技”，怀化的农业要更多植入这样的科研力量，农业科技园区要更多聚集这样的科研成果展示和示范。', '怀化市委市政府高度重视农业科技园区建设，市政府工作报告明确提出要加快推进怀化国家农业科技园区易址建设，就是要打造农业科技的创新高地，为农业高质高效发展树立科技样板。此行考察调研就是学习外地经验，为下一步建好怀化国家农业科技园区打下良好基础。（农社科）']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>185</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>江西抚州市公安局来怀考察学习警务改革工作</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2016-12-06</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101117/201612/222fec38ad4d4839899cba8fdbbee513.shtml</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['11月28日至29日，江西抚州市公安局党委书记、局长万凯率领该局全体党委成员，局属各部门主要负责人和该市各县级公安局“一把手”等一行60余人来怀化考察学习警务改革工作。怀化市局党委书记、局长胡长春及局主要领导和部门主要负责人陪同。', '11月28日，江西抚州市公安局考察组一行先后到洪江市公安局、辰溪县公安局参观了县级公安机关各中心和派出所“123”警务模式。11月29日，考察组一行参观了市局指挥中心、情报信息中心、绩效考核中心、治安防控中心、侦查实战中心。随后两地公安机关在市局会议室进行了交流座谈。', '座谈会上，胡长春同志介绍了怀化的基本情况和“三级一体”警务改革理念、模式、方法，局属相关中心、部门对改革情况作了深入交流。交流中，江西抚州市公安局考察组对怀化“三级一体”警务改革给与了高度评价，并表示回去后将进一步学习实践怀化警务改革的先进经验，继续加强与怀化的警务交流。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>185</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>学习贯彻习近平总书记广东考察重要讲话精神</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2018-10-29</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.12371.cn/2018/10/29/ARTI1540771871828805.shtml</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['10月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是10月24日上午，习近平在深圳参观“大潮起珠江——广东改革开放40周年展览”。', '以坚定的信心有力的措施 把改革开放不断推向深入——习近平总书记广东考察重要讲话引发热烈反响']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>185</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>邵阳市卫生健康委来怀考察学习公立医院改革等工作</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2023-06-13</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/wsjkw/c100577/202306/d19f2ff0777c4b538e63a53d3a5f3260.shtml</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['6月7日，邵阳市纪委监委驻邵阳市卫生健康委纪检监察组组长、市卫生健康委党组成员易祥忠一行5人，来怀化市卫健委考察学习公立医院改革风险管理机制建设和规范医疗行为等工作，并深入到湖南医药学院总医院、怀化市第二人民医院进行实地学习交流。怀化市卫生健康委党委委员、副主任罗兴玉，怀化市纪委监委驻市卫生健康委纪检监察组组长、市卫生健康委党委委员马仁刚参加座谈会并作工作介绍。', '考察学习座谈会上，怀化市卫健委副主任罗兴玉同志，简单介绍了过来怀化市公立医院改革风险管理机制、规范医疗行为等方面的工作开展情况与主要做法。怀化市纪委驻市卫健委纪检监察组组长马仁刚同志，重点介绍了“清廉医院”建设开展情况与主要做法。马仁刚说，近年来怀化市卫健委坚持以清廉医院建设为抓手，紧盯医院采购关键环节，充分发挥单位纪检监察、内部审计等部门对采购活动的监督作用，定期或不定期开展日常监督，重点聚焦采购预算编制执行、采购计划编制执行、采购需求确定、采购文件制定、专家论证等情况，重点清查医院药品、耗材等采购过程存在的漏洞，着力规范单位采购行为，严格开展监督检查，并取得了较好成效。', '考察学习组一行在实地考察湖南医药学院总医院和怀化市第二医院时，湖南医药学院总医院重点介绍了该院在物资采购中的普通医用耗材公开遴选工作，怀化市二人民医院着重介绍了在物资采购中对药品、医用耗材加密管理工作情况，以及介绍了药品、医用耗材使用和检验检查与科室、个人收入实行“脱钩”管理的主要做法。', '考察学习结束后，考察组易祥忠一行认为，怀化市卫健委近年来不论是在公立医院风险管理机制建设和规范医疗行为方面，还是在清廉医院建设等方面，都做了大量卓有成效的工作，值得肯定，值得学习。他表示，回去后，一定认真学习借鉴怀化市卫健系统的成功做法与经验，并结合实际认真研究，积极探索，切实创造性地开展好各项工作。', '当天，怀化市财政局、怀化市卫生健康委、湖南医药学院总医院、怀化市第二人民医院相关工作负责人参加了座谈会，并发表了意见与建议。 (彭高阳)⠂ ⠂ ⠂ ⠂ ⠂']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>185</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>麻阳经管站到会同县考察学习农村经管工作</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2017-10-26</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/nyncj/c108770/201710/52306360ce734529af98b62f8882bc93.shtml</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['月13日下午，麻阳县经管站站长李娟一行8人到会同县考察学习农村经营管理工作。会同县经管站站长龙学兵、减负办副主任蒋礼明陪同活动。', '活动期间，考察组首先参观了会同县兰花基地和粟裕纪念馆，随后到农业局会议室听取了该县农村经管工作的情况介绍，详细了解了该县在加强农村集体“三资”监管、农村减负监管工作和农村土地承包经营权确权外业测绘工作以及发展壮大新型农业经营主体工作中典型经验做法，并就当前省、市减负检查工作中要注意的问题进行了探讨交流。', '通过参观学习，考察组对会同县农村经营管理工作给予了高度评价，一致认为该县的农经工作特别是省督查组反馈问题的整改工作方面有很多做法和经验，值得学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>185</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>怀化市计生协到娄底市学习考察计生协及暖心家园工作</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2020-12-21</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/wsjkw/c100577/202012/480be7f12c4d42ff99953567b1b379bc.shtml</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['12月16日，怀化市卫生健康委党委副书记、计生协常务副会长张在宣带领鹤城、中方、溆浦、会同、洪江市、洪江区等一行共18人到娄底市学习考察计生协及“暖心家园”工作。', '学习考察组一行，在娄底市原计生协会会长李金才，娄底市计生协党组书记、常务副会长张旺夫以及专职副会长李军等陪同下，参观了娄新区馨美聚爱服务中心，听取了娄底市计生协及“暖心家园”等工作经验介绍，并与有关领导和工作人员就如何做好计生特殊家庭服务工作进行了交流座谈。', '娄底市原计生协会会长、馨美聚爱服务中心顾问李金才就如何做好计生特殊家庭志愿帮扶工作给大家介绍了成功的经验：一是要有一个爱心人士带头；二是要有相关部门和组织的大力支持；三是要在党委政府的坚强领导下开展工作；四是要把实事办好，有为才有位；五是宣传倡导力度要大。', '座谈会上，怀化学习考察组的同志表示，娄底市计生协工作很有特色，慕名而来、满意而归，对如何开展计生特殊家庭工作，作好微服务很有帮助、很有启发。大家一致认为计生协志愿者队伍是一支信得过、能干事的重要力量，在服务计生特殊家庭还有很大潜力，希望通过这次学习考察，吸收、借鉴娄底市的好经验、好做法，深化两市计生协工作交流，不断提升服务计生特殊家庭的工作能力和水平。（曾祥荣）']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>185</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>麻阳住建赴外市考察学习乡镇污水处理厂项目建设</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/zjj/c110019/202107/8601ffe8b97544edaae5d617a80020ce.shtml</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['2021年6月17日-18日，县政协副主席田华主席带队，率领县住建局，扶贫开发公司工作人员赴益阳沅江、岳阳汨罗和湘阴实地考察学习污水处理厂建设经验。本次考察学习的内容为乡镇污水处理厂设施建设情况；乡镇污水处理厂目前运营情况。本次考察学习的方式为现场参观听取已建成乡镇污水处理厂运行情况；召开座谈会，听取所考察县市住建部门介绍乡镇污水处理厂和污水管网建设及运营情况经验介绍；查阅相关资料进一步了解污水处理厂一体化设备品牌型号及价格，污水处理工艺、规模，以及污水管网建设规格价格等方面情况。', '6月17日，参观学习了益阳沅江草尾镇日处理量2500吨和新湾镇日处理量500吨乡镇污处理厂。', '通过考察学习，考察组认为：将结合自身实际，学习借鉴先进经验模式，进一步提升污水处理运行管理水平，为迎接中省环保督察交上一份满意答卷。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>185</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>怀化市科技局涟源市科技局来我市学习考察</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2016-10-17</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101115/201610/4199c0ec34c84490a78d4ab1beddeef7.shtml</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['经怀化市农村信息服务站牵线搭桥，10月11日至12日，涟源市科技局来我市调研麻阳霞飞农业开发有限公司猕猴桃、红心蜜柚基地建设及苗木繁育、种植技术。 麻阳霞飞农业开发有限公司是由女大学生谭霞于2011年3月创办的一家集水果及中药材苗木繁育、种植、销售于一体农产品开发企业。近年来该公司与湖南省农科院、广西植物研究所、湖南医药学院、怀化学院等科研院所建立了长期技术合作关系，产品科技含量高，市场竞争力强，产品远销省内外各大地区。红心猕猴桃是麻阳县特色优质水果，果形椭圆、果心红艳、口感纯正香甜，既是营养丰富、风味佳美的滋补水果，也是具有多种医药功能的保健食品。 调研组一行实地察看了麻阳世外桃园黄心猕猴桃种植基地、霞飞红心猕猴桃、红心蜜柚苗木繁育基地及霞飞中药材苗木繁育基地，同时，还参观了麻阳楠木桥乡大学生村官创业园。 调研中，霞飞公司负责人谭霞详细介绍了红、黄、绿心猕猴桃的生长情况、产量、挂果、生长习性以及气候、环境、土质等适应情况。通过听取介绍，与实地察看，涟源市三家企业当即与霞飞公司达成红心猕猴桃、红心蜜柚等苗木购销意向协议。', '经怀化市农村信息服务站牵线搭桥，10月11日至12日，涟源市科技局来我市调研麻阳霞飞农业开发有限公司猕猴桃、红心蜜柚基地建设及苗木繁育、种植技术。', '麻阳霞飞农业开发有限公司是由女大学生谭霞于2011年3月创办的一家集水果及中药材苗木繁育、种植、销售于一体农产品开发企业。近年来该公司与湖南省农科院、广西植物研究所、湖南医药学院、怀化学院等科研院所建立了长期技术合作关系，产品科技含量高，市场竞争力强，产品远销省内外各大地区。红心猕猴桃是麻阳县特色优质水果，果形椭圆、果心红艳、口感纯正香甜，既是营养丰富、风味佳美的滋补水果，也是具有多种医药功能的保健食品。', '调研组一行实地察看了麻阳世外桃园黄心猕猴桃种植基地、霞飞红心猕猴桃、红心蜜柚苗木繁育基地及霞飞中药材苗木繁育基地，同时，还参观了麻阳楠木桥乡大学生村官创业园。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>185</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>怀化市工商联组织企业家赴知名企业考察学习</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2015-08-31</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101115/201508/f8b22cfc94794e4ea634b8f5b9cd8d4f.shtml</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['8月26日上午，由市工商联组织的企业家赴长沙考察学习代表团一行24人在市政协副主席、市工商联主席、总商会会长向建平的带领下，赴长沙进行为期两天的考察学习活动。', '在两天的考察中，考察团先后来到湖南兴旺集团华曙高科3D打印基地、湖南晟通集团总部及其梅溪湖牡丹舸服务型地产项目、长沙国家广告产业园、国家电子商务基地、远大集团、三一重工参观考察。', '考察学习中，3D打印技术、可持续建筑、服务型地产、互联网思维等先进科技和发展理念给考察团留下深刻印象。企业家们纷纷表示，这样的考察活动非常有意义，让人深受启发。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>185</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>溆浦县科技局赴通道靖州学习考察农业科技园区创建经验</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2014-08-06</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/kjj/c100641/201408/2ef3ee21acb74fdd837669bdfc3250b1.shtml</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['为了在省级农业科技园区和可持续发展实验区创建工作中少走弯路，虚心学习兄弟县的成功创建经验，由县科技局局长冯士开带队组成学习考察组，于7月30日至8月1日专程赴通道、靖州两县科技局学习考察农业科技园区和可持续发展实验区创建工作经验。 学习考察组首先深入到通道的惠龙兔业、万佛山玫瑰庄园、源田生态蔬菜公司、惠农泥鳅养殖专业合作社等核心企业的生产基地考察，通过了解园区核心区建设的规划和听取通道县科技局局长李哲明的经验介绍，体会到该县成功创建省级农业科技园区的成功做法：比如，县委、县政府的高度重视；园区领导小组和园区管委会等机构健全；专项资金的及时到位和涉农资金的整合；园区规划地域界限明晰；龙头企业入驻等。然后，来到靖州的杨梅红酒生产基地、湖南补天药业等核心企业的生产及种植基地考察学习，了解到该县以稳定粮食生产为基础，发展壮大杨梅、茯苓等农业特色产业，并作为怀化市创建国家级农业科技园区的一个示范区积极开展创建工作。 通过这次学习考察，收获颇丰，启发很深，对我县依托柑橘、枣子、蔬菜及养殖等特色资源创建省级农业科技园区充满信心。学习考察组成员纷纷表示，把通道、靖州两县好的做法和经验带回去，全面解读和领会《湖南省农业科技园区管理办法》的核心内容和具体要求，认真分析自身创建农业科技园区的有利条件，制定园区创建方案并积极向县委县政府、市科技局、省科技厅相关处室汇报，在争取各级领导的重视和支持的基础上，主动加强与专家、科研院所的合作，适时邀请专家来溆浦现场指导，加快推进我县省级农业科技园区创建步伐。（溆浦县科技局供稿）', '为了在省级农业科技园区和可持续发展实验区创建工作中少走弯路，虚心学习兄弟县的成功创建经验，由县科技局局长冯士开带队组成学习考察组，于7月30日至8月1日专程赴通道、靖州两县科技局学习考察农业科技园区和可持续发展实验区创建工作经验。', '学习考察组首先深入到通道的惠龙兔业、万佛山玫瑰庄园、源田生态蔬菜公司、惠农泥鳅养殖专业合作社等核心企业的生产基地考察，通过了解园区核心区建设的规划和听取通道县科技局局长李哲明的经验介绍，体会到该县成功创建省级农业科技园区的成功做法：比如，县委、县政府的高度重视；园区领导小组和园区管委会等机构健全；专项资金的及时到位和涉农资金的整合；园区规划地域界限明晰；龙头企业入驻等。然后，来到靖州的杨梅红酒生产基地、湖南补天药业等核心企业的生产及种植基地考察学习，了解到该县以稳定粮食生产为基础，发展壮大杨梅、茯苓等农业特色产业，并作为怀化市创建国家级农业科技园区的一个示范区积极开展创建工作。', '通过这次学习考察，收获颇丰，启发很深，对我县依托柑橘、枣子、蔬菜及养殖等特色资源创建省级农业科技园区充满信心。学习考察组成员纷纷表示，把通道、靖州两县好的做法和经验带回去，全面解读和领会《湖南省农业科技园区管理办法》的核心内容和具体要求，认真分析自身创建农业科技园区的有利条件，制定园区创建方案并积极向县委县政府、市科技局、省科技厅相关处室汇报，在争取各级领导的重视和支持的基础上，主动加强与专家、科研院所的合作，适时邀请专家来溆浦现场指导，加快推进我县省级农业科技园区创建步伐。（溆浦县科技局供稿）']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>185</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>郴州市扶贫办来怀学习考察精准扶贫档案管理工作</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2016-10-14</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101115/201610/b628be63e6c8445a8a15f5f6ca10e5d9.shtml</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['10月12—13日，郴州市扶贫办纪检书记雷志斌一行来怀化学习考察挂图作战和精准扶贫档案管理工作。怀化市扶贫办调研员崔伟民陪同考察。', '12日，雷志斌一行来到洪江市沅河镇堰桥村实地参观了解该村挂图作战和档案管理等情况，考察了洪江市江市镇蒋公溪村易地扶贫搬迁项目和林下养鸡项目，并赴洪江市档案馆察看了精准扶贫档案管理情况。', '雷志斌表示，怀化市扶贫工作在全省排在前列，力度大、亮点多、成效好，在工作实践中创造出了许多可借鉴、能推广的经验和做法。各级党委、政府高度重视，脱贫攻坚作战图中清晰列出了脱贫攻坚总体规划、《湖南省农村扶贫开发条例》及其解读漫画、帮扶对象分布图、脱贫攻坚时间表、责任状、路线图等，目标清楚、任务明确；县、乡、村精准扶贫档案收集齐全、分类科学、整理规范，档案夹、档案盒、档案柜做到了制度化和规范化，户档案标识明确、内容详实。', '考察组认为，此次考察，学习到了怀化市扶贫工作的好做法、好经验，为进一步推动郴州市脱贫攻坚工作开辟了新的思路。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>185</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>怀化市食药监系统赴郴州湘潭市考察学习创卫创文先进经验</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2018-07-09</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101115/201807/05faa7a3e5e14d73896340d45c43755b.shtml</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['怀化市食药监系统赴郴州、湘潭市考察学习“创卫”“创文”先进经验 - 怀化市人民政府', '7月3日至6日，怀化市食品药品监督管理局党组副书记、副局长李全飞带领市局相关科室负责人及鹤城区分局、经开区分局负责人，赴郴州、湘潭两市学习创卫、创文的先进经验做法。', '在郴州、湘潭两市，考察组一行与两市食品药品监督管理局进行座谈交流，详细了解他们在创卫创文工作中的先进经验做法；深入相关科室进行工作交流，查阅工作档案。实地考察了农贸市场、学校食堂、夜市一条街、各大中小型餐饮服务单位等，考察组仔细看、认真听，围绕创卫创文工作的组织领导、食品生产经营规范化管理、小餐饮整治、“文明餐桌”建设和夜市摊贩管理等方面内容，找差距、学经验。', '考察组成员纷纷表示，此次学习考察收获很多，思想触动很大，开拓了视野，增长了见识，认识到了差距。下一步将结合怀化市食药系统实际情况，摸清家底，进一步完善切实可行的方案并抓紧落实，把怀化市的创卫创文工作推向深入。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>185</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>怀化市创建工作考察组赴桂林市遵义市考察学习全国民族团结进步示范市创建工作经验</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2023-06-21</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/mzswj/c133727/202309/4f0fe8f539144445be7e4539e0f3ca42.shtml</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['怀化市创建工作考察组赴桂林市、遵义市考察学习全国民族团结进步示范市创建工作经验 - 市民族宗教事务局', '为进一步推进怀化市创建全国民族团结进步示范市工作，6月12日至16日，怀化市创建全国民族团结进步示范市工作领导小组办公室组织创建办部分工作人员、市直创建重点单位、部分县市区创建办负责人赴广西壮族自治区桂林市、贵州省遵义市考察学习两市创建全国民族团结进步示范市的工作经验。', '考察组一行先后实地对桂林市政务服务中心、博元小学、三元社区、少数民族服务中心、桂林市灵川县九龙社区、灵川县国税局、桂林市桂花公社和遵义市湄潭县茶工业博物馆、湄潭县田家沟、遵义会议纪念馆、遵义师范学院等17个示范单位开展民族团结进步示范创建进机关、进企业、进学校、进社区、进乡村、进景区进行现场考察学习。通过实地调研、听取讲解、座谈会研讨等方式详细了解两市在民族团结进步示范创建工作方面的先进经验和典型做法。', '下一步，市创建工作考察组将把桂林市和遵义市民族团结进步示范创建工作经验认真充分总结，吸收借鉴。结合怀化实际，创新工作思路，丰富创建形式，补齐短板，做足亮点，切实把桂林市和遵义市好经验好做法学起来、用起来。始终坚持以“铸牢中华民族共同体意识”为工作主线，全面贯彻落实中央民族工作会议精神、发挥先进典型示范作用、讲好民族团结进步故事、提质打造“五个一工程”、着力建设好市级铸牢中华民族共同体意识教育实践基地等示范单位、努力在构筑中华民族共有精神家园上下功夫、创特色、出实招。同时，进一步团结带领各民族干部群众，树立全域创建理念，扩大参与范围，联动各方资源，以点带面，共同推动形成线上线下、全社会共同参与的创建工作格局，常态化推进民族团结进步创建工作，力争我市民族团结进步事业再创新水平、迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>185</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>溆浦湘潭市河长制工作组一行赴溆浦县学习考察河长制工作</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2022-07-28</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/slj/c100641/202207/55b6c5fc444345fca6651915983b6776.shtml</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['7月27日 ，在溆浦县成功举办2022年湖南省“美丽中国·青春行动”暨“湖南河小青·奋进新征程”系列活动启动仪式后，由湘潭市水利局副局长顾华率领的湘潭市河服中心、湘潭市各县市区河长制工作相关人员组成的学习考察组来溆浦县学习考察河长制工作。', '在怀化市河长办的指导下，溆浦县河长办安排业务骨干与湘潭市学习考察组进行了深入的沟通交流，邀请湘潭市学习考察组在警予广场观看了广场舞民间河长表演并参观向警予同志纪念馆；赴水东镇镇级河长办及水东镇党建+河长制广场进行参观；在溆浦县河小青行动中心溆浦县河长办与湘潭市学习考察组进行了经验交流座谈，怀化市水利局二级调研员蒋波介绍了全市河长制工作开展情况，溆浦县河长办常务副主任何国发同志介绍了我县河长制工作、部门联动、信息化技术应用河湖监测及河小青行动中心巡河护河的工作开展情况，以水东镇为代表重点介绍了乡镇河长制工作开展情况，并与湘潭市学习考察组成员进行了深入的交流，取得了较好的交流学习效果。', '湘潭市一位成员激动地说：这次的交流很成功，学习到了兄弟县市的先进经验，对他们日后的河长制工作的有效推进有着很好的促进作用。', '下一步，溆浦县河长办将以本次“湖南河小青·奋进新征程”系列活动的启动为契机，进一步探索河长制工作有效开展的新方法，全面践行“绿水青山就是金山银山”，以优异成绩迎接党的二十大胜利召开。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>185</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>岳阳娄底两市考察团来怀化学习国家高新区申报创建经验</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2017-06-28</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101115/201706/0d94e6c0055e4635b1043b61e8bc3374.shtml</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['6月27日上午，岳阳临港高新区工委副书记、管委会主任王文华，岳阳市科技局党组书记、局长曹合群等一行8人，娄底市科技局党组书记、局长胡绍华，涟源市高新区党委委员、管委会副主任刘军一行5人来到怀化高新区，就怀化高新区实施创新驱动发展战略，推进国家高新区创建工作方面的思路、举措、成就等方面进行考察学习。怀化高新区工委书记、管委会主任侯小平，市科技局党组书记、局长周子良陪同考察和座谈。', '考察团一行先后参观了创新创业服务中心、科技规划馆、科技企业孵化器及加速器等场所。座谈会上，侯小平就高新区基本情况及申报创建国家高新区的进展和经验做了详细阐述。周子良就怀化市科技工作开展情况做了全面介绍，与会其他领导对考察团所提问题给予了耐心细致的解答。', '怀化高新区自2016年启动国家高新区申报创建工作以来，在市委、市政府的正确领导下，按照“以申促建”、“以申促管”、“以申促改”的思路和发展“高”、“新”的总体要求，坚持“一手抓申报”、“一手抓创建”，在高新产业发展、双创环境提质、政策体系优化等方面均取得了显著成效，有望年内获批为国家高新区，创造出了前所未有的“怀化速度”，已成为我省申报国家高新区的样板园区，已有辽宁丹东、安徽宣城、湖南宁乡、湖南岳阳、湖南娄底等省内外高新区先后前来区学习国家高新区申报创建做法、举措和经验。', '考察团对怀化高新区申报创建国家高新区进程中展示出来的速度和成效给予赞誉，认为怀化高新区的经验和做法很值得学习，并希望怀化、岳阳、娄底三地高新区在招商引资、项目合作等方面进一步加强交流和学习，实现资源互享、共同发展，在践行湖南省委战略新定位中发挥出应有作用。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>185</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>怀化市住建局副局长陈和平带队考察学习宁乡市智慧工地项目</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2021-03-15</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/zjj/c100641/202103/953a7c6a3df14d1ba3367cf55b4f680d.shtml</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['怀化市住建局副局长陈和平带队考察学习宁乡市“智慧工地”项目 - 市住房和城乡建设局', '3月12日，怀化市住房和城乡建设局副局长陈和平带队考察学习宁乡市智慧工地建设和项目“双考评”情况。宁乡市住房和城乡建设局党组成员、总工程师殷习军，宁乡市建设工程质量安全监督站站长陈惠军全程陪同。', '在长沙经发工程建设公司承建的宁乡碧桂园时代城项目，陈和平详细了解了项目“双考评”质量情况，并一一参观项目“智慧工地平台”各系统模块建设情况。现场，湖南联合智为信息技术有限公司技术总监阮国军详细介绍了劳务实名制、关键岗位人员考勤管理、环境监测、视频监控、塔机监测、升降机监测等模块数据，讲解了人脸识别、超重预警、维保记录数据留存等升降机监测的各项预警功能。考察工作人员对此表示十分肯定和感兴趣，陈和平提到：“在这里看到了很多很好的细节，这在怀化建设中是很少看到的，细节就体现了管理水平和技术水平，细节优化得好，老百姓就不用担心质量问题，住房幸福指数就高！”', '随后，怀化市住建局考察团一行人前往宁乡市住建局重点了解了宁乡市智慧工地政府监管平台。政府监管平台围绕着人、机、料、法、环五大要素对在建项目进行全生命周期的监管，以质量、安全、效率为目标，实现数据一个库、监管一张网、管理一条线。后续还会根据实际情况需求不断进行升级优化，让项目建设监管更严、环境更优、安全更有保障。', '陈和平对宁乡智慧工地建设表示充分肯定，并表示要持续加强两地交流，把好的经验带回去，不断推进怀化市智慧工地建设高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>185</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>怀化市委理论学习中心组举行集体学习再学习再领悟习近平总书记考察湖南重要讲话精神彭国甫主持</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2020-10-13</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101118/202010/b27c31e18c564e8abfcd329b541ae73a.shtml</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['怀化市委理论学习中心组举行集体学习 再学习再领悟习近平总书记考察湖南重要讲话精神 彭国甫主持 - 怀化市人民政府', '怀化市委理论学习中心组举行集体学习 再学习再领悟习近平总书记考察湖南重要讲话精神 彭国甫主持']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>185</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>株洲市市场监管局来我市考察学习进口冷链食品监管工作</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2022-01-07</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/amr/c100640/202201/a0162adb99de4b0fa86bdf3a2fa147dc.shtml</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['1月5日，株洲市市场监管局党组成员、副局长尹楚平一行9人来到怀化，实地考察了怀化市进口冷冻食品监管仓，学习了解进口冷链食品监管工作经验做法，并进行了座谈交流。', '怀化市市场监管局党组成员、副局长刘明海详细介绍了怀化市进口冷冻食品集中监管仓的基本情况及建设中市委市政府主要领导高位推动情况，介绍了监管仓的运作流程、功能区划分、入仓出仓审批等情况。局四级调研员、集中监管仓办公室主任戴永祥就集中监管仓基本工作规范、区域布置、工作专班组织架构、应急处置等作了详细的讲解。佳惠物流园与株洲城发集团就农产品产业园的建设运营进行了深入交流。', '尹楚平表示，怀化市的进口冷链食品集中监管工作走在全省前列，值得学习，尤其是进口冷冻食品集中监管仓建设的经验做法，符合株洲实际，为下一步建设株洲市进口冷冻食品集中监管仓提供了很好的参鉴和范本。（食品流通安全监管科 刘志勇）']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>185</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>怀化市委理论学习中心组举行集体学习再学习再领悟习近平总书记考察湖南重要讲话精神彭国甫主持</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2020-10-12</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gjj/c108768/202010/b41d41436dc94d98b22e20b4c6e602de.shtml</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['怀化市委理论学习中心组举行集体学习 再学习再领悟习近平总书记考察湖南重要讲话精神 彭国甫主持 - 市住房公积金管理中心', '怀化市委理论学习中心组举行集体学习 再学习再领悟习近平总书记考察湖南重要讲话精神 彭国甫主持', '怀化新闻网讯（记者 姚晓伟）10月11日下午，市委理论学习中心组举行集体学习，再学习再领悟、进一步贯彻落实习近平总书记考察湖南重要讲话精神。市委书记彭国甫主持并作中心发言。市领导雷绍业、周运平、罗国宇作中心发言，市委理论学习中心组其他成员作交流发言。', '彭国甫指出，要真学，学进去、悟透彻。习近平总书记考察湖南重要讲话精神是习近平新时代中国特色社会主义思想的重要组成部分，是马克思主义中国化的最新重要成果，是一个科学完整、与时俱进、博大精深的思想体系，是我们脚前的灯、路上的光。全市各级各部门和党员干部必须下苦功、真正学、彻底悟，既要将这一重要讲话与习近平新时代中国特色社会主义思想、习近平总书记十八大以来对湖南工作的系列重要讲话和指示批示精神、《习近平谈治国理政》第三卷联系起来原原本本学，又要把本部门本地区工作方式方法、工作职责摆进去，学深悟透、学懂弄通做实，用理论的视野、历史的时空、实际的维度来学习把握其中的思想脉搏和精神实质。', '彭国甫强调，要真干，干精实、出实效。要把习近平总书记重要讲话精神作为行动指南和根本遵循、不竭动力，把习近平总书记赋予湖南的使命任务项目化、工程化，一件件抓落实、一条条细照笃行，实现思想观念真转变、工作方式方法真创新、工作实效真提升，齐心协力、万众一心，推动怀化工作朝着更高目标全面提升。要发扬密切联系群众的优良传统，克服形式主义官僚主义，深入基层了解群众所思所盼、所愁所忧，把工作做到群众心坎上。', '彭国甫强调，要真强，强有力、当表率。始终站稳人民立场，把坚持人民至上融入心田和血液，转化为理想信念、行为准则和行动自觉，落实到每一项具体工作，切实解决人民群众“急难愁盼”问题。要坚持刀刃向内，积极改造主观世界，彻底荡涤心灵世界与人民立场不一致的尘埃，同一切与人民立场不一致的思想和行为坚决斗争。要敢于担当作为，发扬斗争精神，增强斗争本领，敢于同错误思想观点坚决斗争，牢牢掌握意识形态领导权、话语权，坚持和巩固正确选人用人导向，纵深推进全面从严治党，营造风清气正政治生态，特别是面对复杂形势、严峻挑战，要舍我其谁、横刀立马、勇往直前，既要斗勇又要斗智，把敢于斗争和善于斗争结合起来，在危机中育新机、于变局中开新局，奋力完成年度目标任务。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>185</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>洪江市洪江区农水局来我市进行农业水价综合改革项目考察学习</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2019-05-17</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/slj/c110001/201905/9543757854594edca89a739105bc5568.shtml</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['据悉，我市农业水价综合改革项目于2013年开始，已连续实施多年，主要对稔禾溪灌区及红旗灌区2个小型灌区进行了节水改造建设，确定了农业水权，建立了合理的水价形成机制，推广农业节水措施，建立节水奖励机制等方面的建设。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>185</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>怀化市科技局组团赴长沙永州考察学习农业科技园区工作</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2014-07-17</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/kjj/c100641/201407/52cb8df548694b23a9ab5680e3b3a782.shtml</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['—25日，怀化市科技局党组成员、纪检组长周固平、副局长王宏文带领市科技局农村科、通道县科技局、洪江区科技局一行12人，赴长沙望城、永州国家农业科技园，考察学习农业科技园区建设工作。', '怀化市是典型的边远山区农业大市，但农村经济和产业发展相对滞后，依靠科技进步与创新加快发展现代农业的潜力很大。近年来，市委、市政府高度重视科技引领支撑农村、农业发展，先后出台了《怀化市农村信息服务体系建设实施方案》、《怀化市农村科技推广体系建设实施方案》、《怀化市动物疫病防治体系建设实施方案》、《怀化市农村现代物流体系建设实施方案》和《怀化市农村金融服务体系建设实施方案》等五大农村社会化服务体系建设实施方案，积极构建现代农业发展支撑服务体系，有力推动了农村经济发展和农业产业化技术水平的整体提升。进一步加快农业科技园区建设步伐，发挥农业科技园区的优势，通过整合农业优势资源和优化配置科技资源，引领、带动优势主导产业关键技术创新与示范，已成为推进全市农村经济快速发展的重要着力点。', '考察组采取座谈交流和实地考察相结合的方式，先后与长沙市科技局、望城国家农业科技园区及永州市科技局、永州国家农业科技园区领导，就园区规划、产业布局、科技创新、政策扶持、园区申报、管理办法、人员编制等问题进行了充分的对接交流，并实地考察了望城都遨农业生态创意园、金成水乡、文华园艺和永州湖南熙可食品有限公司、果秀公司、万喜登农业基地。', '通过参观学习和交流，考察组对农业科技园区的申报建设、办园模式、管理体制、运行机制等有了较深刻的认识和体会，得到了有益的启发和借鉴。（怀化市科技局农村科）']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>185</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>怀化市应急管理局赴安化考察学习自然灾害综合风险普查工作</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2021-04-27</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101115/202104/5804c0b0c81646a781efa48343ee39b8.shtml</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['为贯彻落实国务院、省、市第一次自然灾害综合风险普查工作部署要求，学习国家试点县的先进经验和成功做法，4月19至20日，怀化市应急管理局相关领导率市辖13个县市区应急管理局分管领导及专干组团到益阳市安化县考察学习。', '考察团一行在益阳市应急管理局相关领导的陪同下，与安化县应急管理局进行座谈交流。会上，安化县应急管理局就普查工作情况作了经验介绍，双方在如何更好推进相关工作上进行了深入交流与探讨。随后，考察团一行参观了安化县普查办公室，详细了解普查工作情况，翻阅普查成果资料，并进行了面对面的交流。', '通过此次考察学习，为怀化市开展自然灾害综合风险普查工作积累了经验，奠定了坚实的基础。参与人员纷纷表示，此次考察受益匪浅，对加快推进怀化市自然灾害综合风险普查工作具有重要意义。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>185</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>广东省红色旅游文化促进会来通道转兵地杜鹃草堂考察学习</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2020-10-24</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101116/202010/1d80bb357af7480a9f285bbf24e14734.shtml</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['10月22日，秋风送爽，阳光灿烂。广东红色旅游文化促进会会长万保民、秘书长李兴辉一行18人，在通道县退役军人事务局局长欧全标、县文联主席吴昌众等部门负责人陪同下，走进红军长征通道转兵地长征文化园杜鹃草堂。', '广东考察团一行在参观恭城书院和通道转兵纪念馆后，沿红军长征转兵西进路线，来到杆子溪村杜鹃草堂，在这里参观红军转兵西进指路碑、红军标语、侗乡泸定桥、红军亭等红色文化旧址，并在这里进行书画笔会和红色文化座谈交流。', '广东红色旅游文化促进会顾问、原广州军区装备部副部长少将杨星球听了杨少波讲座后很是赞赏。他说：这段历史意义很重大，是一个很好的红色文化名片，它所体现的长征精神值得发扬光大。', '广东红色旅游文化促进会旨在整合社会文化资源，发展红色文化旅游，开展民族文化交流，弘扬党的优良传统，传承红色基因，促进区域经济和社会公益事业发展。 成立多年来，为革命老区和贫困地区做了不少经济发展和公益事业的实事和好事。', '该会顾问、广东省民政厅原副厅长李顺芳说，这一行我们收获很大，看到了革命老区红军长征路上精准脱贫的可喜变化，让我们对伟大祖国的明天更有信心。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>185</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>沅陵赴靖州通道考察学习民族团结进步示范县创建工作经验</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2021-11-18</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/mzswj/c108772/202111/288e4ec7a80b4f42907a5c455de7ff33.shtml</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['为高效推进民族团结进步示范县创建工作，11月14日至16日，沅陵县委统战部、县民宗局有关负责人一行专程赴靖州、通道两个全国民族团结进步示范县考察学习。', '考察组一行通过听取情况介绍、观看专题片、查阅资料、座谈交流和参观示范单位、示范宗教场所、示范村寨等形式，较全面了解了两县创建工作的方式方法和累积的工作经验，也切实感受到两地通过进一步铸牢中华民族共同体意识，促进各民族共同团结奋斗、共同繁荣发展的浓厚创建氛围。', '通过此次学习，考察组一行开拓了视野，增长了见识，交流了经验，深切感受到创建工作要载体丰富、特色鲜明、亮点突出、氛围浓厚，对推进沅陵的创建工作有了更明晰的思路。大家表示要高位推进、重点保障，采取有效措施提升创建工作水平；要紧扣“中华民族一家亲，同心共筑中国梦”总目标，通过多形式、多渠道进行铸牢中华民族共同体意识宣传教育，把民族团结进步示范创建工作与乡村振兴工作结合，不断提升民族地区群众的生产生活条件，促进各民族交往交流交融，着力构建各民族共有精神家园，为建设富饶美丽幸福新沅陵凝心聚力，确保2022年成功创建“湖南省民族团结进步示范县”，力争2023年成功创建“全国民族团结进步示范县”。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>185</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>怀化市供销合作社赴衡山县学习考察农村综合服务平台建设</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2016-10-26</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gxs/c110030/201610/d8b071187e484c939aa3b1f63a1c5bbf.shtml</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['10月20-21日，在市供销合作社党组书记主任曾祥元同志带领下，组织了各县（市、区）供销合作社主任、分管副主任赴衡山县学习考察农村综合服务平台建设情况。', '2015年底，中共衡阳市委组织部、衡山县委确定在衡山县开云、长江、永和、萱洲4个乡镇8个试点村（社区）建设村级综合公共服务中心。按照因地制宜，一村一策的原则，打造便民惠民、务实高效的线上线下融合的农村综合服务平台。衡山县供销合作社抢抓机遇，主动对接全县村级综合服务中心试点建设，县委组织部将电子商务平台和便民超市建设纳入农村综合公共服务中心建设总体规划，并明确由供销合作社负责建设。借此东风，县供销合作社在综合服务中心率先打造了8个智慧党建电子商务平台和7个便民超市，大力开展了“党建引领，社村共建”活动，构建了党建、村建、社建“三建合一”和', '“党务、政务、法务、商务、村务、农务、医务、服务”功能的“八务合一”村级服务新格局，打通了供销合作社服务“三农”的最后“一公里”，切实发挥了供销合作社服务“三农”的重要作用，深受各级党委、政府及老百姓的好评。', '衡山县及供销社农村综合服务平台建设为怀化市及供销合作社农村综合服务平台建设提供了良好的经验和模式，对怀化市深化供销合作社基层组织建设和农村综合服务平台建设具有重要的借鉴意义。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>185</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>学习借鉴先进经验提升冷链物流水平黎春秋带队赴成都深圳天津考察</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2024-01-14</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101113/202401/4f4ec54f72e14072ba086a97244d6383.shtml</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['学习借鉴先进经验 提升冷链物流水平 黎春秋带队赴成都深圳天津考察 - 怀化市人民政府', '（1月10日至13日，市委副书记、市长黎春秋带队先后赴四川省成都市、广东省深圳市、天津市，学习考察冷链基地建设情况。图为黎春秋在成都市中外运普菲斯青白江冷链物流园考察。）', '1月10日至13日，市委副书记、市长黎春秋带队先后赴四川省成都市、广东省深圳市、天津市，学习考察冷链基地建设情况。深圳港集团有限公司董事长胡朝阳，天津港（集团）有限公司副总裁刘庆顺，成都市政府副秘书长涂智，成都市青白江区委副书记、区长王林，成都标果供应链管理有限公司董事长罗鹏，盐田国际集装箱码头有限公司董事总经理岑启成分别陪同考察。市领导韩晓波、李仕忠参加。', '（1月12日，怀化国际陆港与盐田国际合作声明签约暨内陆港授牌仪式在深圳举行，怀化国际陆港成为盐田国际第14个内陆港。）', '成都国际铁路港是成都中欧班列、西部陆海新通道、中老班列等国际班列始发地。走进港区，黎春秋详细了解铁路港规划建设、管理运营模式等情况。黎春秋说，成都国际铁路港在规划建设上的高水平、大视野，对推动怀化国际陆港建设具有重要的学习借鉴意义。要认真学习借鉴其建设运营中的好经验、好做法，加快推动通道优势转变为发展优势。', '在中外运普菲斯青白江冷链物流园和成都标果供应链管理有限公司实地考察后，黎春秋说，成都作为国家骨干冷链物流基地，是冷链物流产业发展的标杆。怀化是西部陆海新通道与面向印度洋国际陆海大通道在中部地区交汇的唯一节点城市，正着力建设冷链物流特色国际陆港，希望更多企业来怀考察、投资兴业，实现互利共赢。', '盐田港智慧冷链产业园是深圳东部首个多功能智慧冷链综合体。黎春秋走进园区，深入学习冷链产业先进运营经验和管理方法。他表示，怀化发展冷链物流具有一定的基础，真诚邀请企业团队来怀考察，发挥各自优势，寻求合作契机，共同构筑更加便捷高效的物流通道。', '盐田国际集装箱码头每周有近100条航线抵达世界各主要港口，是中国进出口贸易的重要门户。1月12日，怀化国际陆港与盐田国际合作声明签约暨内陆港授牌仪式在深圳举行，怀化国际陆港成为盐田国际第14个内陆港。黎春秋表示，怀化国际陆港与盐田国际结成海铁联运合作伙伴，标志着双方合作进入新阶段，要加快实现“组合港”功能，推动双方高质量发展。', '天津港作为京津冀及“三北” 地区的海上门户，连续多年跻身世界港口十强。黎春秋先后考察了天津港东疆港区、天津港国际物流冷链基地。黎春秋说，天津港作为世界一流港口，志在万里，蓬勃兴盛。要认真学习天津港产城融合发展宝贵经验，在冷链物流建设和南北方农产品集散等方面联动合作，共同谱写天津港与“火车拖来的城市”的新故事。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>185</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>市农业局组织技术人员赴山东河南学习考察葡萄根瘤蚜控防工作</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2012-11-30</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/nyncj/c108769/201211/ac371d365d96447f8d78c3234ee6f0d1.shtml</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['11月21日至28日，市农业局唐龙副局长带领市县农业局技术人员19人，到山东农业大学园艺科学与工程学院、山东省志昌葡萄研究所和中国农业科学院郑州果树研究所考察学习葡萄根瘤蚜疫情控防工作。', '山东农业大学园艺科学与工程学院、山东省志昌葡萄研究所和中国农业科学院郑州果树研究所在我国葡萄根瘤蚜疫情控防领域的科学研究和生产应用均居国内领先水平。怀化学习考察组一行受到了对方的周密安排和热情接待，达到了预期效果。一是较全面地掌握了目前国内葡萄抗根瘤蚜砧木研究情况，挑选了一批适合我市生产需要的葡萄抗根瘤蚜砧木品种；二是对葡萄建园、栽培管理和葡萄嫁接技术有了全新的认识，如采取根系局域限制栽培技术，有利于采取化学防控葡萄根部病虫害；三是考察了一批适合南方种植的鲜食、酿酒葡萄优良品种，为丰富、优化我市葡萄品种结构打下基础：四是对葡萄苗木嫁接机的生产运用有了深刻的了解，破解了我市发展葡萄基地所需的抗葡萄根瘤蚜苗木难题。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>185</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>李佑长率队赴常德岳阳考察学习工程建设项目审批制度改革工作</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2020-05-14</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/zjj/c121397/202005/957d72ffbbdd44ff8da29960a121f3c2.shtml</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['李佑长率队赴常德、岳阳考察学习工程建设项目审批制度改革工作 - 市住房和城乡建设局', '5月12日至13日，市人民政府副秘书长李佑长同志率领市工改办、市发改委、市住建局、市自然资源和规划局、市政务服务中心以及部分县市区负责工改工作的同志，赴常德、岳阳两市考察学习工程建设项目审批制度改革工作。', '李佑长一行现场观摩了两市工程建设项目审批管理系统操作运行情况，参观了工程建设项目审批窗口，体验了业务流程办理等服务，并与两市相关负责同志进行了座谈交流。', '李佑长要求，参加考察学习的同志要认真学习充分借鉴常德、岳阳的经验做法，及时消化吸收，做到活学活用，坚持问题导向，制定整改清单，加强协调联动，开足马力追赶，加快推进全市工程建设项目审批制度改革工作。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>185</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>经博会知名企业考察团开展现场考察</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2023-05-06</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101115/202305/e06cea602ae54f87a0ed1058e56988e8.shtml</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['5月5日下午，参加首届湖南（怀化）RCEP经贸博览会的49家知名企业组成的考察团在市商务局的带领下，先后来到湖南兴怀新材料产业园、怀化市怀仁康养园、怀化国际陆港规划展厅和怀化国际陆港主港区等地开展现场参观考察。', '“他们生产的新材料玻璃面板，很符合我们的产品需求。”在湖南兴怀新材料产业园，惠州汉尼博精密科技有限公司总经理陈兴华告诉记者，他们公司从事汽车电子行业，兴怀新材料公司所生产的玻璃面板，可以用在汽车的玻璃盖板以及智能化显示设备的面板上，在同等质量下，使用该公司的产品，一方面可以降低成本，另一方面也可以促进产品的竞争力。“我们正积极寻求合作。”陈兴华说。', '在怀仁康养园，考察团详细了解了企业发展历程、产品种类和生产经营情况。来到中药材产品展示中心，考察团被展厅琳琅满目的中药材加工食品所吸引，不少企业家在仔细询问各类产品的功效后，纷纷自掏腰包“下单”购买，展示中心俨然成了“微型”展销会。', '“怀化自然条件优越，发展中药材种植优势明显。”结束考察后，各地商务部门相关负责人纷纷表示，对怀化的中药材产业发展有了更深的了解，也对各地相关企业与怀化的进一步合作充满了信心。', '在怀化国际陆港规划展厅和怀化国际陆港主港区，考察团详细了解怀化国际陆港规划建设、业务模式和通关创新等情况，并纷纷点赞怀化国际陆港在对外开放工作中取得的成绩。', '“我是第二次来国际陆港，感受很深。”广东心里程控股集团董事、副总裁张玉说，借着首届湖南（怀化）RCEP经贸博览会的东风，再次加深了对怀化国际陆港的印象。下一步，公司将进一步加强与怀化的联系和沟通，着力推动公司重点项目落户怀化，努力实现企业与地方优势互补、互惠共赢。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>185</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>洪江市辰溪县水利局来我市考察学习农村饮水安全工程建后管理工作</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2019-05-17</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/slj/c110001/201905/51a8430c89a541968916ef4f9f3f2540.shtml</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['近日，辰溪县水利局一行来我市就农村饮水安全工程建后管护工作进行考察学习。据悉，我市于2018年9月出台了《洪江市农村饮水安全工程建后管理办法》，在怀化市属首个出台相关管理办法的县市，并由怀化市水利局在全市内就我市的经验做法进行了推介。', '辰溪县水利局一行来到我市安江镇金花村集中供水工程实地考察，对工程管护机构、管理人员、管理经费及水费收缴情况进行了详细地了解，我局工作人员就农村集中供水工程建后管护工作的经验及存在的问题与辰溪县水利局同行进行了深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>185</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>湘潭县考察团来溆浦县考察交流创国卫工作</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2018-12-15</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101116/201812/9e42fe67400f4df28549a2394aaa5107.shtml</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['12月12日，湘潭县副县长杨欣荣带领由相关职能部门负责人组成的考察团，来溆浦县考察交流创国卫工作。副县长舒畅一同参加。', '座谈会上，舒畅介绍了我县创国卫工作开展情况。他表示，为确保创国卫成功，我县大力开展各项工作。一是强化组织领导，建立机制夯基础。强化领导勤督战，出台制度明责任，调度交办促成效。二是提高思想认识，广泛宣传造氛围。做好日常宣传，做好主题教育宣传，定期开展教育培训。三是加快项目建设，完善配套强功能。不断加快县城基础设施建设，逐步加大环卫设施建设，加大城市修补工程。四是狠抓生态建设，多措并举优环境。倾力绿化工程，加强河道整治，大治空气污染。五是注重集中整治，规范管理出成效。狠抓户外广告、城区经营门店及农贸市场、交通秩序、项目工地现场，“两违”建筑、城区殡葬乱象集中整治。', '会上，双方就创国卫工作进行了深入讨论和经验交流。杨欣荣表示，听取溆浦创国卫工作经验后很受启发，回去后将认真加以研究、消化，融入到创建工作中，同时希望双方继续加强沟通交流，相互促进创卫工作。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>185</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>怀化市审计局党组传达学习贯彻习近平总书记在湖南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2020-09-28</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/sjj/c100641/202009/daf1eec8466f4b0ba60f669357020cda.shtml</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['怀化市审计局党组传达学习贯彻习近平 总书记在湖南考察时的重要讲话精神 - 市审计局', '9月25日，怀化市审计局党组召开专题会议，传达学习贯彻习近平总书记在湖南考察时的重要讲话精神，学习怀化市委书记彭国甫在全市领导干部大会时的讲话精神，部署安排当前工作以及中秋国庆节日廉洁纪律要求。会议由党组书记、局长骆磊同志主持，市审计局全体班子成员参加会议。', '会议要求，学习习近平总书记在湖南考察调研时的系列重要讲话指示精神是全市审计机关当前头等大事和长期任务。局党组中心组要持续组织专题学习、深入研讨，研究落实举措。局机关党委要迅速组织全局各党支部、全体党员干部开展专题学习、开展讨论，推动入脑入心。要全面深入学习习近平总书记重要讲话精神，深刻理解和把握精神实质，真正做到内化于心、外化于形。', '会议强调：一是坚定政治方向，坚决做到两个维护；二是坚定不移按照习近平总书记指引的方向前进；三是坚守岗位，民生为上、民生为本；四是坚持定力，提升审计本领，实现全年目标任务,要准确把握新时代党和国家对审计工作的新要求，牢固树立新发展理念，充分发挥审计的保障和监督作用。', '会议指出全市审计机关、全局干部职工要深入学习领会、认真贯彻落实，把习近平总书记的亲切关怀、殷切嘱托和重要指示要求，转化为牢记初心使命、对党绝对忠诚的政治信仰，自觉增强“四个意识”，坚定“四个自信”，做到“两个维护”；一以贯之真抓实干，扎扎实实办好自己的事，坚决打赢“三大攻坚战”、持续推进“六保”“六稳”工作，为奋力谱写建设富饶美丽幸福新湖南的怀化篇章贡献审计力量.(供稿：唐明 审批领导：骆磊 怀化市审计局）']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>185</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>图解月日省政府常务会议学习贯彻习近平总书记考察福建重要讲话精神</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2021-03-30</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.hunan.gov.cn/hnszf/szf/zfhyjtj/202103/t20210330_15187685.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['3月30日下午，省长毛伟明主持召开省政府常务会议，学习贯彻习近平总书记考察福建重要讲话精神，学习《政府督查工作条例》，研究部署实施财源建设工程、金融服务“三高四新”战略若干政策措施、营造放心消费环境等工作。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>185</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>湖南电广传媒考察团来洪江古商城考察调研</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2021-11-23</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/wlgdtj/c108772/202111/aabc939c752547bc8c3739c672fa2397.shtml</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['日前，湖南电广传媒股份有限公司总经理王艳忠率考察团来我区考察调研，详细了解洪江古商城文化旅游产业发展情况。区工委书记伍罕鸣，区工委副书记、管委主任胡东声，区领导黄文胜、彭莉分别参加。 考察团一行实地考察了古商城核心景区，详细了解了“烟雨洪江”项目总体情况。参观过程中，伍罕鸣向考察团详细介绍了洪江古商城文旅资源、历史文化，他表示，景区将进一步优化空间布局，拓展经营思路，寻求合作共赢。考察团认为，洪江古商城历史人文底蕴深厚，文旅资源丰富，拥有厚重的商道文化和保存完整的古建筑群，具有很好的旅游发展前景，希望能进一步做好旅游发展规划，找准目标定位，做到策划先行，全力打造全国知名旅游目的地城市、南方康养休闲度假胜地。 在随后的座谈会上，双方还就文旅项目开发、景区旅游商业运营、平台活动策划引流等方面进行了深入探讨，双方表示将加强沟通交流，寻找合作商机。 洪江古商城文化底蕴深厚，文旅资源丰富。近年来，我区坚持“文旅引领，工业驱动”发展思路，以“创AAAAA景区”为目标，合理规划旅游产业布局，加大旅游资源开发和整合力度，大力引进对文旅产业有较强带动作用的优质项目，推动文旅产业高质量快速发展。', '日前，湖南电广传媒股份有限公司总经理王艳忠率考察团来我区考察调研，详细了解洪江古商城文化旅游产业发展情况。区工委书记伍罕鸣，区工委副书记、管委主任胡东声，区领导黄文胜、彭莉分别参加。', '考察团一行实地考察了古商城核心景区，详细了解了“烟雨洪江”项目总体情况。参观过程中，伍罕鸣向考察团详细介绍了洪江古商城文旅资源、历史文化，他表示，景区将进一步优化空间布局，拓展经营思路，寻求合作共赢。考察团认为，洪江古商城历史人文底蕴深厚，文旅资源丰富，拥有厚重的商道文化和保存完整的古建筑群，具有很好的旅游发展前景，希望能进一步做好旅游发展规划，找准目标定位，做到策划先行，全力打造全国知名旅游目的地城市、南方康养休闲度假胜地。', '在随后的座谈会上，双方还就文旅项目开发、景区旅游商业运营、平台活动策划引流等方面进行了深入探讨，双方表示将加强沟通交流，寻找合作商机。', '洪江古商城文化底蕴深厚，文旅资源丰富。近年来，我区坚持“文旅引领，工业驱动”发展思路，以“创AAAAA景区”为目标，合理规划旅游产业布局，加大旅游资源开发和整合力度，大力引进对文旅产业有较强带动作用的优质项目，推动文旅产业高质量快速发展。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>185</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>中美考察团来溆浦考察药谷旅游康养地产项目</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2018-03-20</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101116/201803/8809e23a73ea4ca28f416efac438a104.shtml</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['3月15日至16日，美国硅谷幼发拉底孵化器总裁、美国硅谷Herbheal Inc董事会主席沈赐恩，香港海力健康产业投资股份有限公司董事长、美国海力资本总裁潘汉杰，北京搜狗科技发展有限公司首席运营官茹立云，美国硅谷Herbheal Inc董事长兼总经理、湖南翺康生物科技有限公司总经理伍卫琳带领中美考察团一行12人来溆浦考察“药谷、旅游、康养、地产”项目。副县长张伟，县直相关单位负责人一同参加。', '考察团一行先后对县红花园工业园、水东镇中药材种苗培育基地、国家湿地公园思蒙进行了实地考察，详细了解我县投资环境，并召开了洽谈会。', '会上，张伟对中美考察团来我县考察表示热烈欢迎，并向中美考察团详细介绍了溆浦县情、发展优势和今后发展思路。同时，他希望考察团企业家们能够全方位参与和支持我县发展建设，双方能更深一步的交流沟通。溆浦将竭诚提供最优惠的政策、最优质的服务、最优越的保障，与考察团的企业家们一起携手共创互惠双赢的美好明天。', '通过深入交流，中美考察团企业家们也纷纷表示，深切地感受到溆浦便利的交通优势、独特的人文历史、丰富的自然资源、优越的生态环境和干部的勤奋务实。考察团将进一步加强与溆浦的交流对接，推进项目尽快落实落地，为促进溆浦经济社会发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>185</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>苗疆走廊文化专家考察团走进沅陵考察调研</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2020-09-02</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/mzswj/c108772/202009/0cf50880e3034a89926b453e6ac6fa5e.shtml</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['近日，由中国音乐学院、湖南师范大学、贵州大学、湖南第一师范学院等教授专家和硕博研究生组成的“苗疆走廊”文化考察团来到沅陵县进行田野考察。', '此次考察以沅陵县作为终点站，考察团参观了该县龙兴讲诗、酉水画廊、马底驿驿道、界亭驿和辰龙关等地，考察了山歌号子、祭祀、婚嫁等传统民间民俗文化。', '据了解，“苗疆走廊”是指元代1291年新开辟的一条连接湖广经过贵州至云南、东南亚、南亚的一条“官道”及其支线，全长近三千里，涵盖了云贵高原大部分地区。“苗疆走廊”现已列入中国五大“民族走廊”之一，沅陵正好位于“苗疆走廊”的重要节点上。', '考察中，“苗疆走廊”首倡者、贵州大学教授杨志强认为，沅陵作为苗疆走廊的重要节点及通道，其民族、民俗、民间的文化相当丰富，将为县域经济发展提供全新的思考。（沅陵县民宗局）']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>185</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>新晃考察团赴麻阳等地考察美丽乡村建设工作</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2017-04-24</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/nyncj/c108770/201704/6a4c7260d46f4e38b691dd2f17a0071c.shtml</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['4月18、19日，新晃县各乡镇及有关部门和18个美丽乡村建设示范村负责同志组成的考察团一行50人在县委常委、统战部部长周依琴的带领下，赴麻阳县、鹤城区、溆浦县等地考察学习美丽乡村建设工作。', '考察团先后参观了麻阳县谭家寨乡楠木桥村，鹤城区石门乡双村、山下村，溆浦县思蒙镇黄家庄村万木春油茶基地、小横垅乡高台村黑木耳基地、统溪河镇穿岩山村等地，听取了美丽乡村示范村建设的相关经验和情况介绍。', '19日下午回到新晃后，在鱼市镇华南村召开的考察学习座谈会上，考察团成员结合考察感受就基础设施建设规划、乡村旅游资源开发、产业发展、村寨绿化、乡村文明建设、危房改造、农村综合服务平台建设等方面开展讨论。', '就我县的美丽乡村建设工作，考察团带队县领导周依琴要求，要以此次学习为契机，将先进理念与本地特色相结合，坚持规划先行，深入挖掘地域文化;要将基础物质建设和精神文明乡风建设相结合，实现提质改造，进一步纯化乡风民风，丰富美丽乡村建设内涵，实现美丽乡村建设的可持续发展。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>185</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>广西百色市安监局何江华一行来我市考察学习烟花爆竹经营安全监管新模式</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2018-06-12</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/yjglj/c108769/201806/00be699be42e405d86dba064f44c146d.shtml</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['广西百色市安监局何江华一行来我市考察学习烟花爆竹经营安全监管新模式 - 市应急管理局', '月7日至9日，广西壮族自治区百色市安监局何江华副局长一行莅临我市考察学习烟花爆竹行业安全监管工作，市安监局向德祖总工陪同调研。考察组一行先后深入会同、辰溪等县市区，重点考察了烟花爆竹批发公司正规化管理、零售点的经营布点及视频监控系统运用等工作情况，最后与市、县相关监管工作人员进行了深入的讨论交流。会上，何江华副局长对我市烟花爆竹行业安全监管工作给予高度评价，认为我市烟花爆竹行业管理正规、措施得力、效果显著，有特色、有经验，值得一学，并表示下一步要组织百色市烟花爆竹监管工作人员及烟花爆竹企业相关负责人再次赴我市参观学习。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>185</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>怀化市民宗部门赴湘西州铜仁市考察学习民族团结进步创建工作</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2018-06-20</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/mzswj/c108772/201806/7ba9b993e01e4de19541bd412105670a.shtml</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['近日，为推动怀化全市5个自治县开展创建全国民族团结进步示范县活动，怀化市民宗委党组书记、主任吴昭炎同志亲自带队，带领民族政策法规科负责人和分管领导，以及5个自治县民宗部门的主要负责人，一行9人专程前往湘西州、铜仁市两地，进行了为期3天的民族团结进步创建工作考察活动，学习借鉴兄弟市州的先进工作经验。', '怀化市是湖南省内最大的民族散居市，目前有少数民族50个，少数民族人口210万人，占全市总人口的40.5%；全市辖有5个自治县、2个少数民族人口过半县以及19个民族乡。近年来，结合“少数民族族别多、人口多、民族地区多”的民族工作实际，我市紧紧围绕着“共同团结奋斗，共同繁荣发展”的民族工作主题，将开展好民族团结进步创建工作作为做好民族工作的一个重要抓手，特别是今年根据《国家民委关于推进武陵山片区创建民族团结进步示范区的实施意见》文件精神和国家民委、省民宗委工作要求，我市在3月份下发了《怀化市创建全国民族团结进步示范县活动实施方案》（怀办发电﹝2018﹞19号），要求通道侗族自治县、新晃侗族自治县、芷江侗族自治县、靖州苗族侗族自治县、麻阳苗族自治县5个自治县开展创建全国民族团结进步示范县活动，并在2019年12月底，5个自治县创建工作要通过国家民委检查验收，获得“全国民族团结进步示范县”荣誉。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>185</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>健博会考察团赴怀化高新区考察</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2017-12-13</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101115/201712/e928e630d925451cbe107397e280e8ac.shtml</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['12月8日，2017第二届武陵山（怀化）国际健康产业博览会在怀化市会展中心拉开序幕，在当日的开幕式和签约仪式结束后，湖南省贸促会系统参会人员、参会国内外嘉宾及采购商等一行70余人在怀化高新区工委委员、管委会副主任廖先家，调研员刘晓军的陪同下，到怀化高新区先后参观考察了园区企业孵化器、侗医实验室和湖南正清制药集团。', '怀化高新区科技企业孵化器以培育和扶持科技型中小企业为宗旨，主要为创业者提供创业空间、创业辅导、孵化育成服务等，现有孵化面积约25000平方米，主要包括高新区创业创新服务大楼孵化办公区和标准化厂房孵化生产区，已入驻科技企业50多家，成功孵化毕业企业10家，帮助企业快速成长，推动大众创业万众创新。', '湖南侗古佬药业有限公司成立于2015年，总部设立怀化高新区创业大厦1103号，是一家由湖南、贵州三所高校及医学教授、主任医师、生物学博士等12名科研人员组成的民族医药研究所，是专注于生物制剂，保健用品，一、二类医疗器械产品的研究、开发、生产与销售的高科技企业。', '湖南正清集团是国家高新技术企业、国家中药现代化高科技示范企业、全国大中型工业企业自主创新能力行业十强，是怀化市唯一一家农业产业化国家重点龙头企业，拥有130多个药品批文，发明专利40余项。其中正清风痛宁系列为国际上第一个天然单体类改善病情药物（n-DMARDs）、中药抗风湿知名品牌，荣获国家科技进步二等奖；静脉用鱼腥草（博士草）注射液为中药注射剂知名品牌；清热解毒颗粒使用国家专利工艺、12道工序，质量更有保障；灵芝产品系列为国家专利药品。', '考察团认真听取了每一个企业的介绍，并表示怀化中医药产业发展前景值得期待。在考察过程中，嘉宾就健康产业、生物医药等领域跟企业展开了深入交流，为下一步的合作和发展奠定了坚实的基础。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>185</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>重庆民投集团投资考察组来溆浦考察</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2014-01-07</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101116/201401/c474c4eb3b2045c088e1d1dbb3ace40d.shtml</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['1月3日，重庆民投产业控股集团股份有限公司董事长周伟带领公司投资考察组来溆浦考察。县领导蒙汉、李卫林、翟波、张晓波、刘春让及县直相关部门随同考察或参加座谈会。', '周伟一行重点考察了溆浦县城西北片区基础设施建设及开发项目，并就投资意向与我县交换了意见。周伟说，重庆民投产业控股集团股份有限公司由重庆市涪陵区民营经济协会牵头组建，通过抱团整合民营资本，构建投融资平台，致力投资各地优势产业，促进经济社会发展。溆浦人杰地灵，资源丰富，是一块投资兴业的沃土和理想创业园。旧城改造、新城开发、工业集中区建设、新农村建设等项目都很符合重庆民投集团的投资和发展方向，具有广阔的合作前景。', '座谈会上，溆浦县委书记蒙汉说，新年伊始，重庆民投集团就带着真诚、愿望和资金来到溆浦，我们非常欢迎。蒙汉指出，一要凭实力说话。这种实力包含企业对一个地方区位条件、政策环境、干部作风、社会风气的考察和期待，也包括投资地政府对企业规模、资本、信誉和发展方向的要求。企业没有实力，只会浪费资源和耽误时间。溆浦欢迎有实力、有品位、有信用、有责任的投资者。二要靠实干立足。不管是经商还是从政，只有实干才能生存和立足。企业和地方也只有依靠真抓实干，才能实现共生共赢。三要做实在项目。双方要拿出实质性的行动，制定详细的合作方案和项目清单，明确合作时间和完成期限，做出实实在在的高品位项目。四要求实业发展。一个企业和地方要发展，必须要更加注重发展实体经济。重庆民投集团要瞄准溆浦城市建设、工业发展、农业产业、文化旅游等领域的大项目、好项目，加快投资，早见实效。', '该县委副书记、县长李卫林说，溆浦发展正当时，发展的项目和课题很多，真诚欢迎重庆民投集团来溆浦考察投资。 县委常委、常务副县长张晓波向周伟一行介绍了溆浦县情，推介了2014年重点招商引资项目。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>185</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>怀化市供销社赴长沙市浏阳市考察学习农产品品牌运营和销售工作</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2023-07-12</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gxs/c110029/202307/a7dd18e4079f4342893c09dc4236148a.shtml</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['怀化市供销社赴长沙市、浏阳市考察学习农产品品牌运营和销售工作 - 市供销合作联合社', '为进一步落实怀化市黎春秋市长对供销工作指示，不断加快“怀乡怀味”区域品牌建设和怀化市各县市区各类农产品销售工作，2023年7月9日-7月11日，由怀化市供销社党组书记、理事会主任张远春带领市供销社电商科、辰溪县供销社、新晃县供销社、辰溪县安坪镇一行人员，前往长沙市长沙县、浏阳市供销社以及大围山镇供销社参观学习公共区域品牌建设、农产品销售、电商平台建设、农村物流体系建设方面先进经验，进一步促进怀化市农产品品牌建设和销售提升，提高农产品的附加值和竞争力。', '参观学习组一行人，首先到长沙县电子商务公共服务中心学习考察农产品品牌运营和销售经验，通过深入了解长沙县农产品品牌运营和销售的案例，借鉴先进的经验和做法，为供销社农产品销售提供有力支撑。', '随后，参观学习组前往浏阳市参观了浏阳供销社流通天下农产品品牌运营中心，在中心了解了农产品品牌的策划、设计和推广等方面的工作。浏阳市供销社流通天下商务公司总经理陈柱向考察组介绍了他们如何通过品牌塑造和传播，提高产品的知名度和美誉度，考察组一行人员对农产品品牌设计和推广的案例进行了深入的讨论，深刻理解了品牌的重要性和影响力。', '接着，参观学习组一行前往浏阳市大围山镇供销社学习考察。该企业以线上线下相结合的方式进行销售，在长沙市的13个社区团群购，取得了显著成效。参观学习组一行人与大围山供销社社员企业负责人和销售人员进行了交流，了解了他们如何通过市场调研、定位和推广等手段，提升销售业绩。', '同时还参观了他们生产、包装车间，亲眼目睹了产品的包装、陈列等全过程。通过这次实地考察，考察组一行人员深刻认识到销售环节对农产品品牌运营的重要性，学习参观组一致认为，通过加工将农产品转化为具有附加值的产品，可以增加销售收入和农民的收益。', '潘虹说道：“非常欢迎怀化市供销社一行来长沙市交流，希望我们两地的供销社抱团发展，资源整合，一起把我们两地各县市区优质的农产品销售到有需要的地方去，通过区域品牌建设和农产品销售助力乡村振兴，带动更多的农户致富。”', '张远春说道：“通过本次考察学习，回去后，我们要在农产品的附加值和竞争力下功夫，要学习长沙市、浏阳市供销社如何通过创新技术和工艺，不断提高产品质量和口感，还要学会和掌握农产品品牌运营和销售模式，要把长沙市供销社、浏阳市供销社他们先进的经验和做法，运用到怀化市农产品品牌营运和农产品销售工作中。后期，我们将通过提升农产品的品牌形象和销售渠道，进一步提升品牌形象，拓宽渠道，为农民增加收入，促进农村经济发展做出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>185</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>李慎鹏带队赴湖南省建筑设计院集团股份有限公司学习考察</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2022-06-13</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101115/202206/263449a100614411af359bb7b97616fe.shtml</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['为全面推进怀化“三馆一院”项目建设，2022年6月9日，市自然资源和规划局赴湖南省建筑设计院集团股份有限公司学习考察该院在长株潭绿心中央公园总体城市设计方案征集活动中作为全过程技术服务单位的成熟经验和做法。市自然资源局总规划师，用地规划管理科、测绘院负责同志参加。', '座谈会上，市自然资源和规划局参会人员听取省建筑设计院集团推进全过程技术服务的成熟经验和做法，重点了解实施全过程技术服务的重要意义、工作模式、职责分工以及在梅溪湖国际文化艺术中心、湖南省博物馆新馆等具体项目中积累的成功经验。', '会议指出，仙人桥片区是我市城市建设的点睛之笔，是城市片区开发的重点区域，是怀化城市的会客厅，要尽快启动“三馆一院”建设，打造会客厅重要地标建筑，显化舞水沿岸高品质的区位优势。', '会议强调，“三馆一院”建设时间紧，专业性强，要积极学习借鉴全过程技术服务的成功经验，为政府提供专业、高效的决策依据。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>185</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>区住建局全体干部职工学习传达习近平总书记在湖南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2020-10-08</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/zjj/c110019/202011/6bca89bd9e6147a59a39a9e62162c307.shtml</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['区住建局全体干部职工学习传达习近平总书记在湖南考察时的重要讲话精神 - 市住房和城乡建设局', '2020年9月30日下午，区住建局党委在会议室召开了学习传达习近平总书记在湖南考察时的重要讲话精神会议，会议由局党委书记、局长李利朝同志主持，全体干部职工参加了会议。', '会议要求，当前全体干部职工要把学习贯彻习近平总书记在湖南考察时的重要讲话精神作为首要政治任务，要入脑入心、学用结合，在“新”字上做文章、在“实”字上下功夫、在“干”字上动真格，要结合各自的工作职责，把习近平总书记的重要讲话精神落到实处。要认真履职尽责，勇于担当作为，扎实工作，切实落实“六稳”、“六保”任务。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>185</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>芷江县水利局靖县水利局来洪江市进行农业水价综合改革项目考察学习</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2019-07-12</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/slj/c110001/201907/9d9d8179b1fc414d9f20e7688ea33b00.shtml</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['2019年7月11日，芷江县水利局、靖县水利局一行到我市交流农业水价综合改革试点项目经验。我市农业水价综合改革项目于2013年开始，已连续实施多年，主要对稔禾溪灌区及红旗灌区2个小型灌区进行了节水改造建设，确定了农业水权，建立了合理的水价形成机制，推广农业节水措施，建立节水奖励机制等方面的建设，通过多年项目建设管理，我局取得了丰富的经验。在对红旗灌区进行实地考察后，我局工作人员就农业水价综合改革项目实施的经验与两县同行进行了深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>185</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>市委常委会扩大会议暨怀化市党政代表团赴永州郴州学习考察总结会召开</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2023-11-07</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101112/202311/71310315614b477f93f3f9a7f8fb2a6d.shtml</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['市委常委会（扩大）会议暨怀化市党政代表团赴永州郴州学习考察总结会召开 - 怀化市人民政府', '（11月6日上午，市委书记许忠建主持召开市委常委会（扩大）会议暨怀化市党政代表团赴永州郴州学习考察总结会。怀化日报全媒体记者 杨智伟 摄）', '11月6日上午，市委书记许忠建主持召开市委常委会（扩大）会议暨怀化市党政代表团赴永州郴州学习考察总结会。他强调，要深入学习贯彻党的二十大精神和习近平总书记关于湖南工作的重要讲话重要指示批示精神，认真贯彻落实省委十二届四次全会精神，对照先进找差距、学经验、明措施、抓落实，在推动高质量发展中奋力争先进位。市委副书记、市长黎春秋出席并讲话。市人大常委会主任李万千，市政协主席印宇鹰，市领导陈旌、李卫林、胡和平、杜登峰作交流发言。', '许忠建指出，本次学习考察行程紧凑、主题突出、内容丰富、收获满满。在学习考察过程中，代表团成员强烈感受到永州、郴州锚定“三高四新”美好蓝图的政治担当、推动高质量发展的蓬勃态势、干部干事创业的闯劲干劲以及深化合作发展的广阔空间。我们要对照先进找差距，进一步增强等不起、慢不得、坐不住的责任感和紧迫感，认真学习他们对标看齐的政治担当、转型发展的自觉行动、大兴产业的管用举措、敢闯敢试的胆识魄力，转化为我们的工作思路、方法、举措和强大动力。', '许忠建强调，要瞄准高质量发展的关键重点，精准发力、持续用力，奋力争先进位。要在扩大对内对外开放上下更大功夫，全方位提升开放平台能级，充分发挥怀化国际陆港战略支点作用，做大做强临港产业，积极主动融入共建西部陆海新通道和面向印度洋国际陆海大通道，加快把怀化建设成为名副其实的内陆地区改革开放高地。要在加快构建“5+N”现代化产业体系上下更大功夫，立足资源禀赋，发挥比较优势，聚力发展重点产业链，加快产业转型升级，推动文旅产业深度融合发展。要在抓实招商引资“一号工程”上下更大功夫，坚持党政主要领导干部带头招商，深入推进湘商回归，全力以赴招大引强，铁腕优化营商环境，科学谋划明年招商引资的目标任务和措施。要在推动城乡区域协调发展上下更大功夫，聚焦“主”“特”产业定位，保持战略定力，坚持久久为功，务求取得新突破、实现大发展。要在锻造高素质干部队伍上下更大功夫，坚持不懈用习近平新时代中国特色社会主义思想凝心铸魂，领导干部带头干、带着干，传导责任逼着干、督着干，坚持严管和厚爱结合、激励和约束并重，严格落实“三个区分开来”，旗帜鲜明为担当者担当、为负责者负责、为干事者撑腰。', '黎春秋在讲话中指出，要做到心动不如行动，将学习考察的成果转化为具体行动和发展实效。要下定决心干成事，坚持对标对表，用超常规的思维、举措推动高质量发展，奋力争先进位、后发赶超。要抢抓历史机遇，既借势而为，又借船出海，加快推进怀化国际陆港建设，积极主动融入共建西部陆海新通道和面向印度洋国际陆海大通道。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>185</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>怀化市应急管理局组织人员赴益阳市安化县考察学习自然灾害综合风险普查工作</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2021-04-21</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/yjglj/c108769/202104/f592cd54e4524493bd266a8f8fec3330.shtml</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['怀化市应急管理局组织人员赴益阳市安化县考察学习自然灾害综合风险普查工作 - 市应急管理局', '为贯彻落实国务院、省、市第一次自然灾害综合风险普查工作部署要求，学习国家试点县的先进经验和成功做法，4月19至20日，怀化市应急管理局四级调研员、市普查办主任粟翠林率市辖13个县市区应急管理局分管领导及专干组团到益阳市安化县考察学习。', '考察团一行在益阳市应急管理局相关领导的陪同下，与安化县应急管理局进行座谈交流。会上，安化县应急管理局就普查工作情况作了经验介绍，双方在如何更好推进相关工作上进行了深入交流与探讨。随后，考察团一行参观了安化县普查办公室，详细了解普查工作情况，翻阅普查成果资料，并进行了面对面的交流。', '通过此次考察学习，为我市开展自然灾害综合风险普查工作积累了经验，奠定了坚实的基础。参与人员纷纷表示，此次考察受益匪浅，对加快推进我市自然灾害综合风险普查工作具有重要意义。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>185</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>学习贯彻习近平总书记考察湖南重要讲话精神省委宣讲团在鹤城宣讲宋智富作宣讲报告</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2020-10-24</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c200023/202010/bae18103363840b48e8d1589fbf34663.shtml</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['学习贯彻习近平总书记考察湖南重要讲话精神省委宣讲团在鹤城宣讲 宋智富作宣讲报告 - 怀化市人民政府', '根据省委安排部署，10月23日上午，学习贯彻习近平总书记考察湖南重要讲话精神省委宣讲团在鹤城宣讲。省社科联党组书记、常务副主席宋智富作宣讲报告。市政协副主席巫培云出席。', '宣讲报告中，宋智富理论联系实际，分别从如何理解习近平总书记考察湖南的重大意义、如何把握习近平总书记重要讲话的核心要点、如何领会习近平总书记重要讲话的精神实质、如何深入学习贯彻习近平总书记重要讲话精神等四个层面，并结合自己的思考、学习和体会，作了全面、准确、深刻、生动的解读。', '报告强调，习近平总书记亲临湖南考察是在决战脱贫攻坚、决胜全面小康，进而乘势而上开启全面建设社会主义现代化国家的新征程的关键节点，以及我国疫情防控取得阶段性胜利，我国经济形成以国内大循环为主、国内国际双循环相互促进的新发展格局的重要时间节点，进行的一次重要考察，具有重大的政治意义、战略意义、时代意义和实践意义。', '报告强调，习近平总书记重要讲话为湖南发展锚定了新坐标、赋予了新使命。要深刻把握习近平总书记为湖南发展明确的战略定位、战略目标、战略任务，着力在“三个高地”“四新使命”“五项任务”“两个要求”上，奋力谱写新时代坚持和发展中国特色社会主义湖南新篇章。', '报告要求，鹤城区要围绕习近平总书记的重要讲话精神，学深悟透、实干笃行、狠抓落实，就《中共怀化市委关于深入学习贯彻习近平总书记考察湖南重要讲话精神 为奋力谱写新时代坚持和发展中国特色社会主义湖南新篇章贡献怀化力量的决定》《中国共产党怀化市第五届委员会第九次全体会议决议》进一步抓好落实、干出成效。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>185</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>习近平在吉林考察</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2018-09-27</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/201809/fb7a2d6ae32a4d91bf9b11c7a777b08b.shtml</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['9月26日下午，习近平从黑龙江齐齐哈尔乘火车抵达吉林省松原市。一下车，他就前往查干湖，了解生态保护和渔民捕捞作业情况。查干湖是我国十大淡水湖之一，渔产资源丰富。(文字记者 张晓松、摄影记者 鞠鹏)']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>185</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>台湾考察组到中方考察生态农业和生态旅游工作</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2012-09-04</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/nyncj/c108785/201209/a32dc46f20e64933a011926ac2276f24.shtml</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['8月29日下午，台湾屏东科技大学农业管理学教授段兆麟带领台湾考察组一行在市县相关部门负责人的陪同下，先后到中方县桐木镇海联集团生态农业示范园、荆坪古村进行了实地考察。', '考察组详细听取了中方农业生态园建设的情况介绍，并实地查看了生态园的建设。中方县海联农业产业有限公司，投资5408万元启动了中方县生态农业示范园及海联果蔬食品研发中心项目，依托海联食品有限公司，打造示范性的生态食品原材料基地。在已有柑橘园、葡萄园基础上，又完成水库垂钓、花卉广场等观艺休闲项目，养殖基地、中药材基地正在布局建设中。考察组认为，农业生态园的建设，通过资源循环利用，让老百姓享受到没有污染的无公害农产品，从长远看，是现代农业发展的必然之路，后期效益非常可观。希望中方县继续做大做强农业，造福百姓。', '随后，考察组来到荆坪古村，考察生态旅游工作。荆坪古村自然风光迷人，古文化底蕴深厚。古村民俗民风淳朴，乡土文化气息浓郁。考察组认为，中方县充满了生机和商机，生态农业的发展必然会带动生态旅游业的发展，考察组希望两地通过相互交流，能给当地的生态农业和生态旅游业的发展带来更多的机遇。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>185</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>习近平在上海考察</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2018-11-09</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/201811/11dd34f5721848d3801562722e609e9c.shtml</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['新华社上海11月7日电 中共中央总书记、国家主席、中央军委主席习近平近日在上海考察时强调，坚持以新时代中国特色社会主义思想为指导，坚决贯彻落实党中央决策部署，坚定改革开放再出发的信心和决心，坚持稳中求进工作总基调，全面贯彻新发展理念，坚持以供给侧结构性改革为主线，加快建设现代化经济体系，打好三大攻坚战，加快提升城市能级和核心竞争力，更好为全国改革发展大局服务。', '11月6日至7日，习近平在出席首届中国国际进口博览会开幕式和相关活动后，在中共中央政治局委员、上海市委书记李强和市长应勇陪同下，深入上海的企业、社区、城市运行综合管理中心、高新科技园区，就贯彻落实党的十九大精神和当前经济形势、推进科技创新、加强城市管理和社区治理进行调研。', '11月6日至7日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是6日上午，习近平在上海中心大厦22层的陆家嘴金融城党建服务中心，同正在联合开展主题党日活动的企业党员亲切交谈。新华社记者 谢环驰 摄', '11月6日至7日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是6日上午，习近平在上海中心大厦22层的陆家嘴金融城党建服务中心，详细了解中心开展党建工作等情况。新华社记者 李涛 摄', '位于陆家嘴的上海中心大厦建筑总高度632米，是已建成的中国第一、世界第二高楼，是上海的一座标志性建筑。2007年，习近平在上海工作期间，十分重视上海中心大厦建设，多次到陆家嘴地区实地调研，亲自研究陆家嘴地区规划，亲自审定上海中心大厦设计方案，推动相关工作，要求把上海中心大厦建设成为绿色、智慧、人文的国际一流精品工程。大厦22层的陆家嘴金融城党建服务中心，是陆家嘴金融贸易区综合党委建立的楼宇党建阵地。6日上午，习近平来到这里，详细了解中心开展党建工作等情况。在党建服务中心的空中花园研讨交流区，3家企业党支部正在联合开展“我与金融城共成长”主题党日活动，习近平来到他们中间，同他们亲切交谈。习近平充分肯定上海从陆家嘴金融城产业集聚、企业汇聚、人才广聚的实际出发，创新党建工作思路和模式，为楼宇内各种所有制企业的基层党组织和党员提供学习指导、管理服务、活动平台的做法。习近平指出，党建工作的难点在基层，亮点也在基层。随着经济成分和就业方式越来越多样化，在新经济组织、新社会组织就业的党员越来越多，要做好其中的党员教育管理工作，引导他们积极发挥作用。基层党建既要发扬优良传统，又要与时俱进，不断适应新形势，拓宽基层党建的领域，做到党员工作生活在哪里、党组织就覆盖到哪里，让党员无论在哪里都能找到组织找到家。希望上海在加强基层党建工作上继续探索、走在前头。我们在有党员的各类企业里建立党组织，目的是为企业的党员提供管理和服务，团结凝聚员工遵纪守法，遵守企业规章制度，发挥党员先锋模范作用。这也有利于企业加强管理，有利于推动企业健康发展。', '11月6日至7日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是6日上午，习近平在上海中心大厦119层观光厅俯瞰上海城市风貌。新华社记者 李学仁 摄', '随后，习近平来到119层观光厅，俯瞰上海城市风貌。东方明珠、环球金融中心、金茂大厦、杨浦大桥、世博园区……一处处经典建筑铺展成一幅壮美长卷。大厅内，一幅幅照片今昔对比，生动展示上海百年沧桑巨变。习近平不时驻足观看，同大家交流，回顾上海城市发展历程。他表示，改革开放以来，中国发生了翻天覆地的变化，上海就是一个生动例证。上海是我国最大的经济中心城市和长三角地区合作交流的龙头，要不断提高城市核心竞争力和国际竞争力。要发扬“海纳百川、追求卓越、开明睿智、大气谦和”的上海城市精神，立足上海实际，借鉴世界大城市发展经验，着力打造社会主义现代化国际大都市。', '11月6日至7日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是6日上午，习近平在虹口区市民驿站嘉兴路街道第一分站察看综合服务窗口。新华社记者 李涛 摄', '11月6日至7日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是6日上午，习近平在虹口区市民驿站嘉兴路街道第一分站托老所同老年居民亲切交谈。新华社记者 李涛 摄', '11月6日至7日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是6日上午，习近平在虹口区市民驿站嘉兴路街道第一分站，同几位正在交流社区推广垃圾分类的做法的年轻人亲切交谈。新华社记者 李涛 摄', '上海虹口区人口密度大。为满足居民社区生活各方面需求，虹口区设置了35个市民驿站，努力打造“15分钟社区生活服务圈”。习近平走进虹口区市民驿站嘉兴路街道第一分站，逐一察看综合服务窗口、托老所、党建工作站等。托老所内，几位老年居民正在制作手工艺品，总书记亲切向他们问好，老人们激动地握着总书记的手，向总书记讲述自己的幸福晚年。习近平指出，我国已经进入老龄社会，让老年人老有所养、生活幸福、健康长寿是我们的共同愿望。党中央高度重视养老服务工作，要把政策落实到位，惠及更多老年人。市民驿站里，来自居委会、企业的几位年轻人正在交流社区推广垃圾分类的做法。习近平十分感兴趣，仔细询问有关情况。一位年轻人介绍说公益活动已经成为新时尚。习近平强调，垃圾分类工作就是新时尚!垃圾综合处理需要全民参与，上海要把这项工作抓紧抓实办好。习近平叮嘱他们，城市治理的“最后一公里”就在社区。社区是党委和政府联系群众、服务群众的神经末梢，要及时感知社区居民的操心事、烦心事、揪心事，一件一件加以解决。老百姓心里有杆秤。我们把老百姓放在心中，老百姓才会把我们放在心中。加强社区治理，既要发挥基层党组织的领导作用，也要发挥居民自治功能，把社区居民积极性、主动性调动起来，做到人人参与、人人负责、人人奉献、人人共享。临别时，闻讯赶来的居民簇拥在总书记身边，争相同总书记握手。', '11月6日至7日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是6日下午，习近平在浦东新区城市运行综合管理中心了解上海城市精细化管理和国际贸易单一窗口运营情况。新华社记者 李学仁 摄', '6日下午，习近平来到浦东新区城市运行综合管理中心，通过大屏幕了解上海城市精细化管理和国际贸易单一窗口运营情况。习近平强调，城市治理是国家治理体系和治理能力现代化的重要内容。一流城市要有一流治理，要注重在科学化、精细化、智能化上下功夫。既要善于运用现代科技手段实现智能化，又要通过绣花般的细心、耐心、巧心提高精细化水平，绣出城市的品质品牌。上海要继续探索，走出一条中国特色超大城市管理新路子，不断提高城市管理水平。', '习近平一直关心洋山港建设和发展，在这里还视频连线洋山港四期自动化码头，听取码头建设和运营情况介绍。他指出，经济强国必定是海洋强国、航运强国。洋山港建成和运营，为上海加快国际航运中心和自由贸易试验区建设、扩大对外开放创造了更好条件。要有勇创世界一流的志气和勇气，要做就做最好的，努力创造更多世界第一。他希望上海把洋山港建设好、管理好、发展好，加强软环境建设，不断提高港口运营管理能力、综合服务能力，在我国全面扩大开放、共建“一带一路”中发挥更大作用。', '11月6日至7日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是6日下午，习近平在张江科学城展示厅考察，了解上海科技创新和科技成果转化情况。新华社记者 谢环驰 摄', '11月6日至7日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是6日下午，习近平在张江科学城展示厅考察时，同在场的科技工作者亲切交谈。新华社记者 李学仁 摄', '张江科学城作为上海科创中心核心区和国家级科技高地，集聚了一批大科学设施、科学平台和一流创新型院所。在展示厅，习近平听取科学城发展历程及规划建设情况介绍，参观了大科学设施、集成电路、航空航天、生物医药等展区。习近平同在场的科技工作者亲切交谈，他强调，科学技术从来没有像今天这样深刻影响着国家前途命运，从来没有像今天这样深刻影响着人民生活福祉。在实现中华民族伟大复兴的关键时刻，要增强科技创新的紧迫感和使命感，把科技创新摆到更加重要位置，踢好“临门一脚”，让科技创新在实施创新驱动发展战略、加快新旧动能转换中发挥重大作用。要认真落实党中央关于科技创新的战略部署和政策措施，加强基础研究和应用基础研究，提升原始创新能力，注重发挥企业主体作用，加强知识产权保护，尊重创新人才，释放创新活力，培育壮大新兴产业和创新型企业，加快科技成果转化，提升创新体系整体效能。要以全球视野、国际标准推进张江综合性国家科学中心建设，集聚建设国际先进水平的实验室、科研院所、研发机构、研究型大学，加快建立世界一流的重大科技基础设施集群。', '7日下午，习近平听取了上海市委和市政府工作汇报，对上海各方面工作给予肯定。他希望上海继续当好全国改革开放排头兵、创新发展先行者，勇于挑最重的担子、啃最难啃的骨头，发挥开路先锋、示范引领、突破攻坚的作用，为全国改革发展作出更大贡献。', '习近平强调，中华民族伟大复兴绝不是轻轻松松、敲锣打鼓就能实现的，必须进行具有许多新的历史特点的伟大斗争。我们仍然处在大有可为的历史机遇期，前景十分光明，挑战也十分严峻。现在，我国发展外部环境发生明显变化，我国经济已由高速增长阶段转向高质量发展阶段，发展不平衡不充分问题和各种周期性、结构性、体制性因素交织叠加在一起，加大了工作难度。但是，只要我们保持战略定力，集中精力办好自己的事情，我们认准的目标就一定能实现。', '习近平强调，上海在党和国家工作全局中具有十分重要的地位，做好上海工作要有大局意识、全局观念，在服务全国中发展上海。习近平对上海提出了5个方面的工作要求。', '一是更好为全国改革发展大局服务。要把增设上海自由贸易试验区新片区、在上海证券交易所设立科创板并试点注册制、实施长江三角洲区域一体化发展国家战略这3项新的重大任务完成好，坚持推动高质量发展的要求，构筑新时代上海发展的战略优势。要按照国家统一规划、统一部署，全力服务“一带一路”建设、长江经济带发展等国家战略。要在推动长三角更高质量一体化发展中进一步发挥龙头带动作用，把长三角一体化发展的文章做好，使之成为我国发展强劲活跃的增长极。', '二是推动经济高质量发展。要主动推动质量变革、效率变革、动力变革，在提高城市经济密度、提高投入产出效率上下功夫，在提升配置全球资源能力上下功夫，在增强创新策源能力上下功夫，加快建设现代化经济体系。要瞄准世界科技前沿，加强科技创新前瞻布局，聚焦关键领域，集合精锐力量，尽早取得重大突破，使创新成为高质量发展的强大动能。要把高质量发展着力点放在实体经济上，加快建设实体经济、科技创新、现代金融、人力资源协同发展的产业体系，全面提升上海在全球城市体系中的影响力和竞争力。', '三是推动改革开放向纵深发展。要进一步解放思想，准确识变、科学应变、主动求变，坚决破除条条框框、思维定势的束缚，深入推进重要领域和关键环节改革，加强系统集成，继续抓好国资国企、民营经济、商事制度、社会信用、人才发展、城市管理、民生保障等改革举措的完善和落实，放大改革综合效应。要深化资本市场改革，吸引培育本土更多科创企业发展壮大。要瞄准最高标准、最高水平，优化政务服务，打造国际一流营商环境。要在更深层次、更宽领域、以更大力度推进全方位高水平开放，为长远发展夯实基础。要带头贯彻鼓励、支持、引导民营企业发展的政策举措，为民营企业发展创造良好制度环境。', '四是深化社会治理创新。要提高社会治理社会化、法治化、智能化、专业化水平，更加注重在细微处下功夫、见成效。要坚持以人民为中心的发展思想，坚持共建共治共享，坚持重心下移、力量下沉，着力解决好人民群众关心的就业、教育、医疗、养老等突出问题，不断提高基本公共服务水平和质量，让群众有更多获得感、幸福感、安全感。', '五是提高党的建设质量和水平。要认真贯彻新时代党的建设总要求，坚持党要管党、全面从严治党，全面推进党的政治建设、思想建设、组织建设、作风建设、纪律建设。要坚持严字当头、全面从严、一严到底，严格落实管党治党责任。要贯彻新时代党的组织路线，坚持把政治标准作为第一标准，建设忠诚干净担当的高素质干部队伍，确保干部队伍政治上信得过、靠得住、能放心。要加强对新时代中国特色社会主义思想的学习，不断提高思想觉悟和理论水平，坚定理想信念，不断增强“四个意识”、坚定“四个自信”，补足精神之钙，把稳思想之舵。要加快培养各领域各方面的专业人才，引导干部自觉更新知识、提高本领，经风雨、见世面、壮筋骨、长才干。要广开进贤之路，广泛集聚各方面优秀人才。要加强党的基层组织建设，把资源、服务、管理下沉基层、做实基层，把每个基层党组织建设成为坚强战斗堡垒。要高度重视意识形态工作，弘扬社会主义核心价值观，弘扬正能量。', '11月6日至7日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是6日，习近平在上海亲切接见驻沪部队副师职以上领导干部和团级单位主官，代表党中央和中央军委向驻沪部队全体官兵致以诚挚问候。新华社记者 李刚 摄', '考察期间，习近平在上海亲切接见驻沪部队副师职以上领导干部和团级单位主官，代表党中央和中央军委向驻沪部队全体官兵致以诚挚问候。张又侠陪同接见。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>185</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>省联合考察组实地考察年战略性新兴产业项目</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2015-07-28</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101115/201507/03eea119dbad434c86ea560b8d48bf31.shtml</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['7月26日，由省科技厅、省经信委、省财政厅、技术专家、财务专家组成的联合考察组，深入新晃县，就龙脑公司申报的2015年战略性新兴产业项目——“龙脑樟综合开发利用产业链构建的核心技术研究与示范”，进行实地考察。 考察组一行现场察看了龙脑产品展示室、生产车间、精制车间，就项目实施进展和拟突破的关键技术瓶颈，与公司董事长宁石林、项目负责人龙晓明、首席专家谭桂山，进行询问交流。考察组作风深入扎实，工作认真负责，就龙脑公司现有知识产权情况、产学研合作情况、资产情况、研发条件、科研投入、经费保障及使用情况等，与所提供的证明材料原件、财务报表和入出库凭证，一一进行查验比对。 考察组认为，龙脑公司的现有知识产权、产学研合作、资产等情况良好，具备基本的研发条件，具备项目实施的基本条件；有较好的研发投入，且占当年销售收入的5%，目前进行的实质性投资占项目资金的30%；项目处于小试向中试过渡阶段，课题完成后所形成的产品具有较好的市场前景。 考察组希望，龙脑公司以项目实施为契机，扎实开展科研攻关，严谨规范财务收支，把龙脑产业做实做好。（高新科）']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>185</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>怀化市委常委会召开会议传达学习习近平总书记在海南考察时的重要讲话精神等</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2022-04-21</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101113/202204/b7648cbd1c4e40c8b99af9663129d04d.shtml</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['怀化市委常委会召开会议 传达学习习近平总书记在海南考察时的重要讲话精神等 - 怀化市人民政府', '4月20日下午，受市委书记雷绍业委托，市委副书记、市长黎春秋主持召开市委常委会会议，传达学习习近平总书记在海南考察时的重要讲话精神、在《求是》杂志发表的重要文章《促进我国社会保障事业高质量发展、可持续发展》精神，赵乐际同志在湖南调研时的讲话精神、全省纪检监察系统视频会议精神和全省深化整治领导干部违规收取红包礼金问题视频会议精神。审议《关于深化整治党员干部和公职人员违规收送红包礼金问题的实施方案（送审稿）》，传达学习《中央生态环境保护督察整改工作办法》精神、全省市州长视频会议精神，研究我市贯彻落实意见。', '会议强调，要深入学习习近平总书记的重要讲话和重要文章精神，结合怀化实际不折不扣抓好贯彻落实。要完整、准确、全面贯彻新发展理念，坚定不移推动高质量跨越式发展。要坚持稳字当头、稳中求进、稳中快进、奋力作为，持之以恒大抓产业、狠抓产业、猛抓产业，加大科技创新和成果转化力度，以更大魄力深化改革、扩大开放，推进城乡区域协调发展。要扎实推进乡村全面振兴，全力推动“三农”工作取得新进展。要扛稳粮食安全重任，强化农业全产业链建设，坚持抓产业、抓环境两手抓，推动巩固拓展脱贫攻坚成果同乡村振兴有效衔接，坚持生态优先、绿色发展。要用心用情用力解决好人民群众“急难愁盼”问题，积极探索共同富裕实现新路径。要坚持和加强党的全面领导，深入推进全面从严治党。', '会议强调，要深入学习贯彻赵乐际同志在湖南调研时的讲话精神，坚持不懈推动全面从严治党向纵深发展。要以迎接党的二十大为主线，扎实推进纪检监察重点工作落地落实。要强化政治监督，抓实深化纪律作风整顿、营造一流营商环境“清风”行动，持续深化“三不”一体推进，加大“风腐一体”治理力度，强力整治群众身边腐败和不正之风，着力提升监督效能。要切实加强自身建设，深入推进纪检监察工作规范化、法治化、正规化建设。', '会议强调，要提高政治站位，切实把思想和行动统一到《中央生态环境保护督察整改工作办法》（以下简称《办法》）要求上来，扎实推进五省边区生态文明中心城市建设。要坚决落实《办法》要求，以“减污降碳”为重点，加快创建国家级生态文明建设示范市；突出抓好“碳达峰”研究与“两山银行”试点工作。要加强组织领导，确保《办法》在怀化落地见效。', '会议强调，要认真贯彻落实全省市州长视频会议精神，全面、客观、冷静分析把握一季度经济形势，全力办好发展经济这个最大实事，坚决确保实现时间、任务“双过半”。 要突出重点、精准发力，全力以赴稳增长、保目标。把稳增长放到更加突出位置，提振消费信心，稳定外贸增长，推进规上企业发展，推动财税收入量质齐升。要统筹发展和安全两件大事，毫不放松抓好疫情防控，深入开展安全生产大检查，积极防范化解政府债务风险，扎实做好信访维稳工作，为党的二十大胜利召开营造安全稳定的社会环境。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>185</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>湘西州党政考察团来怀考察叶红专彭国甫参加</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2020-12-16</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101112/202012/61867e9541554a2385ac59f5f62c4573.shtml</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['12月15日，省人大常委会副主任、湘西州委书记叶红专率湘西州党政考察团来到麻阳，考察脱贫攻坚、产业建设等工作。省政协副主席、市委书记彭国甫参加考察。图为考察团在谭家寨乡楠木桥村考察。', '12月15日，省人大常委会副主任、湘西州委书记叶红专率湘西州党政考察团来到麻阳，考察脱贫攻坚、产业发展等工作。省政协副主席、市委书记彭国甫，湘西州领导廖良辉、杨彦芳、张青勇、涂碧波，怀化市领导陈恢清、姚述铭参加。', '谭家寨乡楠木桥村通过“连村联创·抱团攻坚”模式，6个村9个党支部抱团参与，因地制宜发展葡萄、蓝莓、猕猴桃等绿色产业，带动659户2433名贫困群众脱贫致富。考察团对该村党建引领带动群众脱贫的好做法给予充分肯定，认为楠木桥村发挥资源优势，做大做强优势产业，抓住了基层党建这个解决脱贫攻坚的“金钥匙”，实现了强带弱、弱跟强的联合；既遵循了农村的事情要按农村规律办原则，又最大限度激发了贫困人口内生动力这个脱贫关键，创造的有益经验值得湘西州学习借鉴。', '易地扶贫搬迁安置点龙升社区占地面积195亩，共安置来自18个乡镇集中搬迁的建档立卡贫困户966户3742人。考察团认真察看了社区便民服务中心、扶贫车间、惠民菜园等地，对安置区瞄准群众搬迁“痛点”、大力完善配套设施，实施“三级联建、精准后扶”的做法点赞。考察团表示，怀化把易地扶贫搬迁作为系统工程来谋划，抓大不放小，创新机制推进安置项目建设，探索出台的易地扶贫搬迁后续帮扶二十条措施等为易地扶贫搬迁提供了有益借鉴，湘西州要学好用好经验，持续做好后续帮扶工作，在确保搬迁户“搬得出、稳得住、能发展、可致富”的基础上，进一步实现“收入好、就业好、生活好、精神好”。', '位于麻阳工业集中区的怀化建南机器厂近年来积极转型升级，致力新能源产品前沿技术研发，生产的智能电表远销东南亚、非洲、南美，成为怀化电子信息产业快速发展的缩影。考察团认为怀化近年来着力推动科技创新，加快科技创新成果向现实生产力转化，经济整体竞争力不断增强，产业和产业园区发展来势迅猛，为湘西州产业发展提供了有益借鉴。', '湘西考察团表示，湘西州与怀化地缘相近、人缘相亲、血脉相连，两地交往频繁，经济社会发展联系十分紧密，在我省“十四五”规划“一核两副三带四区”中同属湘西区域板块。湘西州将学习借鉴好怀化在脱贫攻坚和产业发展等方面的好经验好做法，推动湘西州经济社会高质量发展。希望两地之间加强联系、取长补短、相互借鉴，实现共同进步、共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>185</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>中方县卫生健康系统组织学习习近平总书记在湖南考察调研时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2020-10-26</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/wsjkw/c119252/202010/86282a5a81934256b9db3c02d5924ed7.shtml</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['中方县卫生健康系统组织学习习近平总书记在湖南考察调研时的重要讲话精神 - 市卫生健康委员会', '10月26日，中方县卫健局召开会议专题学习习近平总书记在湖南考察调研时的重要讲话精神，全体班子成员及干部职工、二级机构负责人、县人民医院及22个乡镇卫生院院长100余人参加会议，该局局长金伟主持会议并讲话。', '会上，该局党委副书记洪波同志组织学习了习近平总书记在湖南考察调研时的重要讲话精神。局长金伟强调，卫健系统全体干部职工一定要严格贯彻党中央决策部署，牢记习近平总书记的嘱托，认真落实好习近平总书记对卫生健康工作的要求；要聚焦解决“看病难、看病贵”问题，始终紧绷常态化疫情防控这根弦，扎实做好外防输入，内防反弹工作;要把村为民服务中心作为基层治理体系的重要阵地建设好，深化医药卫生体制改革推动“三医联动”，增强卫健人为民服务的精准性和实效性，打通服务群众“最后一公里”。 (谢晓芳）']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>185</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>习近平在辽宁考察</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2018-09-28</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/201809/3776c8f26b8e43449aa175acc7c1a5d6.shtml</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['9月27日上午，习近平乘车前往中国石油辽阳石化公司，开始在辽宁考察。这也是习近平东北之行的第三站。此前，他先后考察了黑龙江省农垦建三江管理局、齐齐哈尔市和吉林省松原市，26日晚抵达辽宁。(文字记者张晓松 摄影记者鞠鹏、谢环驰)']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>185</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>洪江区供销合作社赴贵州省黎平县供销合作社社员股金服务社学习考察</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2017-07-24</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gxs/c110031/201707/3b1df2f1d3b546d898ec068f4bc015b1.shtml</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['洪江区供销合作社：赴贵州省黎平县供销合作社社员股金服务社学习考察 - 市供销合作联合社', '为深入推进供销合作社综合改革，洪江区供销合作社结合自身的实际情况，拟将开展农村合作经融服务作为改革的突破口和着力点。为了更好的借鉴外地成功经验，稳妥开展供销合作社资金互助，7月20日-21日，由区供销合作社分管综合改革副主任易志群带队，社机关及社属企业负责人一行5人赴贵州省黎平县供销合作社社员股金服务社就社员股金服务工作进行了现场考察学习交流。', '为深入推进供销合作社综合改革，洪江区供销合作社结合自身的实际情况，拟将开展农村合作经融服务作为改革的突破口和着力点。为了更好的借鉴外地成功经验，稳妥开展供销合作社资金互助，', '考察组一行参观了黎平县供销合作社社员股金服务社营业部，听取了相关情况介绍，并就社员股金的吸收、调剂，内部风险控制，投资、担保、融资等等问题作了深入细致的探讨。这次考察活动虽然时间短暂，但内容丰富，受益匪浅，既开阔了视野、认识到了差距，又受到了启迪、增强了信心，为下一步的工作打下了坚实的基础。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>185</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>习近平在海南考察</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2018-04-13</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/201804/f974d05927a040b7975b1bd2bcb49ad5.shtml</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['新华社海口4月13日电 中共中央总书记、国家主席、中央军委主席习近平近日在海南考察时强调，全面贯彻党的十九大和十九届二中、三中全会精神，统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局，以更高的站位、更宽的视野、更大的力度谋划和推进改革开放，充分发挥生态环境、经济特区、国际旅游岛的优势，真抓实干加快建设美好新海南。', '4月的琼州大地，满目苍翠，天蓝海碧，鸟语花香，到处展现勃勃生机。11日至13日，习近平在出席博鳌亚洲论坛2018年年会有关活动后，在中共中央政治局常委、中央书记处书记王沪宁，海南省委书记刘赐贵、省长沈晓明陪同下，先后来到琼海、三亚、海口等地，深入农村、科研单位、政务中心，考察调研经济社会发展情况。', '11日下午，习近平首先来到博鳌乐城国际医疗旅游先行区规划馆，了解先行区功能定位和规划，听取建设情况介绍，察看国产磁控胶囊胃镜机器人等先进医疗设备，并同医疗专家们亲切交流。他强调，实现“两个一百年”奋斗目标，必须坚持以人民为中心的发展思想。经济要发展，健康要上去。人民群众的获得感、幸福感、安全感都离不开健康。要大力发展健康事业，为广大老百姓健康服务。', '12日下午，习近平来到设在三亚市的中国科学院深海科学与工程研究所，看望科技人员和考察科技创新情况。海南省管辖我国三分之二的海洋面积，在开展深海进入、深海探测、深海开发等技术研发方面具有得天独厚的条件。这个所是由海南省人民政府、三亚市人民政府和中国科学院三方联合共建的深海科技研发机构。习近平仔细听取有关我国深海科学研究和探测情况介绍，通过视频短片了解我国首次在马里亚纳海沟开展万米级海底探测情况，并兴致勃勃走进深海探测装备展示区察看各种深海深潜高技术装备。“海斗”号无人潜水器、“海翼”号深海滑翔机、“天涯”号深渊着陆器等深海科考设备吸引了总书记的目光。他拿起采自马里亚纳海沟万米海底的海水样品仔细端详，捧起国产深潜用固体浮力材料掂了掂分量。“深海勇士”号载人潜水器总设计师胡震和潜航员团队围拢过来，总书记同他们一一握手，向他们询问深海下潜的感受和设备的研发、试验情况。他指出，我国是一个海洋大国，海域面积十分辽阔。一定要向海洋进军，加快建设海洋强国。南海是开展深海研发和试验的最佳天然场所，一定要把这个优势资源利用好，加强创新协作，加快打造深海研发基地，加快发展深海科技事业，推动我国海洋科技全面发展。', '离开研究所时，科研人员纷纷围聚过来，向总书记问好。习近平勉励大家要献身祖国科技研发事业，努力抢占科技发展制高点，研究出更多更好成果，推动科研同实际应用相衔接，为国家现代化建设贡献更大力量。', '随后，习近平冒着30多摄氏度的高温来到国家南繁科研育种基地。海南是我国重要的农作物种子繁育基地。每年冬春季节，数以千计的科学家、技术员从全国各地聚集到这里育种、制种。蛙鸣鸟啼，稻花飘香。习近平沿着田埂走进“超优千号”超级水稻展示田，察看水稻长势，同袁隆平院士等农业科技人员亲切交谈，了解水稻育制种产业发展和推广情况。听到我国科研人员培育的超级杂交稻品种屡创世界水稻单产最高纪录，习近平十分高兴。他强调，十几亿人口要吃饭，这是我国最大的国情。良种在促进粮食增产方面具有十分关键的作用。要下决心把我国种业搞上去，抓紧培育具有自主知识产权的优良品种，从源头上保障国家粮食安全。海南热带农业资源十分丰富、十分宝贵。国家南繁科研育种基地是国家宝贵的农业科研平台，一定要建成集科研、生产、销售、科技交流、成果转化为一体的服务全国的“南繁硅谷”。', '13日上午，习近平来到位于海口市的海南省博物馆，参观海南建省办经济特区30周年成就展。一张张照片，一幅幅图表，一件件实物，记述了海南30年来特别是党的十八大以来在改革开放和社会主义现代化建设方面的成就。习近平不时驻足观看，边走边问，详细了解海南建省以来的发展历程。他强调，贯彻落实党中央决策部署，不是喊口号，要经过深入调研，结合当地实际，形成符合党中央精神的行之有效的具体举措。他深情对大家说，海南建省办经济特区30年来，从一个欠发达的边陲海岛发展成为我国最大的经济特区和驰名中外的国际旅游岛，改革开放实现重大突破，经济社会发展取得巨大成就，充分证明党中央关于海南建省办经济特区的决策是正确的。今年是改革开放40周年，我们要总结经验、乘势而上，在新起点上推动改革开放实现新突破。海南要充分利用地缘优势、资源优势、生态优势、政策优势，着力在体制机制创新和发展思路模式创新上下功夫，谱写美好海南新篇章。', '博物馆中的生态建设馆展示了海南坚持绿水青山就是金山银山、实施生态立省战略取得的可喜成绩。习近平察看了热带海洋岛屿动植物物种基因库样本，观看了自然保护区实时监控画面，听取了海南空气质量监测数据分析，对海南省重视生态环境保护的做法表示肯定。他强调指出，我们党提出生态文明建设是一个历史性贡献。青山绿水、碧海蓝天是海南最强的优势和最大的本钱，是一笔既买不来也借不到的宝贵财富，破坏了就很难恢复。要把保护生态环境作为海南发展的根本立足点，牢固树立绿水青山就是金山银山的理念，像对待生命一样对待这一片海上绿洲和这一汪湛蓝海水，努力在建设社会主义生态文明方面作出更大成绩。', '博物馆门前广场上，海南省部分劳动模范和行业代表以热烈掌声和欢呼声欢迎总书记的到来。习近平同他们亲切握手，并向大家问好。', '离开博物馆，习近平乘车前往海南省政务数据中心。他走进数据中心大厅，通过巨幅屏幕察看数据中心建设运行情况以及在“多规合一”等领域的应用展示，并到大厅省直部门值守岗位同正在值班的工作人员亲切交谈，察看数据中心在旅游、防灾减灾等方面的应用演示。习近平对海南省信息化建设工作表示肯定，强调加快政府大数据平台建设是提高社会治理能力和水平的迫切要求。各级党委和政府要强化互联网思维，善于利用互联网优势，着力在融合、共享、便民、安全上下功夫，推进政府决策科学化、社会治理精细化、公共服务高效化，用信息化手段更好感知社会态势、畅通沟通渠道、辅助决策施政、方便群众办事，做到心中有数。希望海南继续在大数据建设上积极探索，创造更多经验。', '接近正午时分，习近平顶着骄阳来到海口市秀英区石山镇施茶村，看望农民群众，考察乡村振兴战略实施情况。这个村坐落在琼北最高的火山脚下，过去因自然条件差，村里没有产业，村民没有收入。近年来，村党支部带领群众发展石斛产业，成为远近闻名的在火山岩上发展互联网种植的明星村，农民人均纯收入超过1万元。在村志馆，习近平认真听取介绍，不时询问。对该村以党建为统领，带动农民发展农业产业、增加农民收入、保护生态环境，因地制宜探索出了“企业+合作社+农户”致富路的做法表示肯定。听村支部书记洪义乾讲到村里没有吸毒的、没有打架斗殴的、没有上访的时，他夸奖道：“这个很好。”随后，习近平沿着石板路步行进施茶村火山石斛园，边走边听村党支部书记介绍石斛规模化种植、智能喷灌系统、水肥一体化系统运行情况。几位正在园中劳动的村民围过来，兴奋地同总书记握手。村民们告诉总书记，家门口有了石斛园，外出打工的村民们都回乡了，每个月发工资，年底有土地入股分红，日子越过越有奔头。习近平强调，全面建成小康社会，城市和乡村都要发展好。乡村振兴，关键是产业要振兴。要鼓励和扶持农民群众立足本地资源发展特色农业、乡村旅游、庭院经济，多渠道增加农民收入。农村基层党组织要成为带领农民群众共同致富的主心骨和坚强战斗堡垒。', '离开村子时，闻讯前来的村民们排起长队，激动地向总书记问好。掌声、欢呼声汇聚在一起，在村庄上空久久回荡。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>185</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>习近平在陕西考察</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2020-04-26</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202004/c0418f0783d341509caaa2da98c7dce7.shtml</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['新华社西安4月23日电 中共中央总书记、国家主席、中央军委主席习近平近日在陕西考察时强调，要全面落实党中央决策部署，坚持稳中求进工作总基调，坚持新发展理念，扎实做好稳就业、稳金融、稳外贸、稳外资、稳投资、稳预期工作，全面落实保居民就业、保基本民生、保市场主体、保粮食能源安全、保产业链供应链稳定、保基层运转任务，努力克服新冠肺炎疫情带来的不利影响，确保完成决战决胜脱贫攻坚目标任务，全面建成小康社会，奋力谱写陕西新时代追赶超越新篇章。', '四月的三秦大地，到处春意盎然。4月20日至23日，习近平在陕西省委书记胡和平和省长刘国中陪同下，先后来到商洛、安康、西安等地，深入自然保护区、贫困山区、社区、学校、企业等，了解秦岭生态环境保护、脱贫攻坚、复工复产等情况，就统筹推进新冠肺炎疫情防控和经济社会发展工作、打赢脱贫攻坚战进行调研，看望慰问干部群众。', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月20日，习近平在位于秦岭山脉东段的牛背梁国家级自然保护区羚牛谷，了解秦岭生态环境保护情况。新华社记者 谢环驰 摄', '秦岭山脉是我国重要的生态安全屏障。党的十八大以来，习近平总书记多次就查处秦岭北麓西安境内违建别墅问题、加强秦岭生态保护作出重要指示批示。20日下午，习近平抵达商洛市柞水县，首先来到位于秦岭山脉东段的牛背梁国家级自然保护区，步行进入羚牛谷察看自然生态，称赞这里是“养在深闺人未识的天然氧吧”。', '随后，习近平乘车来到海拔1700米的月亮垭，远眺秦岭牛背梁主峰，听取陕西省吸取秦岭北麓违建别墅问题教训、抓好生态保护等工作汇报。习近平强调，秦岭和合南北、泽被天下，是我国的中央水塔，是中华民族的祖脉和中华文化的重要象征。保护好秦岭生态环境，对确保中华民族长盛不衰、实现“两个一百年”奋斗目标、实现可持续发展具有十分重大而深远的意义。陕西要深刻吸取秦岭违建别墅问题的教训，痛定思痛，警钟长鸣，以对党、对历史、对人民高度负责的精神，以功成不必在我的胸怀，把秦岭生态环境保护和修复工作摆上重要位置，履行好职责，当好秦岭生态卫士，决不能重蹈覆辙，决不能在历史上留下骂名。要自觉讲政治，对国之大者要心中有数，关注党中央在关心什么、强调什么，深刻领会什么是党和国家最重要的利益、什么是最需要坚定维护的立场，切实把增强“四个意识”、坚定“四个自信”、做到“两个维护”落到行动上，不能只停留在口号上。', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月20日，习近平在位于秦岭山脉东段的牛背梁国家级自然保护区月亮垭，察看秦岭自然生态，了解陕西省吸取秦岭北麓违建别墅问题教训、抓好生态保护等情况。新华社记者 谢环驰 摄', '离开保护区，沿着陡峭的山路，习近平乘车前往柞水县小岭镇金米村考察脱贫攻坚情况。金米村位于秦岭深处，曾经是极度贫困村，近年来通过发展木耳、中药材、旅游等产业实现了整村脱贫。习近平步行察看村容村貌，走进村培训中心、智能联栋木耳大棚，了解木耳品种和种植流程，询问木耳价格、销路和村民收入等，夸奖他们把小木耳办成了大产业。习近平指出，发展扶贫产业，重在群众受益，难在持续稳定。要延伸产业链条，提高抗风险能力，建立更加稳定的利益联结机制，确保贫困群众持续稳定增收。脱贫摘帽不是终点，而是新生活、新奋斗的起点。接下来要做好乡村振兴这篇大文章，推动乡村产业、人才、文化、生态、组织等全面振兴。', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月20日，习近平在商洛市柞水县小岭镇金米村培训中心，了解该村发展木耳产业情况。新华社记者 谢环驰 摄', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月20日，习近平在商洛市柞水县小岭镇金米村智能联栋木耳大棚，同村民亲切交流。新华社记者 鞠鹏 摄', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月20日，习近平在商洛市柞水县小岭镇金米村，了解该村发展木耳产业情况。新华社记者 鞠鹏 摄', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月20日，习近平在商洛市柞水县小岭镇金米村考察时，向村民们挥手致意。新华社记者 谢环驰 摄', '安康市地处秦巴山区集中连片特困地区的核心区。21日上午，习近平来到安康市平利县老县镇锦屏社区。锦屏社区累计安置搬迁贫困群众1346户4173人。习近平实地察看了社区电子加工厂、毛绒玩具厂、服饰公司产品展示厅，对当地“山上兴产业，山下建社区，社区办工厂”的发展思路给予肯定，勉励企业努力克服疫情带来的不利影响，积极拓展国内市场。习近平强调，今年是脱贫攻坚决战决胜之年，解决好贫困群众就业问题非常重要。各级党委和政府要加大扶持力度，通过各种方法保障贫困群众就业。镇上的群众听说总书记来了，纷纷来到街上，高声向总书记问好。习近平祝乡亲们幸福安康！', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月21日，习近平在安康市平利县老县镇锦屏社区考察社区毛绒玩具厂，了解搬迁群众就业情况。新华社记者 鞠鹏 摄', '在搬迁户汪显平家，习近平同一家老少围坐在一起拉家常。汪显平告诉总书记，以前在山里，住的是土房，走的是山路，干啥都不方便，搬到社区后，一家人住进了三室两厅的楼房，夫妻两人就近务工，还能照顾老人，过上了过去做梦都想不到的好日子。习近平听了十分高兴。他强调，易地搬迁是解决一方水土养不好一方人、实现贫困群众跨越式发展的根本途径，也是打赢脱贫攻坚战的重要途径。搬得出的问题基本解决后，后续扶持最关键的是就业。乐业才能安居。解决好就业问题，才能确保搬迁群众稳得住、逐步能致富，防止返贫。易地搬迁群众来自四面八方，加强社区建设很重要。基层党组织要发挥领导核心作用，把社区管理和服务工作抓好，求真务实，让人民群众获得实实在在的好处。', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月21日，习近平在安康市平利县老县镇锦屏社区，同搬迁户汪显平一家围坐在一起拉家常。新华社记者 谢环驰 摄', '随后，习近平来到老县镇卫生院，了解基层卫生防疫、医疗保障工作，并向坚守在基层防疫抗疫一线广大医务人员表示亲切慰问。习近平指出，要加快补齐公共卫生服务短板，加强农村、社区等基层疫情防控能力建设，把各项防控措施常态化。', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月21日，习近平在安康市平利县老县镇卫生院，了解基层卫生防疫、医疗保障工作。新华社记者 鞠鹏 摄', '镇中心小学四至六年级学生已于4月20日开学。习近平走进教室，孩子们齐声向习爷爷问好。习近平询问孩子们学习和生活情况。他强调，要推进城乡义务教育一体化发展，缩小城乡教育资源差距，促进教育公平，切断贫困代际传递。习近平接着来到学校食堂，了解学生伙食和复学后疫情防控情况，叮嘱他们加强学校重点场所消毒，为复学复课提供安全的环境。', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月21日，习近平在安康市平利县老县镇中心小学食堂，了解学生伙食和复学后疫情防控情况。新华社记者 谢环驰 摄', '位于老县镇蒋家坪村的女娲凤凰茶业现代示范园区，属于苏陕扶贫协作项目，通过“党支部+龙头企业+贫困户”的模式，带动100多户贫困户年人均增收千元以上。深山之中，春雨淅沥，云雾缭绕。习近平拾级而上，步入茶园，沿途察看春茶长势，同茶农们亲切交谈，仔细询问茶叶收成、价格和村民土地流转、参加分红、务工收入等情况。他指出，人不负青山，青山定不负人。绿水青山既是自然财富，又是经济财富。希望乡亲们坚定不移走生态优先、绿色发展之路，因茶致富、因茶兴业，脱贫奔小康。', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月21日，习近平在安康市平利县老县镇蒋家坪村女娲凤凰茶业现代示范园区，同茶农们亲切交谈。新华社记者 谢环驰 摄', '22日，习近平在西安考察复工复产和经济社会恢复运行等情况。陕西汽车控股集团有限公司是西北地区有影响力的制造企业。习近平详细了解产品研发、生产、销售和复工复产情况，对他们克服疫情影响创产销历史新高表示赞赏。总装车间内一片繁忙景象。习近平察看内饰生产线、总装配生产线，饶有兴致登上装配完成的民用重型卡车驾驶室，向技术人员询问产品性能和操作流程。习近平强调，制造业是国家经济命脉所系。国有大型企业要发挥主力军作用，在抓好常态化疫情防控的前提下，带动上下游产业和中小企业全面复工复产。习近平指出，新时代陕西要有勇立潮头、争当时代弄潮儿的志向和气魄，既要抓住西部大开发、共建“一带一路”等重大机遇，又要善于从眼前的危机和挑战中抢抓和创造机遇，不断发展新模式、新业态、新技术、新产品，创造新的更大业绩，迈上新的台阶。', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月22日，习近平在陕西汽车控股集团有限公司总装车间察看生产线，了解产品研发、生产、销售和复工复产情况。新华社记者 鞠鹏 摄', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月22日，习近平在陕西汽车控股集团有限公司总装车间察看生产线，了解产品研发、生产、销售和复工复产情况。新华社记者 谢环驰 摄', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月22日，习近平在陕西汽车控股集团有限公司考察时，同企业职工亲切交流。新华社记者 鞠鹏 摄', '交大西迁博物馆坐落于西安交通大学兴庆校区。上世纪50年代，一批交大人响应党的号召，“打起背包就出发”，从上海迁至西安。博物馆二层和三层展厅，分别呈现了交大西迁的创业历程和辉煌成就。习近平仔细端详一张张照片、一件件实物。在一层大厅，习近平亲切会见14位西迁老教授，祝愿他们身体安康、家庭幸福。习近平指出，“西迁精神”的核心是爱国主义，精髓是听党指挥跟党走，与党和国家、与民族和人民同呼吸、共命运，具有深刻现实意义和历史意义。要坚持党对高校工作的全面领导，坚持立德树人，建设高素质教师队伍，努力培养更多一流人才。习近平勉励广大师生大力弘扬“西迁精神”，抓住新时代新机遇，到祖国最需要的地方建功立业，在新征程上创造属于我们这代人的历史功绩。', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月22日，习近平在西安交通大学交大西迁博物馆参观。新华社记者 鞠鹏 摄', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月22日，习近平在西安交通大学交大西迁博物馆亲切会见西迁老教授。新华社记者 谢环驰 摄', '傍晚时分，习近平乘车来到毗邻大雁塔的大唐不夜城步行街。疫情发生以来，昔日熙熙攘攘的步行街一度空荡无人，现在又开始热闹起来。习近平走进步行街，了解步行街恢复经营状况。沿途游客看见总书记，惊喜地欢呼起来，习近平频频挥手致意。他走进老字号西安饭庄，同店员和正在就餐的顾客热情交谈。习近平强调，要在科学防控疫情的前提下，有序推动各类商场、市场复商复市，努力恢复正常生活秩序。', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月22日，习近平在西安大唐不夜城步行街考察时，向游客挥手致意。新华社记者 谢环驰 摄', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月22日，习近平走进西安大唐不夜城步行街老字号西安饭庄，同正在就餐的顾客热情交谈。新华社记者 谢环驰 摄', '23日上午，习近平听取了陕西省委和省政府工作汇报，对陕西各项工作予以肯定。习近平指出，今年是全面建成小康社会和“十三五”规划收官之年，也是脱贫攻坚决战决胜之年，突如其来的新冠肺炎疫情给我们完成既定目标任务带来挑战。希望陕西广大干部群众只争朝夕、真抓实干，在新时代各项工作中取得新气象新作为，为实现“两个一百年”奋斗目标、实现中华民族伟大复兴的中国梦贡献力量。', '习近平强调，我国经济稳中向好、长期向好的基本趋势没有改变。要坚定信心、保持定力，加快转变经济发展方式，把实体经济特别是制造业做实做强做优，推进5G、物联网、人工智能、工业互联网等新型基建投资，加大交通、水利、能源等领域投资力度，补齐农村基础设施和公共服务短板，着力解决发展不平衡不充分问题。要围绕产业链部署创新链、围绕创新链布局产业链，推动经济高质量发展迈出更大步伐。', '习近平指出，要围绕推进国家治理体系和治理能力现代化，突出基础性、根本性、全局性的重大改革举措，打造内陆改革开放高地。要深度融入共建“一带一路”大格局，加快形成面向中亚南亚西亚国家的通道、商贸物流枢纽、重要产业和人文交流基地，构筑内陆地区效率高、成本低、服务优的国际贸易通道。', '习近平强调，陕西生态环境保护，不仅关系自身发展质量和可持续发展，而且关系全国生态环境大局。要牢固树立绿水青山就是金山银山的理念，统筹山水林田湖草系统治理，优化国土空间开发格局，调整区域产业布局，发展清洁生产，推进绿色发展，打好蓝天、碧水、净土保卫战。要坚持不懈开展退耕还林还草，推进荒漠化、水土流失综合治理，推动黄河流域从过度干预、过度利用向自然修复、休养生息转变，改善流域生态环境质量。', '习近平指出，民生是人民幸福之基、社会和谐之本。要坚持以人民为中心的发展思想，扎实办好民生实事。要瞄准突出问题精准施策，做好剩余贫困人口脱贫工作，因地制宜发展区域特色产业，加快建立防止返贫监测和帮扶机制，加强易地扶贫搬迁后续扶持，多措并举巩固脱贫成果。要做好高校毕业生、农民工、退役军人等重点群体就业工作，多渠道促进就业创业。要加强和创新社会治理，坚持和完善新时代“枫桥经验”，深化扫黑除恶专项斗争。', '习近平强调，这次抗击疫情斗争是一次大考，充分彰显了各级党组织的强大战斗力，彰显了广大党员、干部的先锋模范作用，同时也暴露出一些党组织组织领导力不强，一些党员干部能力不足、作风不实等问题。各级党委（党组）要切实落实全面从严治党主体责任，把全面从严治党的要求落实到党的建设全过程。', '习近平指出，延安精神培育了一代代中国共产党人，是我们党的宝贵精神财富。要坚持不懈用延安精神教育广大党员、干部，用以滋养初心、淬炼灵魂，从中汲取信仰的力量、查找党性的差距、校准前进的方向。要把政治建设摆在首位，严肃党内政治生活，严格落实中央八项规定及其实施细则精神，坚决破除形式主义、官僚主义，构建一体推进不敢腐、不能腐、不想腐体制机制，为各项事业发展提供坚强保障。', '习近平强调，陕西是中华民族和华夏文明重要发祥地之一。要加大文物保护力度，弘扬中华优秀传统文化、革命文化、社会主义先进文化，培育社会主义核心价值观，加强公共文化产品和服务供给，更好满足人民群众精神文化生活需要。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>185</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>习近平在山东考察</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2018-06-15</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/201806/00dfc73010074c21b07840725f06ac17.shtml</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['中共中央总书记、国家主席、中央军委主席习近平近日在山东考察时强调，切实把新发展理念落到实处，不断取得高质量发展新成就，不断增强经济社会发展创新力，更好满足人民日益增长的美好生活需要。', '初夏的齐鲁大地，万物勃兴，生机盎然。6月12日至14日，习近平在出席上海合作组织青岛峰会后，在山东省委书记刘家义、省长龚正陪同下，先后来到青岛、威海、烟台、济南等地，深入科研院所、社区、党性教育基地、企业、农村，考察党的十九大精神贯彻落实和经济社会发展情况。', '6月12日至14日，中共中央总书记、国家主席、中央军委主席习近平在山东考察。这是12日上午，习近平在青岛海洋科学与技术试点国家实验室，同科研人员亲切交谈。新华社记者 李学仁 摄', '山东半岛濒临黄渤海，海域资源丰富，具有发展海洋科技和产业的有利条件。12日上午，习近平来到位于青岛蓝谷的青岛海洋科学与技术试点国家实验室。习近平走进实验室大楼，结合展板、电子屏、实物模型和样品标本展示，听取实验室在开发利用海洋资源能源、服务海洋经济发展、保护海洋生态环境以及构建综合立体海洋观测网络等方面的情况介绍，了解深远海科考船队共享平台建设和科考船工作情况。在超算仿真大厅，习近平认真察看高性能科学计算和系统仿真平台运行情况，并向科研人员详细询问构建超级计算机互联网、研发人工智能和大数据系统“深蓝大脑”、打造国家一流海洋系统模拟器的最新进展。得知超级计算机解决了海洋数据“碎片化”问题，大大提高了海洋观测和预测能力，总书记十分高兴。海洋高端装备联合实验室内，水下仿生机器鱼、无人水面船、海洋传感器等具有自主知识产权和核心关键技术的海洋仪器设备吸引了总书记目光，他走上前去凝神察看，不时询问。听说总书记来了，实验室的科研人员纷纷围聚过来，向总书记问好。习近平强调，海洋经济发展前途无量。建设海洋强国，必须进一步关心海洋、认识海洋、经略海洋，加快海洋科技创新步伐。他勉励大家，再接再厉，创造辉煌。', '随后，习近平来到青岛市李沧区上流佳苑社区。在社区市民中心，他听取青岛市城市发展规划建设和旧城风貌保护情况汇报，察看村史馆内旧村老屋复原场景，了解社区实施旧城改造、加强基层党建以及居民生活变化情况。中午时分，习近平走进社区便民食堂，同正在这里用餐的居民热情交谈，询问饭菜可不可口、价格贵不贵、对社区便民服务还有什么新要求。习近平还沿着小道步入社区，察看社区整体环境和居民居住情况。社区小广场上，一些居民正在健身休闲，看到总书记来了，大家热情鼓起掌来。习近平走到他们身边，向大家问好。习近平强调，城市是人民的城市，要多打造市民休闲观光、健身活动的地点，让人民群众生活更方便、更丰富多彩。要推动社会治理重心向基层下移，把更多资源、服务、管理放到社区，更好为社区居民提供精准化、精细化服务。离开社区时，路旁挤满了群众，习近平频频挥手，向大家致意。', '下午，习近平来到胶东（威海）党性教育基地刘公岛教学区。习近平登上东泓炮台遗址，了解北洋海军威海卫基地防务情况和威海卫保卫战、刘公岛保卫战历史。随后，习近平来到甲午战争博物馆陈列馆，参观甲午战争史实展。习近平听取了威海市依托红色资源打造党性教育基地情况介绍。正在刘公岛教学区培训的学员代表和博物馆工作人员代表，以热烈掌声欢迎总书记的到来。习近平语重心长地说，我一直想来这里看一看，受受教育。要警钟长鸣，铭记历史教训，13亿多中国人要发愤图强，把我们的国家建设得更好更强大。', '6月12日至14日，中共中央总书记、国家主席、中央军委主席习近平在山东考察。这是12日下午，习近平在威海考察华夏集团生态修复项目。新华社记者 谢环驰 摄', '夕阳洒向海滨，青山格外秀美。接近傍晚时分，习近平考察了华夏集团生态修复项目。这个曾经满目疮痍的采石场，经过十多年的综合治理、绿化造林，如今到处鸟语花香、满眼郁郁葱葱。习近平在听取威海市生态文明建设整体情况介绍后，沿着步行道实地察看治理区新貌，同当年参与矿山修复和目前正在景区工作的村民亲切交谈，对华夏集团通过生态修复促进文化旅游发展、带动周边村民就业致富的做法给予肯定。习近平强调，良好生态环境是经济社会持续健康发展的重要基础，要把生态文明建设放在突出地位，把绿水青山就是金山银山的理念印在脑子里、落实在行动上，统筹山水林田湖草系统治理，让祖国大地不断绿起来、美起来。', '海风萧萧，烟雨蒙蒙。13日上午，习近平冒雨来到位于山东半岛北端的蓬莱市，这里曾经是古代海上丝绸之路的一个起点。习近平拾阶而上，登上蓬莱阁主阁，远眺黄渤海分界线，俯瞰蓬莱水城，了解古代海上丝绸之路情况，察看水城炮台和古代舰船入海口，听取明代爱国将领戚继光操练水师、保卫海防等历史介绍。习近平指出，我国古代史、近代史、现代史构成了中华民族的丰富历史画卷。领导干部要多读一点历史，从历史中汲取更多精神营养。要加强国家重点文物保护，让优秀文物世代相传。', '6月12日至14日，中共中央总书记、国家主席、中央军委主席习近平在山东考察。这是13日上午，习近平在万华烟台工业园听取企业情况介绍。新华社记者 李学仁 摄', '习近平十分关心企业科技创新和装备制造业发展。考察期间，他先后来到万华烟台工业园、中集来福士海洋工程有限公司烟台基地、浪潮集团高端容错计算机生产基地，进车间，看样品，听介绍，详细了解有关情况。在万华烟台工业园，习近平深入中控室，向正在值班的工作人员了解企业中控系统运行情况，听取企业发展历程、产业布局、产品应用等情况介绍。得知企业走出一条引进、消化、吸收、再创新直至自主创造的道路，技术创新能力从无到有、从弱到强，成为全球异氰酸酯行业的领军者，习近平鼓励企业一鼓作气、一气呵成、一以贯之，朝着既定目标奋勇向前。习近平强调，要坚持走自主创新之路，要有这么一股劲，要有这样的坚定信念和追求，不断在关键核心技术研发上取得新突破。', '6月12日至14日，中共中央总书记、国家主席、中央军委主席习近平在山东考察。这是13日下午，习近平在中集来福士海洋工程有限公司烟台基地，冒雨察看海洋工程设备建设场地，并同现场的工人们亲切握手。新华社记者 谢环驰 摄', '风急云低，雨流如注。13日下午，习近平来到中集来福士海洋工程有限公司烟台基地。作为国内率先进入海洋工程行业的企业，中集来福士用10年左右时间，国产化率从不足10%提高到60%。在厂区码头上，习近平撑着雨伞，趟着积水，近距离察看停靠在这里的自升式修井生活平台，远眺“蓝鲸1号”超深水双钻塔半潜式钻井平台、“泰山”龙门吊、海洋牧场平台，向企业负责人详细了解高端海洋工程设备制造、维护、运行情况。海风吹起了衣襟，雨水打湿了裤腿。习近平站在雨中，同围拢过来的工人们一一握手、亲切交谈，向作业平台上的工人们挥手致意。习近平指出，国有企业特别是中央所属国有企业，一定要加强自主创新能力，研发和掌握更多的国之重器。国有企业要深化改革创新，努力建成现代企业。要坚持党对国有企业的领导不动摇，坚持建强国有企业基层党组织不放松，为做强做优做大国有企业提供坚强组织保证。', '6月12日至14日，中共中央总书记、国家主席、中央军委主席习近平在山东考察。这是14日上午，习近平在济南考察浪潮集团高端容错计算机生产基地。新华社记者 李学仁 摄', '14日上午，习近平来到济南高新区，考察浪潮集团高端容错计算机生产基地。近年来，浪潮集团实施创新驱动发展战略，加快高端服务器国产化替代，有效推动了数字经济和新旧动能转换。习近平结合实物详细了解企业自主研发的高端服务器和大数据、政务云、智慧城市等信息化平台，走进车间察看高端服务器装配生产线，听取企业运用“互联网+”理念打造智能工厂、提高产品质量和生产效率、弘扬“工匠精神”、提高企业竞争力等情况介绍。习近平强调，一个国家要发展，明确目标和路径很重要。我们的目标就是实现中华民族伟大复兴的中国梦。创新发展、新旧动能转换，是我们能否过坎的关键。要坚持把发展基点放在创新上，发挥我国社会主义制度能够集中力量办大事的制度优势，大力培育创新优势企业，塑造更多依靠创新驱动、更多发挥先发优势的引领型发展。', '6月12日至14日，中共中央总书记、国家主席、中央军委主席习近平在山东考察。这是14日上午，习近平在济南市章丘区双山街道三涧溪村，同村民们亲切交谈。新华社记者 谢环驰 摄', '离开浪潮集团，习近平乘车前往济南市章丘区双山街道三涧溪村考察。这个村通过抓班子建设、发挥党员带动作用、以党风带家风促民风，3年时间实现了由乱到治的变化。在村党群服务中心，习近平听取这个村以党建为统领，强化班子建设、推动产业发展、保护生态环境、汇聚人才资源、建设文明村风家风、壮大村级集体经济等情况介绍。习近平指出，乡村振兴，人才是关键。要积极培养本土人才，鼓励外出能人返乡创业，鼓励大学生村官扎根基层，为乡村振兴提供人才保障。要加强基层党组织建设，选好配强党组织带头人，发挥好基层党组织战斗堡垒作用，为乡村振兴提供组织保证。', '6月12日至14日，中共中央总书记、国家主席、中央军委主席习近平在山东考察。这是14日上午，习近平来到济南市章丘区双山街道三涧溪村，同村民赵顺利一家拉家常。新华社记者 谢环驰 摄', '习近平十分牵挂村民的居住和生活状况。他走进村民赵顺利家，同一家人围坐一起拉家常，问他们收入怎么样，搬迁花了多少钱，生活上还有哪些困难。赵顺利拉着总书记的手激动地说，这些年老百姓的生活可好了，致富路越走越宽，日子越过越红火，全靠党的政策好。习近平听了十分高兴，叮嘱随行的地方领导，农业农村工作，说一千、道一万，增加农民收入是关键。要加快构建促进农民持续较快增收的长效政策机制，让广大农民都尽快富裕起来。要把党的政策用生动通俗的形式宣传好，让广大群众听得懂、能理解。要加强村规民约建设，移风易俗，为农民减轻负担。离开三涧溪村时，闻讯赶来的村民们齐声向总书记问好，习近平挥手向大家告别。掌声在村庄上空久久回荡。', '6月12日至14日，中共中央总书记、国家主席、中央军委主席习近平在山东考察。这是14日上午，习近平在济南市章丘区双山街道三涧溪村，了解该村以党建为统领，推动乡村振兴情况。新华社记者 谢环驰 摄', '14日下午，习近平听取了山东省委和省政府工作汇报，对山东各项工作给予肯定。希望山东深入贯彻党的十九大精神和新时代中国特色社会主义思想，坚持稳中求进工作总基调，统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局，全面做好稳增长、促改革、调结构、惠民生、防风险各项工作，打好“三大攻坚战”。', '习近平强调，推动高质量发展，关键是要按照新发展理念的要求，以供给侧结构性改革为主线，推动经济发展质量变革、效率变革、动力变革。要坚持腾笼换鸟、凤凰涅槃的思路，推动产业优化升级，推动创新驱动发展，推动基础设施提升，推动海洋强省建设，推动深化改革开放，推动高质量发展取得有效进展。', '习近平指出，农业大省的责任首先是维护国家粮食安全。要把粮食生产抓紧抓好，把农业结构调活调优，把农民增收夯实夯牢，把脱贫攻坚战打好打赢，扎实实施乡村振兴战略，打造乡村振兴的齐鲁样板。', '习近平强调，民之所盼，政之所向。增进民生福祉是发展的根本目的。做民生工作，首先要有为民情怀。要多谋民生之利、多解民生之忧，在发展中补齐民生短板、促进社会公平正义。要坚持以人民为中心的发展思想，扭住人民群众最关心的就业、教育、收入、社保、医疗、养老、居住、环境、食品药品安全、社会治安等问题，扎扎实实把民生工作做好。', '习近平指出，我们党要永远立于不败之地，就要不断推进自我革命，教育引导党员、干部特别是领导干部从思想上正本清源、固本培元，筑牢思想道德防线，增强拒腐防变和抵御风险能力，时刻保持共产党人的政治本色。领导干部必须珍惜权力、管好权力、慎用权力，自觉接受各方面监督，做到忠诚老实、言行一致、表里如一，时刻想着为党分忧、为党奉献。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>185</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>习近平在福建考察</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2021-03-26</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202103/b7b1a3a4966b43088ce160d4b55aae1b.shtml</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山市星村镇燕子窠生态茶园，同科技特派员、茶农亲切交流，了解当地茶产业发展情况。新华社记者 燕雁 摄', '新华社福州3月25日电 中共中央总书记、国家主席、中央军委主席习近平近日在福建考察时强调，要落实党中央决策部署，坚持稳中求进工作总基调，立足新发展阶段、贯彻新发展理念、构建新发展格局，深化供给侧结构性改革，扩大改革开放，推动科技创新，统筹疫情防控和经济社会发展，统筹发展和安全，在加快建设现代化经济体系上取得更大进步，在服务和融入新发展格局上展现更大作为，在探索海峡两岸融合发展新路上迈出更大步伐，在创造高品质生活上实现更大突破，奋力谱写全面建设社会主义现代化国家福建篇章。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日上午，习近平在三明沙县总医院住院楼一层大厅，同医护人员、患者亲切交流。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州三坊七巷历史文化街区考察时，向游客和市民招手致意。新华社记者 鞠鹏 摄', '仲春时节，八闽大地一派勃勃生机。3月22日至25日，习近平在福建省委书记尹力、省长王宁陪同下，先后来到南平、三明、福州等地，深入国家公园、生态茶园、文物保护单位、医院、农村、企业、学校等，就贯彻党的十九届五中全会精神、推动“十四五”开好局起好步、统筹推进常态化疫情防控和经济社会发展等进行调研。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山国家公园智慧管理中心，察看智慧管理平台运行情况。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山国家公园智慧管理中心同游客亲切交流。新华社记者 王晔 摄', '武夷山国家公园是首批国家公园体制试点之一。22日下午，习近平来到公园智慧管理中心，察看智慧管理平台运行情况。该中心综合运用智能化技术，实现了对公园“天地空”全方位、全天候监测管理，提升了生态保护能力。习近平对生态文明建设高度重视，在福建工作期间就推动了长汀水土流失治理、木兰溪防洪工程等重大生态保护工程，并于2000年推动福建率先在全国探索生态省建设。经过长期努力，福建生态文明建设取得了积极成效。习近平指出，建立以国家公园为主体的自然保护地体系，目的就是按照山水林田湖草是一个生命共同体的理念，保持自然生态系统的原真性和完整性，保护生物多样性。要坚持生态保护第一，统筹保护和发展，有序推进生态移民，适度发展生态旅游，实现生态保护、绿色发展、民生改善相统一。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山市星村镇燕子窠生态茶园，察看春茶长势，了解当地茶产业发展情况。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山市星村镇燕子窠生态茶园，察看春茶长势，了解当地茶产业发展情况。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山市星村镇燕子窠生态茶园，同科技特派员、茶农亲切交流，了解当地茶产业发展情况。新华社记者 鞠鹏 摄', '武夷山是乌龙茶、红茶的发源地。习近平来到星村镇燕子窠生态茶园，察看春茶长势，了解当地茶产业发展情况。习近平强调，要统筹做好茶文化、茶产业、茶科技这篇大文章，坚持绿色发展方向，强化品牌意识，优化营销流通环境，打牢乡村振兴的产业基础。要深入推进科技特派员制度，让广大科技特派员把论文写在田野大地上。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山朱熹园，了解朱熹生平及理学研究等情况。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山朱熹园考察时，向游客招手致意。新华社记者 王晔 摄', '离开茶园，习近平乘竹筏沿九曲溪察看生态环境保护情况和自然景观。在九曲溪畔的朱熹园，习近平详细了解朱熹生平及理学研究等情况。他指出，要推动中华优秀传统文化创造性转化、创新性发展，以时代精神激活中华优秀传统文化的生命力。要把坚持马克思主义同弘扬中华优秀传统文化有机结合起来，坚定不移走中国特色社会主义道路。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日上午，习近平在三明沙县总医院住院楼一层大厅，听取医改情况介绍。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日上午，习近平在三明沙县考察时向群众挥手致意。新华社记者 王晔 摄', '近年来，三明医改以药品耗材治理改革为突破口，坚持医药、医保、医疗改革联动，为全国医改探索了宝贵经验。2016年2月，习近平主持中央全面深化改革领导小组会议，听取了三明医改情况汇报，要求总结推广改革经验。23日上午，习近平来到三明市沙县总医院，在住院楼一层大厅听取医改情况介绍，向医护人员、患者了解医改惠民情况。习近平强调，人民健康是社会主义现代化的重要标志。三明医改体现了人民至上、敢为人先，其经验值得各地因地制宜借鉴。要继续深化医药卫生体制改革，均衡布局优质医疗资源，改善基层基础设施条件，为人民健康提供可靠保障。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县夏茂镇俞邦村考察时，向村民挥手致意。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县夏茂镇俞邦村考察时，同村民亲切交流。新华社记者 王晔 摄', '福建发扬习近平在宁德工作时提出的弱鸟先飞、滴水穿石精神，下大气力抓摆脱贫困。经过30多年努力，福建全省同全国一道，彻底消除了绝对贫困。23日下午，习近平来到革命老区村——沙县夏茂镇俞邦村，在小吃摊边、特产店里、村民家门前，同乡亲们亲切交谈，详细了解沙县小吃发展现状和前景。习近平指出，沙县人走南闯北，把沙县小吃打造成了富民特色产业。乡村要振兴，因地制宜选择富民产业是关键。要抓住机遇、开阔眼界，适应市场需求，继续探索创新，在创造美好生活新征程上再领风骚。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县夏茂镇俞邦村考察时，在小吃摊边同乡亲们亲切交谈。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县夏茂镇俞邦村考察时，在小吃摊边同乡亲们亲切交谈。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县夏茂镇俞邦村考察时，同乡亲们亲切交流。新华社记者 王晔 摄', '习近平在福建工作时推动开展了集体林权制度改革，试行“分山到户、均林到人”，实现“山定权、树定根、人定心”。在沙县农村产权交易中心，习近平听取集体林权制度改革介绍，向办事群众和工作人员了解集体林地经营权流转交易、不动产登记等情况。习近平指出，三明集体林权制度改革探索很有意义，要坚持正确改革方向，尊重群众首创精神，积极稳妥推进集体林权制度创新，探索完善生态产品价值实现机制，力争实现新的突破。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县农村产权交易中心考察。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县农村产权交易中心考察时，同工作人员、办事群众等亲切交流。新华社记者 王晔 摄', '习近平24日在福州考察调研。在福州工作期间习近平领导实施了福州市“3820”工程，勾画跨世纪福州现代化建设宏伟蓝图。在福山郊野公园，习近平乘坐电瓶车实地了解郊野福道风貌，他登上观景平台，远眺福州新貌，听取城市生态公园规划建设、城市水系综合治理情况汇报。市民们看到总书记来了，争相围拢过来。习近平指出，建设好管理好一座城市，要把菜篮子、人居环境、城市空间等工作放到重要位置切实抓好。福州是有福之州，生态条件得天独厚，希望继续把这座海滨城市、山水城市建设得更加美好，更好造福人民群众。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福山郊野公园乘坐电瓶车实地了解郊野福道风貌。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福山郊野公园观景平台，听取城市生态公园规划建设、城市水系综合治理情况汇报。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福山郊野公园考察时，向市民们招手致意。新华社记者 鞠鹏 摄', '福州三坊七巷历史文化街区保留了唐宋遗留下来的坊巷格局和大量明清古建筑。早在1991年，习近平在福州工作期间就召开文物工作现场办公会，推动制定福州历史文化名城保护管理条例和保护规划，有力促进了城市历史文化传承保护工作。习近平听取福州古厝和三坊七巷保护修复等情况介绍，步行察看南后街、郎官巷，参观严复故居，向游客和市民频频招手致意。习近平强调，保护好传统街区，保护好古建筑，保护好文物，就是保存了城市的历史和文脉。对待古建筑、老宅子、老街区要有珍爱之心、尊崇之心。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州三坊七巷历史文化街区步行察看南后街。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州三坊七巷历史文化街区步行察看郎官巷。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州三坊七巷历史文化街区参观严复故居。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州三坊七巷历史文化街区考察时，向游客和市民招手致意。新华社记者 燕雁 摄', '福建福光股份有限公司是光学镜头重要制造商。习近平步入公司展厅，察看产品展示，询问企业技术创新和生产销售情况。超精密车间内，企业员工向总书记展示了产品生产工艺。习近平强调，我们国家进入科技发展第一方阵要靠创新，一味跟跑是行不通的，必须加快科技自立自强步伐。要坚持创新在现代化建设全局中的核心地位，把创新作为一项国策，积极鼓励支持创新。创新不问“出身”，只要谁能为国家作贡献就支持谁。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福建福光股份有限公司考察。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福建福光股份有限公司考察。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福建福光股份有限公司考察时，同企业职工亲切交流。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福建福光股份有限公司考察时，同企业员工亲切交流。新华社记者 鞠鹏 摄', '25日上午，习近平来到闽江学院考察调研。闽江学院前身是福州师范高等专科学校和闽江职业大学。在福州工作期间，习近平曾兼任闽江职业大学校长6年时间，提出的“不求最大、但求最优、但求适应社会需要”的办学理念影响深远。2018年10月，习近平曾就闽江学院成立60周年致贺信。在闽江学院校史和应用型办学成果展示厅，习近平肯定学院在坚持应用型办学、深化产教融合等方面取得的成绩。习近平指出，要把立德树人作为根本任务，坚持应用技术型办学方向，适应社会需要设置专业、打好基础，培养德智体美劳全面发展的社会主义建设者和接班人。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是25日上午，习近平在福州闽江学院，参观校史和应用型办学成果展示。新华社记者 王晔 摄', '校园广场上师生们高喊“总书记好”、“习校长好”，习近平向大家挥手致意。习近平强调，实现第二个百年奋斗目标，实现中华民族伟大复兴，青年一代责任在肩。希望同学们树立远大理想、热爱伟大祖国、担当时代责任、勇于砥砺奋斗、练就过硬本领、锤炼品德修为，努力成为对社会有用的人、道德高尚的人，积极投身全面建设社会主义现代化国家的伟大事业。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是25日上午，习近平在福州闽江学院考察时，同师生们亲切交流。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是25日上午，习近平在福州闽江学院考察时，向师生们挥手致意。新华社记者 王晔 摄', '当天上午，习近平听取了福建省委和省政府工作汇报，对福建各项工作取得的成绩给予肯定，希望福建在全方位推动高质量发展上取得新成效。', '习近平强调，推动高质量发展，首先要完整、准确、全面贯彻新发展理念。新发展理念和高质量发展是内在统一的，高质量发展就是体现新发展理念的发展。要坚持系统观念，找准在服务和融入构建新发展格局中的定位，优化提升产业结构，加快推动数字产业化、产业数字化。要加大创新支持力度，优化创新生态环境，激发创新创造活力。要深度融入共建“一带一路”，办好自由贸易试验区，建设更高水平开放型经济新体制。要突出以通促融、以惠促融、以情促融，勇于探索海峡两岸融合发展新路。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县夏茂镇俞邦村考察时，同村民亲切交流。新华社记者 鞠鹏 摄', '习近平指出，要加快推进乡村振兴，立足农业资源多样性和气候适宜优势，培育特色优势产业。要以实施乡村建设行动为抓手，改善农村人居环境，建设宜居宜业美丽乡村。要推进老区苏区全面振兴，倾力支持老区苏区特色产业提升、基础设施建设和公共服务保障等。要把碳达峰、碳中和纳入生态省建设布局，科学制定时间表、路线图，建设人与自然和谐共生的现代化。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福山郊野公园观景平台，听取城市生态公园规划建设、城市水系综合治理情况汇报。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福山郊野公园考察时，同市民们亲切交流。新华社记者 王晔 摄', '习近平强调，要着力提高人民生活品质，拓展居民收入增长的渠道，统筹做好高校毕业生、农民工、退役军人等重点群体就业。要全面贯彻党的教育方针，落实立德树人根本任务，坚持教育公益性原则，深化教育改革，办好人民满意的教育。要把保障人民健康放在优先发展的战略位置，织牢公共卫生防护网，推动公立医院高质量发展。要慎终如始做好“外防输入、内防反弹”的工作。要有效遏制重特大安全生产事故，推动扫黑除恶常态化。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是25日上午，习近平在福州闽江学院考察时，同师生们亲切交流。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是25日上午，习近平在福州闽江学院考察时，向师生们挥手致意。新华社记者 燕雁 摄', '习近平指出，福建是革命老区，党史事件多、红色资源多、革命先辈多，开展党史学习教育具有独特优势。要在党史学习教育中做到学史明理，明理是增信、崇德、力行的前提。要从党的辉煌成就、艰辛历程、历史经验、优良传统中深刻领悟中国共产党为什么能、马克思主义为什么行、中国特色社会主义为什么好等道理，弄清楚其中的历史逻辑、理论逻辑、实践逻辑。要深刻领悟坚持中国共产党领导的历史必然性，坚定对党的领导的自信。要深刻领悟马克思主义及其中国化创新理论的真理性，增强自觉贯彻落实党的创新理论的坚定性。要深刻领悟中国特色社会主义道路的正确性，坚定不移走中国特色社会主义这条唯一正确的道路。要把各领域基层党组织建设成为坚强战斗堡垒。要不断提高不敢腐、不能腐、不想腐的综合功效，持续巩固发展良好的政治生态。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>185</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>怀化市党政考察团在湘西州考察叶红专彭国甫参加</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2020-12-24</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gjj/c108768/202012/bea46140f22c4ddea96f6591d369dded.shtml</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['12月22日，省政协副主席、市委书记彭国甫率我市党政考察团赴湘西州考察脱贫攻坚、产业发展等工作。图为考察团在“精准扶贫”首倡地花垣县十八洞村考察。', '怀化新闻网讯（记者 姚晓伟）12月22日，省政协副主席、市委书记彭国甫率怀化党政考察团赴湘西土家族苗族自治州考察。省人大常委会副主任、湘西州委书记叶红专，怀化市领导陈恢清、张扬平、印宇鹰、姚述铭，湘西州领导刘珍瑜等参加考察。', '“精准扶贫”首倡地花垣县十八洞村近年来遵照习近平总书记“实事求是、因地制宜、分类指导、精准扶贫”十六字方略，充分激发群众内生动力，因地制宜发展特色产业，村人均收入达14668元，村集体经济收入达126万元。考察团认为，十八洞村作为精准扶贫首倡地，近年来发生了翻天覆地的变化，超前谋划与乡村振兴的有机结合，走出了一条非常科学、可复制、可持续的成功之路，使我们深受启发，让我们更加深刻地领悟到习近平精准扶贫精准脱贫思想的战略意义、丰富内涵和本质要求。我们要认真学习十八洞村的好经验好做法，更加坚定地把脱贫攻坚成果巩固好拓展好，使十八洞的成功经验在怀化漫山遍野、开花结果。', '吉首市马颈坳镇隘口村坚持“党建+扶贫产业”模式，按照“以茶促旅、以旅兴茶、以文传茶”的思路，加快促进茶旅融合发展。考察团指出，隘口村以基层党组织建设和现代生产方式生产关系的变革为依托，延伸拓展茶产业链，实现“接二连三”的效应。怀化要学习借鉴好湘西州发展茶叶的理念、体制机制、方式方法、商业模式等，保持定力、苦其心志，锲而不舍、一抓到底，用“他山之石攻玉”高位推动产业发展。要跳出怀化看产业，透过产业看农业，抓好茶叶、油茶、水果、中药材发展，走园区化、标准化、规模化、科技化、市场化、品牌化的道路，抢占价值链高端。', '考察中，叶红专表示，湘西州和怀化同属大湘西板块，两地山水相连，情谊深厚。近年来，怀化在脱贫攻坚、科技创新、产业发展等方面取得的成绩令人敬佩。希望两地携手努力、齐头并进，加大合作力度，推动共同发展。衷心祝愿怀化发展更加美好，老百姓更有获得感、幸福感、安全感。', '彭国甫指出，怀化和湘西州一衣带水、情深谊长。近年来，湘西州牢记习近平总书记殷切嘱托，在打赢脱贫攻坚战中干在实处、走在前列，探索了精准脱贫的成功经验，十八洞村成为中国乃至人类脱贫攻坚的一颗耀眼明珠。我们一定把湘西自治州的好思路、好作风、好经验带回去，融入到怀化发展中，融入到老百姓的笑容中。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>185</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>习近平在天津考察</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2019-01-18</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/201901/b44c0b817dbe4bfca04563688255725b.shtml</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['17日上午，习近平来到天津考察调研。在南开大学，他参观了百年校史主题展览，与部分院士、专家和中青年师生代表互动交流，察看了化学学院和元素有机化学国家重点实验室，详细了解南开大学历史沿革、学科建设、人才队伍、科研创新等情况。（记者张晓松、谢环驰）']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>185</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>省考察组来怀考察湖南奥谱隆科技创新创业团队</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2014-08-05</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/kjj/c100641/201408/c0fa67d7d01d47daa1d57ab9e64898f2.shtml</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['8月1日，由省科技厅党组成员、纪检组长杨薇带队，省科技厅人事处处长、科技人才办主任彭敬东，省科技厅人事处及省委组织部人才处相关人员组成的省考察组来怀化考察湖南奥谱隆科技创新创业团队。省考察组先后现场考察了奥谱隆新品种选育核心基地、奥谱隆国家农作物育种创新基地、奥谱隆怀化泸阳种子标准化仓储加工中心等，并在奥谱隆仓储加工中心会议室召开座谈会，听取了科技创新创业团队的带头人及团队核心成员组成、团队成果和转化能力、发展前景和具体规划等方面的情况汇报。市科技局局长龙小生、副局长宋先鸿、纪检组长杨晓华陪同考察。 湖南奥谱隆科技创新创业团队所在的企业湖南奥谱隆科技股份有限公司是以经营杂交水稻和杂交玉米为主，具备全国“育、繁、推”一体化经营及进出口业务许可资质的农业高科技企业，2013年被评为“中国种业信用骨干企业”（在全国6900家企业中列43位）。团队带头人吴厚雄，副研究员，从事杂交水稻新品种选育与科研工作18年，主持育成12个杂交水稻新品种通过国家或省级审定，荣获省、市科技进步奖12项。团队共有8名核心成员，有3名成员的年龄在35岁以下，其中博士2人，硕士3人，本科4人。核心成员之一的张振华，是享受国务院特殊津贴的专家，2013年被评为全国科技创新创业人才。团队具有较强的研发能力和成果转化实力，在推动企业快速发展中取得了显著的成绩。 湖南奥谱隆科技创新创业团队是怀化市唯一入围的省企业科技创新创业备选团队，也是全省10个入围团队中的一个。因此，团队带头人及所在企业负责人都非常珍惜，表示下一步将按照团队建设的要求，立足科研攻关，加快成果转化，5年内实现：育成12-15个不同熟期优质高产新品种通过国家和省级审定，3-4个新品种获得出口资质，产品国内市场占有率提升至2.5%以上，综合实力跻身国内种业前20强，在资本市场成功上市和实现可持续发展。 考察组对团队的科研设备、技术力量、研发目标、团队成员构成以及所在企业的成长性都表示满意，认为湖南奥谱隆科技创新创业团队符合省企业科技创新创业团队计划支持的要求，现场考察的结果与申报材料和答辩情况的内容相符。同时，希望湖南奥谱隆科技创新创业团队和所在企业，要严格按照省企业科技创新创业团队计划任务目标，进一步完善人才培养机制，将留住人才、吸引人才的激励机制作为下一步的工作重点，注重企业自身人才队伍建设，发挥好企业现有研发平台的作用。同时，立足杂交水稻新品种选育，掌握选育核心技术，增强企业的核心竞争力。（市科技局办公室供稿）', '8月1日，由省科技厅党组成员、纪检组长杨薇带队，省科技厅人事处处长、科技人才办主任彭敬东，省科技厅人事处及省委组织部人才处相关人员组成的省考察组来怀化考察湖南奥谱隆科技创新创业团队。省考察组先后现场考察了奥谱隆新品种选育核心基地、奥谱隆国家农作物育种创新基地、奥谱隆怀化泸阳种子标准化仓储加工中心等，并在奥谱隆仓储加工中心会议室召开座谈会，听取了科技创新创业团队的带头人及团队核心成员组成、团队成果和转化能力、发展前景和具体规划等方面的情况汇报。市科技局局长龙小生、副局长宋先鸿、纪检组长杨晓华陪同考察。', '湖南奥谱隆科技创新创业团队所在的企业湖南奥谱隆科技股份有限公司是以经营杂交水稻和杂交玉米为主，具备全国“育、繁、推”一体化经营及进出口业务许可资质的农业高科技企业，2013年被评为“中国种业信用骨干企业”（在全国6900家企业中列43位）。团队带头人吴厚雄，副研究员，从事杂交水稻新品种选育与科研工作18年，主持育成12个杂交水稻新品种通过国家或省级审定，荣获省、市科技进步奖12项。团队共有8名核心成员，有3名成员的年龄在35岁以下，其中博士2人，硕士3人，本科4人。核心成员之一的张振华，是享受国务院特殊津贴的专家，2013年被评为全国科技创新创业人才。团队具有较强的研发能力和成果转化实力，在推动企业快速发展中取得了显著的成绩。', '湖南奥谱隆科技创新创业团队是怀化市唯一入围的省企业科技创新创业备选团队，也是全省10个入围团队中的一个。因此，团队带头人及所在企业负责人都非常珍惜，表示下一步将按照团队建设的要求，立足科研攻关，加快成果转化，5年内实现：育成12-15个不同熟期优质高产新品种通过国家和省级审定，3-4个新品种获得出口资质，产品国内市场占有率提升至2.5%以上，综合实力跻身国内种业前20强，在资本市场成功上市和实现可持续发展。', '考察组对团队的科研设备、技术力量、研发目标、团队成员构成以及所在企业的成长性都表示满意，认为湖南奥谱隆科技创新创业团队符合省企业科技创新创业团队计划支持的要求，现场考察的结果与申报材料和答辩情况的内容相符。同时，希望湖南奥谱隆科技创新创业团队和所在企业，要严格按照省企业科技创新创业团队计划任务目标，进一步完善人才培养机制，将留住人才、吸引人才的激励机制作为下一步的工作重点，注重企业自身人才队伍建设，发挥好企业现有研发平台的作用。同时，立足杂交水稻新品种选育，掌握选育核心技术，增强企业的核心竞争力。（市科技局办公室供稿）']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>185</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>怀化市党政考察团在湘西州考察叶红专彭国甫参加</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2020-12-23</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101112/202012/7138fca884154670b279d1ee8072516c.shtml</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['12月22日，省政协副主席、市委书记彭国甫率我市党政考察团赴湘西州考察脱贫攻坚、产业发展等工作。图为考察团在“精准扶贫”首倡地花垣县十八洞村考察。', '12月22日，省政协副主席、市委书记彭国甫率怀化党政考察团赴湘西土家族苗族自治州考察。省人大常委会副主任、湘西州委书记叶红专，怀化市领导陈恢清、张扬平、印宇鹰、姚述铭，湘西州领导刘珍瑜等参加考察。', '“精准扶贫”首倡地花垣县十八洞村近年来遵照习近平总书记“实事求是、因地制宜、分类指导、精准扶贫”十六字方略，充分激发群众内生动力，因地制宜发展特色产业，村人均收入达14668元，村集体经济收入达126万元。考察团认为，十八洞村作为精准扶贫首倡地，近年来发生了翻天覆地的变化，超前谋划与乡村振兴的有机结合，走出了一条非常科学、可复制、可持续的成功之路，使我们深受启发，让我们更加深刻地领悟到习近平精准扶贫精准脱贫思想的战略意义、丰富内涵和本质要求。我们要认真学习十八洞村的好经验好做法，更加坚定地把脱贫攻坚成果巩固好拓展好，使十八洞的成功经验在怀化漫山遍野、开花结果。', '吉首市马颈坳镇隘口村坚持“党建+扶贫产业”模式，按照“以茶促旅、以旅兴茶、以文传茶”的思路，加快促进茶旅融合发展。考察团指出，隘口村以基层党组织建设和现代生产方式生产关系的变革为依托，延伸拓展茶产业链，实现“接二连三”的效应。怀化要学习借鉴好湘西州发展茶叶的理念、体制机制、方式方法、商业模式等，保持定力、苦其心志，锲而不舍、一抓到底，用“他山之石攻玉”高位推动产业发展。要跳出怀化看产业，透过产业看农业，抓好茶叶、油茶、水果、中药材发展，走园区化、标准化、规模化、科技化、市场化、品牌化的道路，抢占价值链高端。', '考察中，叶红专表示，湘西州和怀化同属大湘西板块，两地山水相连，情谊深厚。近年来，怀化在脱贫攻坚、科技创新、产业发展等方面取得的成绩令人敬佩。希望两地携手努力、齐头并进，加大合作力度，推动共同发展。衷心祝愿怀化发展更加美好，老百姓更有获得感、幸福感、安全感。', '彭国甫指出，怀化和湘西州一衣带水、情深谊长。近年来，湘西州牢记习近平总书记殷切嘱托，在打赢脱贫攻坚战中干在实处、走在前列，探索了精准脱贫的成功经验，十八洞村成为中国乃至人类脱贫攻坚的一颗耀眼明珠。我们一定把湘西自治州的好思路、好作风、好经验带回去，融入到怀化发展中，融入到老百姓的笑容中。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>185</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>西藏自治区政协考察组到中方县考察交流工作</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2018-09-06</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101116/201809/ca53c175a46b47f987e8fef8a074b2e3.shtml</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['月5日，西藏自治区政协党组副书记、副主席高扬率政协考察组一行到中方县考察交流工作，县政协主席谭平景陪同。', '桐木镇，了解刺葡萄品种和种植、销售情况，参观葡萄酒加工、生产等流程，交流学习葡萄产业发展情况。', '“中国南方葡萄沟”位于中方县桐木镇大松坡村，因其境内环境优美、种植有连片刺葡萄而得名，是国家AAA级景区。近年来，在中方县委、县政府的大力推进下，不仅改造了村容村貌，规范了景区内的基础配套设施，还培养了一批以南方葡萄沟酒庄为龙头的新型经营主体，带动了一批新型农民的诞生，加快了葡萄经济的兴起。', '考察组对中方县葡萄产业的发展模式给予了充分肯定和高度评价，并表示回去后将充分学习借鉴，推动发展当地特色产业。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>185</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>越南城市管理考察团到南宁考察交流城管工作</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2011-12-14</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/cgzfj/c108771/201112/416ead68f332423681b4accb63e4d8c6.shtml</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['１１月２７日电由越南谅山省委第四期党政干部培训班成员组成的城市管理考察团日前来到南宁，参观南宁城市管理工作亮点，并与南宁城市管理局相关人员共同探讨中越两国间的城市管理工作。 南宁市城市管理局局长杨玉山在座谈会上向越南城市考察团介绍了南宁城市建设和管理的基本情况，并结合南宁城市管理实际，就如何做好城市管理工作总结出了“十个必须”：必须要坚定树立一种管理的理念；必须树立一个好的规划起点；必须要建立一套有效的城市管理机制；必须要建立一支完善的城市管理队伍；必须要建立一套完整的法律法规体系；必须要强化一项工作能力――执行力；必须要倡导一种人文关怀的团队意识；必须要营造一种和谐的社会宣传氛围；必须要突出一批重点工作来推进全面工作；必须要利用一些有效的载体全面推进管理工作。杨玉山说，南宁虽然在中国还是一个经济欠发达的后发展城市，但南宁在城市建设管理领域却取得了显著成绩，先后荣获全球人居领域最高奖“联合国人居奖”，是中国的“全国文明城市”、“国家卫生城市”，当前我们还在加快建设“中国绿城”和“中国水城”。“随着中国―东盟博览会连续成功举办，南宁市的城市国际化程度迅速提升，经济社会快速发展，城市综合实力明显增强，全市生产总值２０１０年为１８００亿元，财政收入今年预计达到３５０亿元，确保了年均增长１５％左右，”杨玉山说，不仅如此，在城市综合实力提升的基础上，城市宜居水平进一步增强，城乡基础设施显著改善，城镇化水平逐步提高。 越南城市管理考察团团长阮文忠在座谈会上肯定了南宁城市管理工作所取得的成绩，并表示通过考察南宁城市管理工作一些亮点，从中学习到了很多知识和受到了很大的启发。座谈会上，越南城市考察团与南宁城市管理局代表成员还共同探讨了城市环保问题、城市交通管理问题、城乡一体化建设、城市建设征地拆迁问题、城市垃圾填埋问题等。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>185</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>毛伟明主持召开省政府常务会议学习贯彻习近平总书记考察福建重要讲话精神</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2021-03-30</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.hunan.gov.cn/hnszf/szf/zfhyjtj/202103/t20210330_15187687.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['if ("毛伟明主持召开省政府常务会议 学习贯彻习近平总书记考察福建重要讲话精神" != "毛伟明主持召开省政府常务会议 学习贯彻习近平总书记考察福建重要讲话精神") { document.write("毛伟明主持召开省政府常务会议 学习贯彻习近平总书记考察福建重要讲话精神") }', '3月30日下午，省长毛伟明主持召开省政府常务会议，学习贯彻习近平总书记考察福建重要讲话精神，学习《政府督查工作条例》，研究部署实施财源建设工程、金融服务“三高四新”战略若干政策措施、营造放心消费环境等工作。', '会议指出，要深刻领会习近平总书记在福建考察时的重要讲话精神，准确把握进入新发展阶段、贯彻新发展理念、构建新发展格局、推动高质量发展的内在关系，完整、准确、全面贯彻新发展理念，实现更高质量、更有效率、更加公平、更可持续、更为安全的发展。要在推动高质量发展上体现新发展理念，大力实施“三高四新”战略，加大创新支持力度，深化改革开放。要在创造高品质生活上体现新发展理念，坚持就业优先，办好人民满意的教育，加快建设健康湖南。要在实现高效能治理上体现新发展理念，统筹发展和安全，狠抓社会治理创新，不断健全党组织领导的自治、法治、德治相结合的城乡基层治理体系。要在高质量推进乡村振兴上体现新发展理念，巩固脱贫攻坚成果，因地制宜培育壮大特色优势产业，提升公共服务水平，建设宜居宜业美丽乡村。要在高水平建设生态文明上体现新发展理念，树牢“两山”理念，把碳达峰、碳中和纳入全省生态文明建设整体布局，深入打好污染防治攻坚战，让高质量发展的生态底色更绿更亮。', '会议学习了《政府督查工作条例》。会议指出，要以贯彻落实条例为契机，切实加强和规范政府督查工作，把握督查工作重点，创新督查方式方法，强化督查结果运用，进一步发挥督查激励和约束作用，促进政府全面依法履职、不断提高行政效能，严禁重复督查、多头督查、越权督查，力戒形式主义、官僚主义。', '会议原则同意《关于落实“三高四新”战略 实施财源建设工程的意见》。会议强调，要强化财源意识，夯实聚财基础，做好生财文章，提升理财水平，明确责任分工，完善组织体系，不断壮大存量财源，培植增量财源，深挖潜力财源，提高资金、资产、资源使用绩效，为实施“三高四新”战略、推动高质量发展提供坚强保障。', '会议原则同意《湖南省金融服务“三高四新”战略若干政策措施》。会议指出，要扩大融资规模，促进产融结合，创新金融服务，深化金融改革，发展产业链供应链金融，加大对科技创新的金融支持，完善农村和中小微企业金融服务体系，加快推进湖南金融中心建设，防范化解金融风险，为实施“三高四新”战略提供强有力的金融支撑。', '会议原则同意《关于营造放心消费环境繁荣居民消费的若干意见》。会议强调，要建立权责清晰、分工明确的消费者权益保护体系，落实消费环境建设责任，大力整治消费领域突出问题，扎实开展放心消费创建，提升消费市场治理能力，充分发挥消费对经济发展的基础性作用，更好满足人民日益增长的美好生活需要。', '落实消费环境建设责任，大力整治消费领域突出问题，扎实开展放心消费创建，提升消费市场治理能力']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>185</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>外宾考察团实地考察怀化市国际陆港和医药产业</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2023-05-06</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c200023/202305/f7fac0c9cec54fec854e30130713644d.shtml</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['5月5日下午，首届湖南（怀化）RCEP经贸博览会外宾考察团实地考察我市国际陆港和医药产业。', '由来自老挝、韩国、越南、柬埔寨、缅甸、马来西亚等国家的外宾考察团先后来到怀化国际陆港规划展厅、怀化国际陆港主港区、正清集团国家中药新药技术创新中心进行现场考察。在怀化国际陆港规划展厅和国际陆港主港区，考察团详细了解怀化国际陆港的地理位置、规划建设运营、产业发展等情况。在正清集团国家中药新药技术创新中心，考察团参观综合制剂车间，听取正清制药集团负责人介绍情况，了解企业科技研发、生产经营状况、优势医药推介等。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>185</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>铜仁市党政代表团来怀化考察陈昌旭雷绍业陈少荣等参加考察</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2018-09-29</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101113/201809/6949196b1d7d4779aa21b3cca8fc9e41.shtml</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['9月28日，贵州省铜仁市委书记陈昌旭，市委副书记、市长陈少荣率党政代表团来怀考察交流。怀化市领导雷绍业、王行水，铜仁市部分领导参加考察。', '在怀化高新区，铜仁市党政代表团先后考察了怀化高新区科技规划馆、湖南正清制药集团股份有限公司，代表团对怀化高新区成功升级为武陵山片区首家国家级高新区表示赞赏，对怀化市坚持科技引领、创新驱动，推动产业集聚集群发展，不断增强园区创新力、集聚力、吸引力取得的成绩给予高度评价。', '在怀化经开区，铜仁市党政代表团先后考察了传化智能公路物流港、武陵山跨境商品交易中心、怀化氵舞水公用保税仓、武陵山智能终端产业园，对怀化市实施创新引领、开放崛起战略，不断改善营商环境促进经济发展取得的成绩给予高度评价，对怀化市干部群众身上体现出的干事创业劲头表示赞许。', '在怀化铁路口岸及中欧班列项目现场，代表团对怀化市着力构建开放平台，建设内陆开放新高地的做法表示赞赏。他们认为怀化一批开放平台的建成运营和中欧（怀化—明斯克）班列的开行，具有强大的辐射带动作用，不仅有利于怀化形成全面开放新格局，也为包括铜仁在内的周边地区发展开放型经济带来巨大机遇。', '在佳惠武陵山农产品物流产业园，代表团认为怀化完善物流体系、商业体系，加快推动农业产业化，为打好打赢脱贫攻坚战、实施乡村振兴战略提供强有力支撑的做法值得借鉴。代表团还深入洪江区、洪江市、中方县考察文化旅游产业发展及旅游扶贫情况。', '代表团表示，铜仁与怀化地缘相近、经济相融、人文相亲，两地合作前景广阔，携手共创美好未来值得期待。怀化市在产业发展、园区建设、开放型经济发展、脱贫攻坚中不少成功的经验与做法可供学习、借鉴。希望铜仁、怀化两市全面加强交流合作，着力强化对接融入，进一步推动两地合作向纵深发展，不断巩固两地优势互补、共赢发展的良好局面，携手推动两市经济社会更好发展。（本报记者 金刚）']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>185</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>省水利厅考察组考察溆浦县刘家坪水库水利风景区</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2017-09-01</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/slj/c100641/201709/6d18144989a44330a1cc939fa4d7145f.shtml</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['8月31日，省水利厅综合事业局副局长谭佩君一行来溆浦刘家坪水库考察水利风景区，市水利局副局长赵光壁、经济管理站站长吴后山，县水利局局长欧阳长江、刘家坪水电站站长李远校等陪同考察。', '在刘家坪水库水利风景区考察评价会上，谭佩君指出，刘家坪水库水利风景区资源丰富，区位优势明显，气候独特，环境优美，水生态完好，旅游前景广阔。下段，一是调整完善规划，挖掘水利文化。二是坚持保护优先，合理适度开发。要保护水体，防止水污染，保护好水域岸线，防止侵占水域。三是建设基础设施，增强配套功能。四是成立管理机构，统筹协调各方。', '考察评价会上，欧阳长江汇报了县水利局所做的工作，李远校汇报了工作情况，设计单位汇报了规划编制情况。', '会前，考察组一行考察了山背花瑶梯田景区、刘家坪水库水利风景区和龙潭抗日阵亡将士陵园。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>185</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>刘晓深入芷江考察</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2014-07-10</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101111/201407/da47608482594a84b1c5b94df5b0881f.shtml</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['7月8日，省政协副主席、民革湖南省委主委刘晓，民革湖南省委秘书长黄自荣深入芷江考察湖南抗战史博物馆建设情况以及抗战英雄墓园选址。副市长杨开凤、市政协副主席黄雪鸿陪同考察。刘晓一行先后考察了太和塔项目施工现场、受降纪念坊、受降纪念馆、飞虎队纪念馆等。每到一处，他们都认真察看，不时向工作人员了解有关细节。在当日下午的座谈会上，刘晓一行专题听取了芷江关于抗战胜利受降旧址和湖南抗战历史博物馆建设情况汇报。', '刘晓指出，在整个中华民族的抗战史上，芷江具有重要的历史地位，应该在“全国的芷江”上做好文章。他强调，要抓住2015年抗战胜利70周年的契机，高标准高起点规划和建设好博物馆以及抗战英雄墓园，用民族的灾难意识唤醒民众的爱国意识，同时通过抗战文化推动芷江经济社会发展，真正实现双赢。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>185</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>习近平在汕头考察调研</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2020-10-15</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202010/fee475f6359d4d0c8a3ffd95761454f4.shtml</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['习近平总书记13日下午来到广东省汕头市小公园开埠区，走进开埠文化陈列馆、侨批文物馆，了解汕头开埠历史、设立经济特区以来的建设发展情况，和潮汕侨胞心系家国故土、支持祖国和家乡建设的历史。随后，习近平步行察看开埠区街区人文历史风貌，同市民群众亲切交流。（文字记者：张晓松、朱基钗 摄影记者：鞠鹏、王晔、李响）']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>185</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>国家现代农业产业园创建绩效评价考察组抵靖考察</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2018-12-20</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101116/201812/622a4e0aae624d23a0e644fe5115e3be.shtml</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['12月13、14日，国家现代农业产业园创建绩效评价考察组抵靖考察园区创建工作。靖州县委书记张远松，县委副书记、县长田连钊参加汇报会。', '考察组一行首先来到靖州县茯苓科技产业园考察调研了一品东方、中山杨梅、异溪食品、智美茯苓等中小企业的生产建设情况。随后来到补天药业、甘棠镇鑫源杨梅示范园、后山溪杨梅示范园、坳上镇响水村杨梅博物馆、木洞村杨梅产业园进行实地考察，并与当地企业负责人、种植大户、村支两委干部进行座谈。', '一年来，靖州县对照国家现代农业产业园建设要求，以杨梅、茯苓为主导产业，按照“一年有起色、两年见成效、四年见体系”目标，全力推进创建工作。靖州县国家现代农业产业园计划投资5.34亿元，目前完成总投资6.3亿元，29个项目全部开工建设，完工22个。预计2018年园区总产值达到93.59亿元，其中主导产业产值达72.85亿元，主导产业产值占总产值的77.84%，杨梅基地面积达到6.7万亩，产量6.2万吨；茯苓基地面积达4.1万亩，产量7万吨；园区带动就业3.56万人，农民人均可支配收入达到14280元，新增就业岗位3500个，带动4170名贫困人口实现脱贫。', '通过建设国家现代农业产业园，靖州县杨梅、茯苓等特色农产品逐步形成大基地、大加工、大营销、大融合、大增收的良好局面。', '汇报会上，考察组在听取了靖州县国家现代农业产业园建设汇报后，表示靖州建成的产业特色鲜明，设施装备先进，生产方式绿色，有较强的辐射带动能力。靖州作为入围第一批国家现代农业产业园建设，要抓住机遇，立足实际，把靖州的国家现代农业园区建设作为对乡村振兴的重要支撑。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>185</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>习近平在黑龙江考察</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2018-09-26</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/201809/bb2072d651584b6da3fc200ab7539eef.shtml</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['9月25日，习近平抵达黑龙江省开始考察。当天下午，他首先来到黑龙江农垦建三江管理局，了解粮食生产和收获情况。建三江地处三江平原腹地，是我国重要商品粮基地，有“中国绿色米都”之称。（文字：张晓松 摄影：王晔、燕雁）']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>185</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>习近平在柳州考察调研</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2021-04-27</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202104/734821a27af2433c8d48a8a5fe2301bc.shtml</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['26日下午，正在广西柳州考察调研的习近平总书记，先后来到广西柳工集团有限公司、柳州螺蛳粉生产集聚区，了解企业改革创新、制造业和特色产业发展情况。（文字记者：张晓松、朱基钗 摄影记者：鞠鹏、谢环驰、殷博古）']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>185</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>习近平在重庆考察调研</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2019-04-16</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/201904/61926976f9ae49ebad02338fb78aaff8.shtml</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['4月15日，习近平总书记赴重庆考察调研。一下飞机，他就转乘火车、汽车前往石柱土家族自治县中益乡小学、华溪村，深入农户家中和田间地头，实地了解脱贫攻坚工作进展和解决“两不愁三保障”突出问题情况。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>185</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>习近平在浙江考察调研</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2020-03-30</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202003/29ea75325949476499ecd8557c8928be.shtml</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['习近平总书记29日在浙江考察调研。当天下午，他先后来到宁波舟山港穿山港区码头、北仑大碶高端汽配模具园区，了解港口和园区企业复工复产情况。（记者：杨维汉、朱基钗）']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>185</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>习近平在绥德考察调研</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2021-09-15</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/linye/c110012/202109/6b31eeb46fba4810a7577fcef12d03f1.shtml</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['习近平总书记14日在榆林市绥德县考察调研。他先后来到中共绥德地委旧址、绥德实验中学、绥德县非物质文化遗产陈列馆、张家砭镇郝家桥村，围绕弘扬党的光荣传统和优良作风、促进学生全面发展与健康成长、推进传统文化保护与传承、全面推进乡村振兴等实地调研。（文字记者：张晓松、朱基钗；摄影记者：李学仁、谢环驰、燕雁）']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>185</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>习近平在河南考察调研</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2019-09-18</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/201909/9c5f3113b0eb4471b1c5e86572ce7ea0.shtml</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['习近平总书记16日在河南省考察调研。当天下午，他首先来到位于新县的鄂豫皖苏区首府烈士陵园，向革命烈士纪念碑敬献花篮，瞻仰革命烈士纪念堂。随后，他参观了鄂豫皖苏区首府革命博物馆，并看望了当地红军后代、烈士家属代表。(文字记者：张晓松、朱基钗 摄影记者：鞠鹏、谢环驰)']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>185</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>习近平在南宁考察调研</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2021-04-28</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202104/77c4dfbc75524ca68015b0d35ad11a23.shtml</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['27日上午，正在广西南宁考察调研的习近平总书记，来到广西民族博物馆，参观壮族文化展，观看三月三“歌圩节”壮族对歌等民族文化活动展示，了解促进民族团结进步和民族文化保护传承等情况。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>185</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>习近平在扬州考察调研</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2020-11-14</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202011/0be1d2fe601c4c408c94bd13b0ef4939.shtml</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['习近平总书记13日在江苏省扬州市考察调研。他先后来到运河三湾生态文化公园、江都水利枢纽，了解大运河沿线环境整治和文化保护传承利用、南水北调东线工程规划建设和江都水利枢纽运行等情况。（文字记者：张晓松、朱基钗 摄影：鞠鹏、谢环驰、燕雁）']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>185</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>习近平在福州考察调研</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2021-03-25</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202103/704f3a5cbb8c4c9990d1601a45a69336.shtml</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['24日下午，正在福建省福州市考察调研的习近平总书记，先后来到郊野福道、三坊七巷历史文化街区、福建福光股份有限公司，了解城市规划建设、历史文化街区保护、企业创新发展等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、王晔、燕雁）']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>185</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>王勇在湘考察指导防汛救灾工作杜家毫许达哲分别参加考察</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2019-07-17</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101112/201907/ae104aadbc9840d7b06663d01f8dc8fb.shtml</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['7月15日上午，国务委员王勇在株洲市渌口区南洲镇将军村湘江河堤溃口堵口现场，察看险情灾情，指导抢险救灾，看望慰问参与抗洪抢险救灾的干部群众和转移安置人员。', '7月15日至16日，国务委员王勇在湖南考察指导防汛抗洪抢险救灾工作，强调要认真落实习近平总书记关于防汛救灾工作的重要指示精神，按照党中央、国务院有关决策部署，坚持把保障群众生命安全放在首位，立足于防大汛、抗大洪、抢大险、救大灾，全面落实各方面责任和各项措施，切实做好防汛抗洪抢险救灾各项工作。', '近期，湖南省遭遇强降雨袭击，湘江、资水等多条河流发生洪水，局部区段超历史洪峰，不少工程堤防出险，防汛抗洪形势严峻。面对汛情灾情，省委、省政府把防汛抗洪救灾作为当前头等大事来抓，全省各级各部门落实责任、强化部署，提前预警、及时转移，应急联动、协同抗洪，全力抢险、主动救灾，努力把灾害损失降至最低，最大限度保障人民群众生命财产安全。', '王勇在省委书记杜家毫，省委副书记、省长许达哲的分别陪同下，深入株洲市渌口区南洲镇将军村湘江河堤溃口堵口现场，察看险情灾情，指导抢险救灾，看望慰问参与抗洪抢险救灾的干部群众和转移安置人员;并考察了湘江株洲城区段防洪工程、长沙市柏家洲防洪整治项目和防洪设施，对前一阶段湖南省防汛抗洪工作给予充分肯定。王勇指出，当前长江等大江大河的防汛抗洪任务仍十分艰巨，还要高度重视河湖防汛和城市洪涝、山洪泥石流、台风等灾害防范。各地区和有关部门要及早做好充分准备，及时处置灾情险情，确保人民群众生命安全，确保重要堤防和重要设施安全。', '王勇强调，要全面落实行政首长负责制，完善各级指挥决策和调度机制，切实加强县乡村基层防洪体系，确保提前发出预警信息到户、到人，及时转移危险区人员。密切监视汛情灾情发展，加强多部门联合会商研判。落实巡查制度，加强薄弱地段、险工险段重点防守，坚决避免发生重要堤段溃口性重大险情。要加强科学调度，充分发挥防洪工程拦洪、削峰、错峰作用，最大限度发挥防灾减灾效益。', '应急管理部党组书记黄明，国务院副秘书长孟扬，水利部副部长兼应急管理部副部长叶建春，省领导胡衡华、张剑飞、陈飞参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>185</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>习近平在广东考察调研</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2023-04-11</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202304/t20230411_29311401.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['10日，习近平总书记在广东省考察调研。他首先来到湛江市，先后考察了国家863计划项目海水养殖种子工程南方基地、麻章区湖光镇金牛岛红树林片区、徐闻港、环北部湾广东水资源配置工程，了解当地发展海洋渔业、加强红树林保护、提升交通基础设施互联互通水平、推动广东海南相向发展、优化水资源配置等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、李学仁、燕雁、刘彬）']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>185</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>习近平在黑龙江考察</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202309/t20230909_29480917.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['新华社哈尔滨9月8日电 中共中央总书记、国家主席、中央军委主席习近平近日在黑龙江考察时强调，要牢牢把握在国家发展大局中的战略定位，扭住推动高质量发展这个首要任务，落实好党中央关于推动东北全面振兴的决策部署，扬长补短，把资源优势、生态优势、科研优势、产业优势、区位优势转化为发展新动能新优势，建好建强国家重要商品粮生产基地、重型装备生产制造基地、重要能源及原材料基地、北方生态安全屏障、向北开放新高地，在维护国家国防安全、粮食安全、生态安全、能源安全、产业安全中积极履职尽责，在全面振兴、全方位振兴中奋力开创黑龙江高质量发展新局面。', '9月6日至8日，习近平在黑龙江省委书记许勤和省长梁惠玲陪同下，来到大兴安岭、哈尔滨等地，深入林场、乡村、高校等进行调研，前往灾后恢复重建现场看望慰问受灾群众。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市漠河林场自然林区考察。新华社记者 殷博古 摄', '6日下午，习近平来到大兴安岭地区漠河市，考察漠河林场自然林区，察看自然林生长态势和林下作物展示，听取当地深化森林资源资产管理改革、推进生态产业化和产业生态化以及加强森林防火灭火情况介绍。习近平指出，要坚持造林与护林并重，做到未雨绸缪、防患于未然，决不能让几十年、几百年、上千年之功毁于一旦。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村，同村民史瑞娟一家亲切交谈。新华社记者 鞠鹏 摄', '随后，习近平乘车来到我国大陆最北端的边境临江村落北极村，仔细了解当地结合地域优势发展特色旅游、将生态优势转化成发展优势等情况。习近平强调，森林是集水库、粮库、钱库、碳库于一身的大宝库。要树立增绿就是增优势、护林就是护财富的理念，在保护的前提下让老百姓通过发展林下经济增加收入。在村民史瑞娟家的民宿小院，习近平向乡亲们了解当地发展乡村特色产业、助推兴边富民乡村振兴等情况。他指出，北极村的发展和群众的生活状况好，看了很高兴。发展旅游业是推动高质量发展的重要着力点。把大兴安岭森林护好，旅游业才有吸引力。这里的旅游资源得天独厚，地方党委和政府要提供政策支持，坚持林下经济和旅游业两业并举，让北国边塞风光、冰雪资源为乡亲们带来源源不断的收入。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察时，同当地群众亲切交流。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察时，向当地群众挥手致意。新华社记者 鞠鹏 摄', '离开小院时，当地群众在道路两旁热情欢送总书记。习近平亲切地对大家说，北极村前景可期。希望广大干部、群众共同努力，把乡村建设得更好、把生态保护得更好、让人民生活得更好，共同奔向中国式现代化的美好未来。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾情况。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾情况。新华社记者 谢环驰 摄', '习近平十分牵挂洪涝灾害地区灾后恢复重建工作和受灾群众的生活保障问题。7日上午，习近平乘车来到受灾较重的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾和水毁房屋重建情况。村民杨春贵家房屋在洪灾中进水浸泡，屋内设施受损、间墙开裂，正在修缮。习近平走进杨春贵家中，看到房屋修缮即将完毕、生产生活都有安排，感到很欣慰。习近平指出，我一直牵挂受灾群众，尚志市这次受灾较为严重，看到灾后恢复重建快速顺利，乡亲们生活有了着落、生产有了保障，心里很踏实。东北冬季来得早、时间长，要确保受灾群众安全温暖过冬，地方党委和政府要抓紧谋划，提前行动，把吃、喝、住、行、就业、教育、医疗防疫等事关群众生产生活的大小事情考虑得更细致、更周全一些，不留一丝纰漏。要抓紧修复受损房屋，加快推进灾后重建，最大程度减少农业因灾损失，确保受灾群众安心安全。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水毁房屋重建情况。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，习近平走进村民杨春贵家中，察看受损房屋修缮情况。新华社记者 殷博古 摄', '看到总书记来了，当地村民和施工人员纷纷围拢过来，向总书记问好。习近平亲切地对大家说，党和政府十分关心灾区群众，始终同大家风雨同舟、携手同行，希望乡亲们在党组织领导下齐心协力、共克时艰，努力建设美好家园。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，同当地村民和施工人员亲切交流。新华社记者 谢环驰 摄', '7日上午，习近平还来到哈尔滨工程大学，了解学校发展历程和为我国国防科技事业作出的贡献，察看教学科研成果展示。习近平强调，哈尔滨工程大学要发扬“哈军工”优良传统，紧贴强国强军需要，抓好教育、科技、人才工作，为建设教育强国、科技强国、人才强国再立新功。年轻一代成为奋力拼搏、振兴中华的一代，实现第二个百年奋斗目标就充满希望。青年学子要树牢科技报国志，刻苦学习钻研，勇攀科学高峰，在推进强国建设、民族复兴伟业中绽放青春光彩。再过几天就是教师节，向全校教师致以节日祝福，祝全国广大教师节日快乐。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在哈尔滨工程大学哈军工纪念馆考察。新华社记者 谢环驰 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在哈尔滨工程大学考察时，同师生代表亲切交流。新华社记者 谢环驰 摄', '8日上午，习近平听取了黑龙江省委和省政府工作汇报，对黑龙江各项工作取得的成绩给予肯定。', '习近平指出，要以科技创新引领产业全面振兴。要立足现有产业基础，扎实推进先进制造业高质量发展，加快推动传统制造业升级，发挥科技创新的增量器作用，全面提升三次产业，不断优化经济结构、调整产业结构。整合科技创新资源，引领发展战略性新兴产业和未来产业，加快形成新质生产力。提高国有企业核心竞争力，引领民营经济健康发展，打造一批产业集群，做大做强实体经济。把企业作为科技成果转化核心载体，提高科技成果落地转化率。主动对接全国产业链供应链，在优势产业和产业优势领域深耕细作，更好融入全国统一大市场，在联通国内国际双循环中发挥更大作用。坚持绿色发展，加强绿色发展技术创新，建立健全绿色低碳循环发展经济体系。', '习近平强调，黑龙江要当好国家粮食安全“压舱石”。要以发展现代化大农业为主攻方向，加快建设现代农业大基地、大企业、大产业，率先实现农业物质装备现代化、科技现代化、经营管理现代化、农业信息化、资源利用可持续化。强化数字技术和生物技术赋能，优先把黑土地建成高标准农田，切实把黑土地保护好。把发展农业科技放在更加突出的位置，统筹推进科技农业、绿色农业、质量农业、品牌农业，推进现代种业提升工程，配套推广先进适用科技和高端农机装备，发展农业循环经济。创新农业经营方式，发展规模化经营、社会化服务。打造食品和饲料产业集群，提高粮食生产综合效益。加快推进乡村振兴，让农村具备现代化生产生活条件。', '习近平指出，要大力发展特色文化旅游。把发展冰雪经济作为新增长点，推动冰雪运动、冰雪文化、冰雪装备、冰雪旅游全产业链发展。守护好森林、江河、湖泊、湿地、冰雪等原生态风貌，改善边境地区基础设施条件，积极发展边境旅游，更好地促进兴边富民、稳边固边。勇担新的文化使命，繁荣发展文化事业和文化产业，深入开展城乡精神文明建设，推进城乡公共文化服务体系一体建设，努力培育新风尚、展示新形象。', '习近平强调，要构筑我国向北开放新高地。更好统筹贸易、投资、通道和平台建设，在市场准入、要素流动、制度型开放等方面大胆探索、先行先试，形成全方位对外开放新格局。加快建设重要陆路通道、河海航道、能源管道等基础设施，完善面向东北亚开放的交通运输网络。要加强自贸试验区、综合保税区等开放平台创新发展，深度融入共建“一带一路”，积极参与区域合作。要切实做好重点领域风险防范化解工作，落实安全生产责任，坚决避免发生重特大安全生产事故。', '习近平指出，第一批主题教育已经告一段落，要抓好继续整改和建章立制工作，把主题教育探索的好经验好做法转化为长效机制。要建立健全理论学习、调查研究、推动高质量发展、密切联系群众、防止形式主义和官僚主义等长效机制，巩固发展主题教育成果。第二批主题教育已经启动，各地要坚持科学谋划、统筹安排、分类指导，确保取得实效。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第四巡回指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>185</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>习近平在四川考察调研</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2023-07-26</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202307/t20230726_29411592.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['25日下午和26日下午，习近平总书记在四川省广元市、德阳市分别考察了翠云廊古蜀道、三星堆博物馆，了解当地推进历史文化传承、加强生态文明建设和历史文化遗址发掘研究、文物保护修复等情况。（文字记者：朱基钗、林晖；摄影记者：鞠鹏、谢环驰、李涛）']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>185</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>习近平在重庆考察调研</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2024-04-23</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202404/t20240423_33284135.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['4月22日至23日，习近平总书记在重庆市考察调研。他先后来到重庆国际物流枢纽园区、九龙坡区谢家湾街道民主村社区、重庆市数字化城市运行和治理中心，了解当地加快建设西部陆海新通道、实施城市更新和保障改善民生、提高城市治理现代化水平等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、王晔、岳月伟）']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>185</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>习近平在宁夏考察调研</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>https://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202406/t20240621_33332693.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['19日下午，习近平总书记在宁夏回族自治区考察调研。他来到银川市金凤区长城花园社区，了解社区发挥基层党组织作用、优化便民惠民服务、推动各族群众交往交流交融等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、燕雁、翟健岚）']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>185</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>习近平在湖北武汉考察</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2022-06-29</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>https://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202206/t20220629_26697169.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['新华社武汉6月29日电 中共中央总书记、国家主席、中央军委主席习近平28日在湖北省武汉市考察时强调，科技自立自强是国家强盛之基、安全之要。我们必须完整、准确、全面贯彻新发展理念，深入实施创新驱动发展战略，把科技的命脉牢牢掌握在自己手中，在科技自立自强上取得更大进展，不断提升我国发展独立性、自主性、安全性，催生更多新技术新产业，开辟经济发展的新领域新赛道，形成国际竞争新优势。', '28日下午，习近平在湖北省委书记王蒙徽、省长王忠林陪同下，深入武汉的企业、社区调研。', '习近平首先来到武汉华工激光工程有限责任公司考察。在企业研发综合大楼，习近平听取湖北省光电子信息产业发展及核心技术攻关情况介绍，仔细察看芯片产业创新成果展示。习近平指出，光电子信息产业是应用广泛的战略高技术产业，也是我国有条件率先实现突破的高技术产业。湖北武汉东湖新技术开发区在光电子信息产业领域独树一帜。要加强技术研发攻关，掌握更多具有自主知识产权的核心技术，不断延伸创新链、完善产业链，为推动我国光电子信息产业加快发展作出更大贡献。随着我国发展壮大，突破“卡脖子”关键核心技术刻不容缓，必须坚持问题导向，发挥新型举国体制优势，踔厉奋发、奋起直追，加快实现科技自立自强。', '习近平先后走进企业激光科技馆、半导体面板激光智能装备生产车间，察看激光技术产业应用展品。习近平强调，高端制造是经济高质量发展的重要支撑。推动我国制造业转型升级，建设制造强国，必须加强技术研发，提高国产化替代率，把科技的命脉掌握在自己手中，国家才能真正强大起来。', '在车间大楼前，习近平同企业职工亲切交流。习近平指出，我国是世界第二大经济体，但还有不少短板，一些产业的基础还不是很牢固，进一步发展必须靠创新。全面建设社会主义现代化国家，实现第二个百年奋斗目标，创新是一个决定性因素。党中央高度重视科技创新，实施科教兴国战略和创新驱动发展战略。如果我们每一座城市、每一个高新技术开发区、每一家科技企业、每一位科研工作者都能围绕国家确定的发展方向扎扎实实推进科技创新，那么我们就一定能够实现既定目标。我们这一代人必须承担起这一光荣使命。科技创新，一靠投入，二靠人才。看到这里聚集了不少精英人才，大家都很年轻，充满活力，我感到很高兴。党中央十分关心科技人才成长，各级党委和政府要尽可能创造有利于科技创新的体制机制和工作生活环境，让科技工作者为祖国和人民作贡献。希望大家继续努力，取得更大成绩。', '习近平随后来到东湖高新区左岭街道智苑社区考察。该社区是一个国有企业棚改还建小区，新冠肺炎疫情发生后，严格落实五级包保制度，形成返岗复工和防控管理相结合的社区稳定保障体系，有序推动居民生活工作恢复正常。在听取湖北省常态化疫情防控和疫后社区治理情况介绍后，习近平强调，2020年武汉保卫战胜利以来，武汉这两年又遇到了多次聚集性疫情，但很快控制住了，没有发生大的反弹。武汉市常态化疫情防控工作做得是好的，经验值得总结。实践证明，党中央确定的疫情防控方针政策是正确的、有效的，必须毫不动摇坚持。', '习近平走进志愿服务客厅，向社区工作者、下沉党员干部、志愿者了解基层疫情联防联控机制运行情况，勉励他们把防控一线的篱笆扎结实，为居民营造一个安心祥和的生活环境。习近平在社区边走边看，对社区便民核酸采样等常态化疫情防控措施表示肯定。习近平强调，在应对疫情的斗争中，无论是应急状态防控还是常态化防控，社区都发挥了十分重要的作用。总的来讲，要靠早发现、快处置，靠广大人民群众众志成城，靠社区这个重要基础。要完善社区常态化防控措施，发现疫情后一定要果断，不能迟疑，采取科学严格的管控措施，提高科学防控、精准防控水平，坚决守住社区这道防线。', '智苑社区围绕老龄化突出问题，创新养老服务模式，建立了以居家为基础、社区为依托、机构为补充、医养相结合的养老服务模式。在社区党群服务中心，习近平向社区工作者了解党建引领基层社区治理及便民服务等情况，并同前来办事的老年人亲切交谈，详细询问他们的家庭情况。习近平指出，社区是城市治理体系的基本单元。我国国家治理体系的一个优势就是把城乡社区基础筑牢。要加强社区党组织建设，强化党组织的政治功能和组织功能，更好发挥党组织在社区治理中的领导作用，更好发挥党员先锋模范作用。要把更多资源下沉到社区来，充实工作力量，加强信息化建设，提高应急反应能力和管理服务水平，夯实城市治理基层基础。', '社区小广场上，干部群众纷纷围拢过来，欢呼着向总书记问好。习近平亲切地对大家说，我一直牵挂着武汉人民，时隔两年，再次来到武汉这座英雄的城市看望大家。疫情暴发以来，广大社区工作者长期坚守在防控一线，承担了大量繁杂琐碎的具体工作，竭诚为社区居民服务，非常辛苦，功不可没。这里，我向大家并向全国广大社区工作者表示诚挚的慰问。', '习近平强调，新冠肺炎疫情是一场大考。我们坚持人民至上、生命至上，坚持外防输入、内防反弹，坚持动态清零，因时因势不断调整防控措施，最大程度保护了人民生命安全和身体健康。我国人口基数大，如果搞“集体免疫”、“躺平”之类的防控政策，后果不堪设想。我们实施动态清零政策，是党中央从党的性质宗旨出发、从我国国情出发确定的，宁可暂时影响一点经济发展，也不能让人民群众生命安全和身体健康受到伤害，尤其是要保护好老人、孩子。如果算总账，我们的防疫措施是最经济的、效果最好的。我们有中国共产党领导，有社区这个重要基层基础，有能力也有实力实行动态清零政策，直至取得最后胜利。', '习近平指出，当前，疫情还没有见底，外防输入、内防反弹压力还很大。坚持就是胜利。要克服麻痹思想、厌战情绪、松劲心态，抓实抓细疫情防控各项工作，同时要尽可能推动经济平稳健康发展。各级党委和政府要想办法帮助人民群众解决实际困难，确保经济发展和人民群众生产生活少受影响。我们有信心统筹好疫情防控和经济社会发展工作，争取今年我国经济发展达到较好水平。']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>185</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>坚持用好改革开放这个关键一招二论深入学习贯彻习近平总书记考察湖南重要讲话精神</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2024-03-25</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gjj/c108768/202403/59133ca04b9b441a92c0f50b0b6a695e.shtml</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['坚持用好改革开放这个“关键一招”——二论深入学习贯彻习近平总书记考察湖南重要讲话精神 - 市住房公积金管理中心', '坚持用好改革开放这个“关键一招”——二论深入学习贯彻习近平总书记考察湖南重要讲话精神', '改革和开放如同“一体两翼”，以开放促改革、以改革促发展，是40多年来我们不断取得举世瞩目新成就的宝贵经验。习近平总书记日前在长沙主持召开新时代推动中部地区崛起座谈会，从挺起中部“脊梁”的角度，强调“统筹推进深层次改革和高水平开放，持续打造更具竞争力的内陆开放高地”，为湖南主动融入国家发展大局、加快实现“三高四新”美好蓝图提供了重大战略指引、指明了根本前进方向。', '惟改革者进，惟创新者强，惟改革创新者胜。近年来，湖南牢记总书记殷殷嘱托，大力推进内陆地区改革开放高地建设。宏观来看，湖南自贸试验区探索形成了39项全国首创制度创新成果。不沿边、不靠海的湖南进出口年均增速达18.4%，高于全国7.1个百分点。湖南经贸“朋友圈”已遍布全球235个国家和地区，湘企“出海”走进了111个国家和地区。实际利用外资、对外投资规模均居中部第一，对非洲进出口年均增长31.6%，规模保持中西部第一。具体而言，从去年9月15日开始，位于湘西南山区的邵阳结束没有国际贸易班列的历史，迈入全新的“口岸时代”。与它相邻的怀化则打开山门，沿着怀化国际陆港这条大通道，紧密对接东盟国家……敢为人先的湖南人，努力以改革开放的主动赢得经济社会高质量发展的主动、赢得国际竞争的主动，进而把握发展先机。', '“要坚持用改革开放这个关键一招解决发展中的问题、应对前进道路上的风险挑战。”过去5年来，中部地区高质量发展取得了新成效。但同时要看到，推动中部地区崛起仍面临不少困难和挑战。地处中部地区的湖南尽管改革开放取得了不少成绩，但与东部沿海地区相比还有差距，必须以更大的决心和力度深化改革开放。必须着力解决制约构建新发展格局和推动高质量发展的卡点堵点问题、发展环境和民生领域的痛点难点问题、有悖社会公平正义的焦点热点问题；必须加强改革系统集成，更好参与全国统一大市场建设，全面融入中部地区崛起和长江经济带发展战略，深度融入共建“一带一路”，稳步扩大制度型开放，高标准建设好自由贸易试验区，着力打造中非经贸深度合作先行区。只有坚持向改革要动力、善于用改革的办法解决发展中的问题，向开放要活力、善于以开放促改革促发展，才能持续打破“不可以”的旧观念，不断创造“不可能”的新奇迹。', '春草萌发、春花吐蕊，这是吐故纳新的生命本能；深化改革、不断创新，这是推动社会进步、国家发展的实践之需；打造更具活力的内陆地区改革开放高地，这是加快实现“三高四新”美好蓝图的内在要求。坚定不移沿着习近平总书记指引的方向前进，坚持用好改革开放这个“关键一招”，湖南必将迎来更为广阔的发展新天地。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>185</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>习近平赴湖南考察调研</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2020-09-17</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202009/680be28f5aa64af2bcd03c98761abebf.shtml</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['习近平总书记16日赴湖南考察调研。当天下午，他来到郴州市汝城县文明瑶族乡沙洲瑶族村“半条被子的温暖”专题陈列馆、村服务中心和卫生室、沙洲现代农旅示范基地、文明瑶族乡第一片小学，以及村民家中，了解当地开展红色教育、发展扶贫产业、巩固脱贫成果等情况。(文字记者 张晓松、朱基钗 摄影记者 李学仁、谢环驰、岳月伟)']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>185</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>习近平赴广西考察调研</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2021-04-27</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202104/561ee4347a4446b6bf9dceed6344dc73.shtml</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['25日上午，习近平总书记来到位于广西桂林全州县才湾镇的红军长征湘江战役纪念园，向湘江战役红军烈士敬献花篮，参观红军长征湘江战役纪念馆，缅怀革命先烈、赓续共产党人精神血脉。随后，习近平来到才湾镇毛竹山村，考察推进乡村振兴、基层治理等情况。当天下午，习近平在漓江阳朔段实地了解漓江流域综合治理、生态保护等情况。（记者：张晓松、朱基钗 摄影：鞠鹏、谢环驰、申宏、殷博古）']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>185</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>湖南师大考察团到通道皇都侗文化村考察美丽乡村建设</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2016-08-02</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/mzswj/c108772/201608/983ab4aaaef64accaf65d75da032dcc3.shtml</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['7月30 日， 湖南师范大学党委书记李民带领由该校办公室、发展规划与科学建设处、驻插柳村扶贫工作队、柳村村委等相关负责人组成的考察团赴坪坦乡皇都侗文化村考察学习新农村建设。', '湖南师范大学党委书记李民带领由该校办公室、发展规划与科学建设处、驻插柳村扶贫工作队、柳村村委等相关负责人组成的考察团赴坪坦乡皇都侗文化村考察学习新农村建设。', '李民一行先后实地考察了皇都侗文化村景区、文艺创作基地、村集体产业基地等， 听取该村旅游景点经营、创作基地建设、村集体产业发展、精神文明建设、美丽乡村建设等情况介绍。每到一个景点、一个基地， 李民都要求考察团相关人员认真做好笔记，对于独具特色的村规民约、制度条款、温馨提示， 要拍好照片，带回去做参考。', '听取该村旅游景点经营、创作基地建设、村集体产业发展、精神文明建设、美丽乡村建设等情况介绍。每到一个景点、一个基地', '皇都侗文化村由头寨、盘寨、新寨和盘寨四个大团寨组成， 近年来，在县委县政府“生态立县、旅游兴县、文化强县”发展战略引导下， 建成旅游生态基地4 个， 种植猕猴桃、提子、草莓等生态水果600 余亩， 发展旅游民俗客栈3 家、家庭旅馆20 多家， 农家乐、手工艺品店等57 家， 景区发展效应凸显。先后获得了国家AAAA 级旅游景区、全国文明村镇、中国传统村落、湖南省五星级休闲农业庄园、湖南省农业旅游示范点等荣誉40 多项。', '级旅游景区、全国文明村镇、中国传统村落、湖南省五星级休闲农业庄园、湖南省农业旅游示范点等荣誉']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>185</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>习近平赴青海考察调研</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202106/1aec47b21d064d3fba95d32bf2260ad5.shtml</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['习近平总书记7日赴青海考察调研。当天下午，他来到位于西宁市的青海圣源地毯集团有限公司，了解企业依托当地原材料资源优势，创新设计理念，提升产品竞争力，带动群众就业增收等情况。随后，习近平来到文汇路街道文亭巷社区，考察社区加强基层党建、完善基层治理、推进民族团结进步等情况。']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>185</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>习近平赴福建考察调研</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2021-03-23</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202103/e7d8c52fabf5414a9870fcf17ee97690.shtml</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['习近平总书记22日赴福建考察调研。当天下午，他先后来到南平市武夷山国家公园智慧管理中心、星村镇燕子窠生态茶园、朱熹园，了解生态文明建设、茶产业发展和传统文化传承等情况。（文字记者：张晓松、朱基钗 摄影记者：鞠鹏、王晔、燕雁）']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>185</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>习近平赴山西考察调研</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2020-05-13</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202005/9fa2180ef9634da2ad337b6c6e038102.shtml</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['习近平总书记11日赴山西考察调研。当天下午，他首先来到大同市云州区有机黄花标准化种植基地、西坪镇坊城新村，了解巩固脱贫攻坚成果工作情况。之后，前往云冈石窟实地了解历史文化遗产保护情况。（文字记者：张晓松、朱基钗 摄影记者：李学仁、谢环驰、刘彬）']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>185</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>云南省文山自治州升创国家高新区考察组赴我市考察交流</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2021-07-15</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/kjj/c100641/202107/6cfc9b16d0524d50bd73118e62bfec72.shtml</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['7月14日上午，由云南省文山壮族苗族自治州科技局、文山市三七产业园组成的升创国家高新区考察组赴我市考察交流国家高新区升创工作。市科技局党组书记、局长李兴华、四级调研员金丹、成果科科长李密军，怀化高新区管委会调研员刘晓军，科技经发局副局长杨利军参加考察交流。', '怀化国家高新区2015年12月2日启动创建，2018年2月28日获国务院批准，创造了“怀化速度”“怀化现象”。考察组一行在李兴华等的陪同下参观了畅乘科技、增达生物、千源铝业、正清集团等高新技术企业及我市国家级科技企业孵化器和规划科技馆，观看了怀化高新区宣传片。', '参观结束后，双方召开座谈会就国家高新区升创工作进行交流。在刘晓军、杨利军介绍怀化高新区升创工作经验的基础上，李兴华对文山州创建国家高新区工作提出了建议。一是建议明确高新区的定位和方向。准确把握国家对科技创新工作的新定位、新要求，认真研究本地的资源禀赋，彰显特色，突出优势，科学谋划，精准施策，真正使国家高新区成为推动经济高质量发展的引擎。二是建议培育高新区的特色和亮点。要有“个性”特点，既要讲好普通话，又要讲好本地话；既要契合升高基本要求，又要挖掘资源特色，打造独具特色的高新园区。三是建议加强组织领导。州委州政府必须高度重视升创工作，高位推动，统筹协调，集中力量办大事。', '文山自治州科技局局长刘云洲同志代表考察组作了发言。他表示，此次在怀化考察，学习高新区升创工作，收获了信心和经验，对文山国家高新区的创建，思路更清晰，方向更明确，返回之后要加强整理和分析，尽快向州委州政府汇报，争取支持，力争早日升创成功。']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>185</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>海外侨商团来怀考察</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2016-06-08</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/swj/c110041/201606/a20f597b98b44b6f82010ae4635e6971.shtml</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['日，由澳门贸易投资促进局前主席、世华控股投资集团国际有限公司董事局主席李炳康带队，近', '名港澳企业家组成的海外侨商团来怀化考察，湖南省侨联副主席、秘书长孙民生、怀化市侨联和市商务和粮食局相关人员陪同考察。陪同侨商团先后考察了中方县工业集中区、怀化经开区和麻阳县工业集中区，分别与中方县、怀化经开区和麻阳县就部分重点项目进行了对接洽谈。侨商们纷纷表示，通过此次考察，了解到所到县市丰富的自然与历史文化资源，感受到当地经济社会发展取得的成就和发展潜力。下一步，将从文化、旅游、教育、农业等多方面加强交流，寻求合作机会，争取来怀化投资兴业、合作共赢。（投资管理和对外经济合作科）']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>185</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>习近平赴广东考察调研</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2020-10-13</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202010/ea880e2d9495442cb8f530ce55a5d134.shtml</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['习近平总书记12日赴广东考察调研。当天下午，他首先考察了潮州市广济桥、广济楼、牌坊街，察看文物修复保护、非遗文化传承、文旅资源开发等情况。随后，习近平前往潮州三环（集团）股份有限公司，了解企业自主创新和生产经营情况。（文字记者：张晓松、朱基钗 摄影记者：鞠鹏、王晔、李响）']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>185</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>习近平在上海考察调研</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2023-11-29</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>https://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202311/t20231129_32452619.html</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['28日至29日，习近平总书记在上海市考察调研。他先后考察上海期货交易所、上海科技创新成果展、闵行区新时代城市建设者管理者之家，了解上海增强国际金融中心竞争力、推进国际科技创新中心建设、保障性租赁住房建设等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、王晔、申宏）']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>185</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>习近平在青海考察调研</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2024-06-19</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>https://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202406/t20240619_33330856.html</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['18日下午，习近平总书记在青海省考察调研。他先后来到西宁市的果洛西宁民族中学和宏觉寺，了解当地深入推进教育工作东西部协作和对口支援、加强铸牢中华民族共同体意识教育和藏传佛教界弘扬爱国爱教优良传统、促进民族团结进步等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、燕雁、岳月伟、翟健岚）']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>185</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>永州市人民政府考察团一行来怀化考察交流品牌建设工作</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2017-09-19</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/nyncj/c108769/201709/d47ab558a6074cbf9f726b2ec16bbc60.shtml</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['月19日上午，永州市人民政府副秘书长齐爱社带领永州市农委、财政、工商等部门人员一行13人，来怀化洪江市就农业品牌建设工作进行考察交流，市农委党组成员、副主任张学龙全程陪同考察。', '考察团一行先后参观了黔阳冰糖橙、黄金贡柚、“丑八怪”等柑橘基地，并就标准化基地建设、品改技术、资金来源等情况等进行了深入调研。', '通过现场参观和交流，考察团成员感受到我市农产品品牌建设的丰硕成果并给予高度评价。考察团表示，将积极学习这些先进经验和好的做法，扎实推进永州农业品牌建设工作，走出一条符合当地品牌建设的实际之路。同时，希望两地以此次考察为契机，加深交流，相互借鉴，积极推动农业品牌建设工作又好又快发展。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>185</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>奋发实干不负厚望学习贯彻习近平总书记考察湖南重要讲话精神省委宣讲团怀化分团走进溆浦新晃</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2020-10-28</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/fgw/c100577/202010/b9083cf9df9d4e1496525ec19c52c94c.shtml</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['奋发实干 不负厚望 学习贯彻习近平总书记考察湖南重要讲话精神省委宣讲团怀化分团走进溆浦、新晃 - 市发展和改革委员会', '奋发实干 不负厚望 学习贯彻习近平总书记考察湖南重要讲话精神省委宣讲团怀化分团走进溆浦、新晃', '10月27日，学习贯彻习近平总书记考察湖南重要讲话精神省委宣讲团怀化分团分别走进溆浦、新晃宣讲。宣讲分团成员刘克立、粟定先分别作宣讲报告。', '宣讲报告会围绕习近平总书记为湖南发展明确的战略定位、战略目标、战略任务，大力发展先进制造业和实体经济，脱贫攻坚和乡村振兴，生态文明建设，调查研究、问计于民，基层建设，红色文化等内容，从各个横切面对总书记重要讲话精神进行全面深入解读，结合各地实际，就如何学习贯彻习近平总书记考察湖南重要讲话精神进行了阐述。报告会引发热烈反响，大家表示，习近平总书记考察湖南重要讲话令人振奋、催人奋进，为以后开展工作提供了行动指南和根本遵循。', '“聆听宣讲后，我倍感振奋，充满力量。我们将坚定如期完成脱贫攻坚目标决心不动摇，继续保持攻坚态势，善始善终，善作善成，坚决攻克贫困最后堡垒。”溆浦县扶贫办党组书记、主任贺德禄说。', '“习近平总书记考察湖南时关于农业农村现代化的讲话精神特别鼓舞人心，进一步指明了下阶段乡村振兴的努力方向。” 溆浦县农业农村局党组书记张斌说，将全力培育龙头企业，让溆浦从农业大县向农业强县转变。', '“要着力机构建设、退役军人培训、就业安置等工作，进一步巩固维护和谐的良好局面，同时要传承红色基因，不忘初心、牢记使命，奋力作为。”新晃退役军人事务局副局长吴丹丽说。', '“要认真学习贯彻习近平总书记考察湖南重要讲话精神，将其作为经济高质量发展、乡村振兴的行动指南，圆满完成‘十三五’任务，结合新晃实际谋划好‘十四五’规划。”新晃发改局党组书记、局长姚沅标说。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>185</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>习近平在清华大学考察</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2021-04-20</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202104/f1437b1dd9bb4997a6de44c4dab8c495.shtml</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['新华社北京4月19日电 在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。习近平代表党中央，向清华大学全体师生员工和海内外校友致以节日的祝贺，向全国广大青年学生致以诚挚的问候。', '习近平强调，百年大计，教育为本。今年是中国共产党成立100周年，我国开启了全面建设社会主义现代化国家新征程。党和国家事业发展对高等教育的需要，对科学知识和优秀人才的需要，比以往任何时候都更为迫切。我们要建设的世界一流大学是中国特色社会主义的一流大学，我国社会主义教育就是要培养德智体美劳全面发展的社会主义建设者和接班人。我国高等教育要立足中华民族伟大复兴战略全局和世界百年未有之大变局，心怀“国之大者”，把握大势，敢于担当，善于作为，为服务国家富强、民族复兴、人民幸福贡献力量。广大青年要肩负历史使命，坚定前进信心，立大志、明大德、成大才、担大任，努力成为堪当民族复兴重任的时代新人，让青春在为祖国、为民族、为人民、为人类的不懈奋斗中绽放绚丽之花。', '4月19日，在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。这是习近平在清华大学美术学院参观美术学院校庆特别展。新华社记者 丁林 摄', '上午9时30分许，习近平在中共中央政治局常委、中央书记处书记王沪宁，清华大学党委书记陈旭、校长邱勇陪同下，首先来到美术学院，参观美术学院校庆特别展。美术展馆内，一块块展板图文并茂，一件件展品各具特色。习近平详细了解重大主题和国家形象设计作品创作、展示等情况介绍，仔细观看展品。习近平指出，美术、艺术、科学、技术相辅相成、相互促进、相得益彰。要发挥美术在服务经济社会发展中的重要作用，把更多美术元素、艺术元素应用到城乡规划建设中，增强城乡审美韵味、文化品位，把美术成果更好服务于人民群众的高品质生活需求。要增强文化自信，以美为媒，加强国际文化交流。', '4月19日，在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。这是习近平在清华大学成像与智能技术实验室，结合展板、电子屏幕察看实验室开展计算光学、脑科学与人工智能交叉科学实验研究和开发新科技应用场景情况，听取实验室理论研究、技术攻关、成果转化应用等情况介绍。新华社记者 鞠鹏 摄', '清华大学成像与智能技术实验室成立于2001年，主要开展计算摄像、脑科学与人工智能国际前沿交叉科学等基础理论与关键技术的研究。习近平来到这里，结合展板、电子屏幕察看实验室开展计算光学、脑科学与人工智能交叉科学实验研究和开发新科技应用场景情况，听取实验室理论研究、技术攻关、成果转化应用等情况介绍。习近平指出，中国教育是能够培养出大师来的。我们要有这个自信，开拓视野、兼收并蓄，扎扎实实把中国教育办好。重大原始创新成果往往萌发于深厚的基础研究，产生于学科交叉领域，大学在这两方面具有天然优势。要保持对基础研究的持续投入，鼓励自由探索，敢于质疑现有理论，勇于开拓新的方向。', '4月19日，在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。这是习近平在清华大学成像与智能技术实验室同师生们亲切交谈。新华社记者 黄敬文 摄', '清华大学主楼二层，展示了学校近年来重点教学科研成果。习近平听取了关于增强自主创新能力、助力世界主要科学中心和创新高地建设、提高人文社会学科教育研究水平等情况介绍，对清华大学取得的成绩给予充分肯定。习近平指出，要坚持中国特色社会主义教育发展道路，充分发挥科研优势，增强学科设置的针对性，加强基础研究，加大自主创新力度，并从我国改革发展实践中提出新观点、构建新理论，努力构建中国特色、中国风格、中国气派的学科体系、学术体系、话语体系。', '4月19日，在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。这是习近平在清华大学主楼二层听取关于增强自主创新能力、助力世界主要科学中心和创新高地建设、提高人文社会学科教育研究水平等情况介绍。新华社记者 黄敬文 摄', '在主楼二层大厅，习近平看望部分老教授、中青年骨干教师代表并同他们亲切交谈。习近平感谢在教学科研岗位上默默耕耘、辛勤奉献、作出突出贡献的老师们，向老教授们表示敬意，勉励中青年教师继续在教书育人和科研创新上不断有新进步。他强调，清华大学秉持自强不息、厚德载物的校训，深化改革、加快创新，各项事业欣欣向荣，科研创新成果与国家发展需要丝丝相扣，展现了清华人的勇毅和担当。面向未来，清华大学要坚持把立德树人作为根本任务，把服务国家作为最高追求，把学科建设作为发展根基，把深化改革作为强大动力，把加强党的建设作为坚强保证，不忘初心、牢记使命，为党育人、为国育才，为实现第二个百年奋斗目标、实现中华民族伟大复兴的中国梦、推动人类文明进步作出新的更大的贡献。', '4月19日，在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。这是习近平在清华大学主楼二层大厅看望部分老教授、中青年骨干教师代表并同他们亲切交谈。新华社记者 鞠鹏 摄', '位于校园西北部的西体育馆，是清华早期四大建筑之一。在馆内篮球场，校篮球运动员正在进行训练。习近平走进体育馆，同他们亲切交谈，并在体育荣誉室察看历史照片、实物展览，了解体育馆保护利用、学校继承发扬优良传统、开展体育教育等情况。习近平表示，重视体育是清华大学的光荣传统，希望同学们发扬好清华大学的优良学风和体育传统，坚持德智体美劳全面发展，努力成为祖国建设的栋梁之才。', '4月19日，在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。这是习近平在清华大学西体育馆篮球场同校篮球运动员亲切交谈。新华社记者 鞠鹏 摄', '4月19日，在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。这是习近平在清华大学西体育馆体育荣誉室察看历史照片、实物展览，了解体育馆保护利用、学校继承发扬优良传统、开展体育教育等情况。新华社记者 鞠鹏 摄', '11时20分许，习近平来到清华大学西体育馆后馆，出席师生代表座谈会。清华大学党委书记陈旭、校长邱勇、土木系教师聂建国、公管学院教师梅赐琪、工物系应届博士毕业生孙启明、人文学院二年级本科生李润凤分别发言。习近平认真听取他们的发言，现场气氛轻松、热烈。', '最后，习近平发表了重要讲话。他指出，清华大学诞生于国家和民族危难之际，成长于国家和民族奋进之中，发展于国家和民族振兴之时。110年来，清华大学深深扎根中国大地，培育了爱国奉献、追求卓越的光荣传统，形成了又红又专、全面发展的教书育人特色，为国家、为民族、为人民培养了大批可堪大任的杰出英才。这是一代代清华人拼搏奋斗、勇攀高峰、争创一流的结果。', '4月19日，在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。这是习近平出席师生代表座谈会并发表重要讲话。新华社记者 鞠鹏 摄', '习近平强调，清华大学的发展历程，是我国高等教育发展的一个生动缩影。新中国成立以来，我国高等教育走过了从小到大、从弱到强的极不平凡历程，办学规模、培养质量、服务能力实现历史性跃升。特别是党的十八大以来，我国高等教育与祖国共进、与时代同行，创造了举世瞩目的发展成就。', '习近平指出，一个国家的高等教育体系需要有一流大学群体的有力支撑，一流大学群体的水平和质量决定了高等教育体系的水平和质量。一流大学建设要坚持党的领导，坚持马克思主义指导地位，全面贯彻党的教育方针，坚持社会主义办学方向，抓住历史机遇，紧扣时代脉搏，立足新发展阶段、贯彻新发展理念、服务构建新发展格局，把发展科技第一生产力、培养人才第一资源、增强创新第一动力更好结合起来，更好为改革开放和社会主义现代化建设服务。', '习近平强调，追求一流是一个永无止境、不断超越的过程，要明确方向、突出重点。要培养一流人才方阵。建设一流大学，关键是要不断提高人才培养质量。要想国家之所想、急国家之所急、应国家之所需，抓住全面提高人才培养能力这个重点，坚持把立德树人作为根本任务，着力培养担当民族复兴大任的时代新人。要构建一流大学体系。高等教育体系是一个有机整体，其内部各部分具有内在的相互依存关系。要用好学科交叉融合的“催化剂”，加强基础学科培养能力，打破学科专业壁垒，对现有学科专业体系进行调整升级，瞄准科技前沿和关键领域，推进新工科、新医科、新农科、新文科建设，加快培养紧缺人才。要提升原始创新能力。一流大学是基础研究的主力军和重大科技突破的策源地，要完善以健康学术生态为基础、以有效学术治理为保障、以产生一流学术成果和培养一流人才为目标的大学创新体系，勇于攻克“卡脖子”的关键核心技术，加强产学研深度融合，促进科技成果转化。要坚持开放合作。加强国际交流合作，主动搭建中外教育文化友好交往的合作平台，共同应对全球性挑战，促进人类共同福祉。', '习近平指出，当代中国青年是与新时代同向同行、共同前进的一代，生逢盛世，肩负重任。广大青年要爱国爱民，从党史学习中激发信仰、获得启发、汲取力量，不断坚定“四个自信”，不断增强做中国人的志气、骨气、底气，树立为祖国为人民永久奋斗、赤诚奉献的坚定理想。要锤炼品德，自觉树立和践行社会主义核心价值观，自觉用中华优秀传统文化、革命文化、社会主义先进文化培根铸魂、启智润心，加强道德修养，明辨是非曲直，增强自我定力，矢志追求更有高度、更有境界、更有品位的人生。要勇于创新，深刻理解把握时代潮流和国家需要，敢为人先、敢于突破，以聪明才智贡献国家，以开拓进取服务社会。要实学实干，脚踏实地、埋头苦干，孜孜不倦、如饥似渴，在攀登知识高峰中追求卓越，在肩负时代重任时行胜于言，在真刀真枪的实干中成就一番事业。', '习近平强调，教师是教育工作的中坚力量，没有高水平的师资队伍，就很难培养出高水平的创新人才，也很难产生高水平的创新成果。大学教师对学生承担着传授知识、培养能力、塑造正确人生观的职责。教师要成为大先生，做学生为学、为事、为人的示范，促进学生成长为全面发展的人。要研究真问题，着眼世界学术前沿和国家重大需求，致力于解决实际问题，善于学习新知识、新技术、新理论。要坚定信念，始终同党和人民站在一起，自觉做中国特色社会主义的坚定信仰者和忠实实践者。', '4月19日，在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。这是习近平离开学校时，同师生们挥手致意。新华社记者 鞠鹏 摄', '习近平离开学校时，操场上、道路旁站满了师生，大家纷纷向总书记问好，齐声高喊“总书记好”、“学长好”，高呼“祖国万岁”、“清华加油”，习近平满怀深情地同大家挥手致意，掌声、问候声在校园里久久回荡。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>185</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>奋发实干不负厚望学习贯彻习近平总书记考察湖南重要讲话精神省委宣讲团怀化分团走进溆浦新晃</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2020-10-29</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/gzw/c108772/202010/cb0237a9c380444ba07dba8f7a575fdf.shtml</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['奋发实干 不负厚望 学习贯彻习近平总书记考察湖南重要讲话精神省委宣讲团怀化分团走进溆浦、新晃 - 市人民政府国有资产监督管理委员会', '奋发实干 不负厚望 学习贯彻习近平总书记考察湖南重要讲话精神省委宣讲团怀化分团走进溆浦、新晃', '10月27日，学习贯彻习近平总书记考察湖南重要讲话精神省委宣讲团怀化分团分别走进溆浦、新晃宣讲。宣讲分团成员刘克立、粟定先分别作宣讲报告。', '宣讲报告会围绕习近平总书记为湖南发展明确的战略定位、战略目标、战略任务，大力发展先进制造业和实体经济，脱贫攻坚和乡村振兴，生态文明建设，调查研究、问计于民，基层建设，红色文化等内容，从各个横切面对总书记重要讲话精神进行全面深入解读，结合各地实际，就如何学习贯彻习近平总书记考察湖南重要讲话精神进行了阐述。报告会引发热烈反响，大家表示，习近平总书记考察湖南重要讲话令人振奋、催人奋进，为以后开展工作提供了行动指南和根本遵循。', '“聆听宣讲后，我倍感振奋，充满力量。我们将坚定如期完成脱贫攻坚目标决心不动摇，继续保持攻坚态势，善始善终，善作善成，坚决攻克贫困最后堡垒。”溆浦县扶贫办党组书记、主任贺德禄说。', '“习近平总书记考察湖南时关于农业农村现代化的讲话精神特别鼓舞人心，进一步指明了下阶段乡村振兴的努力方向。” 溆浦县农业农村局党组书记张斌说，将全力培育龙头企业，让溆浦从农业大县向农业强县转变。', '“要着力机构建设、退役军人培训、就业安置等工作，进一步巩固维护和谐的良好局面，同时要传承红色基因，不忘初心、牢记使命，奋力作为。”新晃退役军人事务局副局长吴丹丽说。', '“要认真学习贯彻习近平总书记考察湖南重要讲话精神，将其作为经济高质量发展、乡村振兴的行动指南，圆满完成‘十三五’任务，结合新晃实际谋划好‘十四五’规划。”新晃发改局党组书记、局长姚沅标说。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>185</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>鹤城区委区政府考察团赴贵州铜仁万山考察九丰农业博览园</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2017-01-19</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/nyncj/c108770/201701/db9e4372889b4bcea20157a697961031.shtml</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['1月17日，由鹤城区委书记熊安台，区委副书记、区长向秀亮率领的区委、区政府考察团一行，赴贵州铜仁万山实地考察九丰农业博览园综合体建设项目。', '在万山区委、区政府及九丰农业博览园负责人的陪同下，鹤城区委、区政府考察团一行先后参观了智能观光大棚、采摘大棚、生态小木屋，详细了解企业生产规划、经营销售、带动就业等情况。', '据了解，铜仁万山九丰山地高效农业综合体位于万山区高楼坪乡大树林村。项目总投资5亿元，按照“园区景区化、农旅一体化”思路，通过引进国内外的高新技术、最新品种和现代化设施设备，计划用1至2年时间，形成集设施蔬菜种植、农产品精深加工、新品种试验示范、集约化育苗、技术研发与示范推广等为一体的生态农业循环经济产业链，建成西南片区最大蔬菜集散中心和国内一流的高端山地特色生态农业示范综合体。', '参观考察学习后，熊安台指出，这次把大家请出来主要是让大家看一看，学一学外地的经验，也是长见识、开阔视野，同时也更换一下思想观念。九丰农业是一种观光、休闲的高效农业，农旅一体化发展规模大、起点高、进展快、效果好，得到了中央、省市的高度肯定。目前，我们鹤城还没有一家像这样观光、休闲的高效农业，大家必须认真的思考和谋划，作为怀化唯一主体城区，我们有得天独厚的交通区位优势，回去后，我们要全力以赴把怀化主体城区的后勤保障基地打造好，想方设法把休闲、观光农业发展起来，带动更多的贫困户脱贫致富。']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>185</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>远大住工集团来溆浦考察</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2015-07-06</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/swj/c110038/201507/a814ef693d0a4b4a88213c478140cdf6.shtml</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['办公室 7月3日，雨后的穿岩山，云雾缥缈 ，满目青翠，富氧沁人肺腑。穿岩山森林公园迎来了世界第一高楼计划建造者、远大住工集团董事长张剑和长沙先导投资控股有限公司董事长刘继雄两位商界大佬，受到了雪峰山旅游公司实控人陈黎明的热情接待。县委副书记翟波、县人大常委会副主任邓刚、副县长刘春让一同参加。 张剑、刘继雄参观了穿岩山公园奇丽的风光，在美式别墅里观看了由雪峰山旅游公司自己拍摄的《秘美千年的花瑶梯田》、《雪峰上之魂——穿岩山》和《古宅疑云》等景区宣传片，了解了雪峰山地区旅游开发规划。两位董事长听完后，认为雪峰山地区风景奇美、文化深厚、生态极佳，极具开发价值。 张剑感慨地说，雪峰山是湖南的生态之山，美丽的原生态自然风光不仅是人们旅游观光目的地，更是健康养老、休闲度假的首选之所，商机无限。远大住工集团愿意将工业化别墅建设模式引入景区度假别墅建造，帮助雪峰山旅游公司把雪峰山地区打造成生态休闲度假胜地。刘继雄更是快人快语：今天来到雪峰山腹地穿岩山，这是我看到的最安静、最绿色、最干净的一块宝地，长沙先导投资控股将利用自身的优势，与陈总开展合作，共同打造好雪峰山旅游。 当天下午，与会人员还围绕如何合作开发雪峰山旅游进行了详细地商谈，并达成了共识。', '7月3日，雨后的穿岩山，云雾缥缈 ，满目青翠，富氧沁人肺腑。穿岩山森林公园迎来了世界第一高楼计划建造者、远大住工集团董事长张剑和长沙先导投资控股有限公司董事长刘继雄两位商界大佬，受到了雪峰山旅游公司实控人陈黎明的热情接待。县委副书记翟波、县人大常委会副主任邓刚、副县长刘春让一同参加。', '张剑、刘继雄参观了穿岩山公园奇丽的风光，在美式别墅里观看了由雪峰山旅游公司自己拍摄的《秘美千年的花瑶梯田》、《雪峰上之魂——穿岩山》和《古宅疑云》等景区宣传片，了解了雪峰山地区旅游开发规划。两位董事长听完后，认为雪峰山地区风景奇美、文化深厚、生态极佳，极具开发价值。', '张剑感慨地说，雪峰山是湖南的生态之山，美丽的原生态自然风光不仅是人们旅游观光目的地，更是健康养老、休闲度假的首选之所，商机无限。远大住工集团愿意将工业化别墅建设模式引入景区度假别墅建造，帮助雪峰山旅游公司把雪峰山地区打造成生态休闲度假胜地。刘继雄更是快人快语：今天来到雪峰山腹地穿岩山，这是我看到的最安静、最绿色、最干净的一块宝地，长沙先导投资控股将利用自身的优势，与陈总开展合作，共同打造好雪峰山旅游。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>185</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>怀化市审计局召开全市审计机关视频会议传达学习习近平总书记在湖南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2020-10-10</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/sjj/c100641/202010/df0fc861511a47afb43d1d3da8f485d1.shtml</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['怀化市审计局召开全市审计机关视频会议传达学习习近平总书记在湖南考察时的重要讲话精神 - 市审计局', '怀化市审计局召开全市审计机关视频会议传达学习习近平总书记在湖南考察时的重要讲话精神', '10月9日上午9点，怀化市审计局召开全市审计机关干部职工大会，会议由市审计局党组副书记、副局长刘圣平主持，市审计局全体干部职工参会,同时邀请市纪委监委驻市财政局纪检组副组长刘闫参会，13个县市区审计局远程直播参会。', '会上，怀化市审计局党组书记、局长骆磊带头领学了习近平总书记在湖南考察时的重要讲话精神，并强调一是要坚定政治方向，坚决做到两个维护；二是要坚定不移按照习近平总书记指引的方向前进；三是要坚守岗位，民生为上，民生为本；四是要坚持定力，提升审计本领；全市审计机关对讲话精神要深入学习领会，自觉增强“四个意识”，坚定“四个自信”，做到“两个维护”，把习近平总书记的亲切关怀，殷切嘱托和重要指示要求转化为牢记初心使命、对党绝对忠诚的政治信仰。']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>185</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>习近平在陕西榆林考察调研</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2021-09-15</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202109/fd3ae6ec729845a5a8b66549ad4d8019.shtml</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['13日，习近平总书记在陕西省榆林市考察调研。他先后考察了国家能源集团榆林化工有限公司、米脂县银州街道高西沟村、杨家沟革命旧址，了解循环经济煤炭综合利用、推进水土流失治理和生态文明建设、加强革命旧址保护与利用、赓续红色血脉等情况。（文字记者：张晓松、朱基钗 摄影记者：李学仁、谢环驰、燕雁）']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>185</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>雷绍业赴长沙经开区招商考察</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2019-05-06</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101113/201905/ea5418ecaa9e43e497f1763e594cc494.shtml</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['5月5日，市委副书记、市长雷绍业带队赴长沙经开区招商考察。长沙市委副书记朱健陪同考察。', '雷绍业一行首先来到位于长沙经开区的招商局物流集团湖南有限公司，详细了解企业发展和经营情况，并对该企业物流标准化建设、延长产业链等做法点赞。他要求怀化各相关部门要学习其好经验、好做法，加快怀化物流产业发展。', '在随后召开的座谈会上，长沙经开区负责人介绍了长沙经开区物流产业发展情况。近年来，长沙经开区立足满足园区发展需求，先后引进招商局物流、安吉物流、广汽日邮、顺捷物流等一批物流企业。截至目前，在园区注册或经营的物流企业共229家，总占地面积约1048亩。', '雷绍业说，长沙经开区是湖南省经开区发展的“领头羊”，怀化要学习其先进的经验和做法，补齐短板，加快发展。雷绍业表示，怀化发展现代商贸物流有着很好的基础和优势，我们成功纳入国家承接产业转移示范区、商贸服务型国家物流枢纽承载城市，开通怀化至明斯克中欧班列、被国家定位为全国性综合交通枢纽城市。目前，怀化正致力发展生态文化旅游、医养健康（中药材）、电子信息、现代商贸物流、农产品加工五大特色支柱产业，推动怀化高质量发展。希望招商局物流项目能尽快在怀化落地，与怀化现有的传化物流、佳惠物流共同发展，形成物流业区域洼地和集群。', '朱健指出，近年来，怀化认真贯彻落实省委“创新引领、开放崛起”战略，经济质量稳步提升，营商环境不断优化。目前，怀化发展进入重要历史机遇期，相信怀化的未来一定会越来越好。长沙市委市政府将竭诚为怀化提供帮助和服务，助推怀化现代商贸物流业发展。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>185</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>沪商入湘投资联盟来怀考察</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2017-08-30</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/mzswj/c108772/201708/3269be427fbf4d068282d921d803bb2c.shtml</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['8月29日，由“沪商入湘投资联盟”理事长、上海中军投资集团董事长王中政率领的“沪商入湘投资联盟”9家企业主要负责人一行来怀考察。怀化市委副书记、市长赵应云与王中政一行座谈。副市长姚述铭，市政府秘书长杨宏高参加。', '此次“沪商入湘投资联盟”企业家一行来怀考察，主要是对接今年6月市政府在沪招商的项目落实情况，此次来怀考察的9家沪商将与我市具体对接13个项目的合作事宜。', '赵应云感谢“沪商入湘投资联盟”企业家青睐怀化、投资怀化。他说，“沪商入湘投资联盟”感情上真诚、作风上务实、对接上紧密，对怀化发展愿景积极回应，高效对接，我们深受感动。当前，怀化正处于转型升级、加快发展的关键时期，投资潜力巨大。作为湖南新增长极，怀化独具的区位、交通、生态、文化优势，将之放大就是产业优势、投资优势，希望“沪商入湘投资联盟”相关企业与项目所在地充分信任、深入交流，争取早日落地，实现互利共赢。', '王中政在介绍“沪商入湘投资联盟”投资情况时说，沪商入湘投资联盟自2015年2月发起组建以来，吸引了一批有实力的在沪世界500强和中国500强优质企业加入，2016年在湖南8个市州投资达680亿元，已落地240亿元。今年联盟成员单位规划在湖南省投资500亿元。此次来怀考察，着重选择了13个优质项目进行合作，希望通过与怀化的进一步合作，逐渐建立双方合作平台、合作交流机制。争取这一批项目能够顺利落地，将沪商入湘的“怀化模式”打响。', '座谈会后，“沪商入湘投资联盟”企业家还分别与相关县市区就生态文化旅游、商贸物流、医养健康、基础设施建设等项目进行深度对接。']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>185</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>怀化市委常委会召开会议传达学习全国脱贫攻坚总结表彰大会党史学习教育动员大会习近平总书记在贵州考察时的重要讲话等精神彭国甫主持</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2021-02-27</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101112/202102/602ee4db69134345bca212bcd7816ecd.shtml</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['怀化市委常委会召开会议 传达学习全国脱贫攻坚总结表彰大会、党史学习教育动员大会、习近平总书记在贵州考察时的重要讲话等精神 彭国甫主持 - 怀化市人民政府', '怀化市委常委会召开会议 传达学习全国脱贫攻坚总结表彰大会、党史学习教育动员大会、习近平总书记在贵州考察时的重要讲话等精神 彭国甫主持', '传达学习全国脱贫攻坚总结表彰大会、党史学习教育动员大会、习近平总书记在贵州考察时的重要讲话等精神', '2月26日上午，市委常委会召开会议，传达学习全国脱贫攻坚总结表彰大会、中央党史学习教育动员大会、习近平总书记在贵州考察时的重要讲话等精神，传达学习《中共中央 国务院关于全面推进乡村振兴加快农业农村现代化的意见》《关于加快推进乡村人才振兴的意见》等，研究我市贯彻落实意见。市委书记彭国甫主持。', '会议指出，脱贫攻坚战取得全面胜利是中国共产党领导团结带领全国各族人民，创造的又一个彪炳史册的人间奇迹，这是中国人民的伟大光荣，是中国共产党的伟大光荣，是中华民族的伟大光荣。从脱贫攻坚中，我们深刻感受到“习近平总书记的伟大、中国人民的伟大、中国共产党的伟大、中华民族的伟大、中国特色社会主义制度的伟大、时代的伟大”，全市上下要大力弘扬脱贫攻坚伟大精神，重整行装再出发，雄赳赳气昂昂，全力推进乡村振兴，大力实施“三高四新”战略、高歌猛进推进现代化新怀化建设。', '会议强调，要按照党中央部署，将党史学习教育作为当前一项重大政治任务精心组织好、精细落实好。各级领导干部要带头开展好学习教育，进一步通过学习做到学史明理、学史增信、学史崇德、学史力行，教育引导怀化广大党员干部学党史、悟思想、办实事、开新局。', '会议强调，要深刻学习领悟习近平总书记在贵州考察重要讲话精神的深邃思想、丰富内涵，始终坚持完整准确全面贯彻新发展理念，着力构建新发展格局，切实抓好巩固拓展脱贫攻坚成果同乡村振兴有效衔接，不断做好“绿水青山就是金山银山”这篇大文章，坚持以人民为中心的发展思想，着力推进共同富裕。', '会议强调，要深刻认识做好新发展阶段“三农”工作的极端重要性和紧迫性。着力解决好发展不平衡不充分的问题，补齐农业农村短板弱项，推动城乡协调发展；着力扩大农村需求，畅通城乡经济循环；着力稳住农业基本盘，守好“三农”基础，防范化解各类风险。要扎实做好巩固拓展脱贫攻坚成果同乡村振兴有效衔接重点工作。要用务实管用举措加快推进农业农村现代化，提升粮食和重要农产品供给保障能力，打好种业翻身仗、抓好种业安全，采取“长牙齿”的举措坚决守住耕地红线。要培养造就一支懂农业、爱农村、爱农民的“三农”工作队伍，加强和改善党对“三农”工作、乡村人才振兴的全面领导。', '会议要求，要总结好、提炼好、宣传好“溆浦经验”，完善信访制度和各类调解联动工作体系，畅通和规范群众诉求表达、利益协调、权益保障通道，切实解决群众“急难愁盼”问题，将矛盾问题化解在基层。', '会议还传达学习了中办、国办《关于常态化开展扫黑除恶斗争 巩固专项斗争成果的意见》和全省市厅级主要领导干部学习贯彻党的十九届五中全会精神研讨班精神。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>185</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>省安居投负责人来麻考察</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2015-05-15</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101116/201505/de48d7b172d2406cad66fa2a6a4ba886.shtml</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['5月12日，省保障性安居工程投资有限公司总经理陈耀年,湖南瑞地投资置业有限责任公司董事长杨炳坤来到麻阳，考察我县优势产业发展及城市建设情况，寻找投资麻阳发展机会。该县委书记李卫林，县委副书记、县长李仕忠，县委常委、县委办主任郑阳松，县委常委、副县长易勇参加考察。', '当天上午，省保障性安居工程投资有限公司总经理陈耀年在县行政中心7楼县委会议室召开座谈会，听取麻阳县经济发展和城市建设情况汇报。', '当天下午，陈耀年一行首先来到该县工业集中区长寿产业园，考察该园园区建设、企业入驻、生产经营情况。随后，陈耀年一行还来到代远大道、锦江大道和锦江大桥，对我县城市建设、道路交通建设、防洪堤建设等工作进行实地考察。', '近年来,麻阳县按照“开发城东、拓展城西、提升城南、改造城北”的城建工作思路，全力推进住房和城乡建设工作，县城面貌得到不断改善，城镇化水平得到不断提升。截至2014年底，该县城镇化率达41.32%，县城建成区面积达9.1平方公里,城市路网形成了“四纵九横”道路骨架，“两岸三镇”模式基本成型。2015年，我县将拉通9条市政道路，启动尧里一桥、二桥和御龙湾大桥、漫水三桥建设；实施自来水管网扩面、县城天然气管道扩面、城西工业园区外污水管网建设；实施自来水厂3万吨供水扩能改造和污水处理厂2万吨扩能改造；启动兰丝垅垃圾焚烧、填埋专项治理；完成1080套棚户区建设和616套公租房建设；完成7项房地产开发建设。', '通过听取汇报和实地调研，陈耀年充分肯定了我县的经济发展和城市建设工作，他希望我县紧跟国家、省、市制定的大方向、大政策，继续解放思想，引入资金促使地方经济良性循环发展；选好项目，大力对外招商引资；在经济社会发展和城市建设上做好苗族文化和长寿之乡两个文章。', '麻阳县委书记李卫林代表县委县政府对陈耀年总经理一行的到来表示感谢，表示麻阳全县上下会坚定信念，解放思想，打开思路，找准方法，说干就干，积极对接上级项目，努力工作，推进麻阳的建设与发展。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>185</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>习近平在西藏拉萨考察调研</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2021-07-24</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202107/82eb1cb7be3b46e2b8517c6c102f3e94.shtml</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['22日下午，习近平总书记先后来到位于拉萨市的哲蚌寺、八廓街、布达拉宫广场，考察民族宗教、古城保护、藏文化传承保护等工作，并同群众亲切交流。（文字记者张晓松、朱基钗；摄影记者李学仁、谢环驰、申宏、燕雁）']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>185</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>习近平在北京育英学校考察</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>http://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202306/t20230601_29363692.html</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在科学教室同小学生们亲切交流。新华社记者 王晔 摄', '新华社北京5月31日电 在“六一”国际儿童节到来之际，中共中央总书记、国家主席、中央军委主席习近平5月31日上午来到北京育英学校，看望慰问师生，向全国广大少年儿童祝贺节日。习近平强调，少年儿童是祖国的未来，是中华民族的希望。新时代中国儿童应该是有志向、有梦想，爱学习、爱劳动，懂感恩、懂友善，敢创新、敢奋斗，德智体美劳全面发展的好儿童。希望同学们立志为强国建设、民族复兴而读书，不负家长期望，不负党和人民期待。', '中共中央政治局常委、中央办公厅主任蔡奇，中共中央政治局常委、国务院副总理丁薛祥陪同考察。', '北京育英学校1948年创办于河北西柏坡，前身为“中共中央直属机关供给部育英小学校”。75年来，学校在老一辈革命家关心关怀下，全面贯彻党的教育方针，落实立德树人根本任务，推行学制创新，开展特色办学，引领学生德智体美劳全面发展。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在校史馆考察。新华社记者 鞠鹏 摄', '习近平来到学校，首先走进校史馆，了解学校历史沿革、建设发展和近年来推动教育教学改革创新、落实“双减”政策要求、促进学生德智体美劳全面发展等情况。习近平指出，教育的根本任务是立德树人，培养德智体美劳全面发展的社会主义建设者和接班人。学生的理想信念、道德品质、知识智力、身体和心理素质等各方面的培养缺一不可。“双减”政策落地有一个过程，要久久为功。要引导家长、学校、社会等各方面提高认识，推动落实好“双减”工作要求，促进学生全面发展。育英学校具有光荣的革命传统和鲜明的红色基因。要加强革命传统教育，让每一位育英学校的学生牢记学校的光荣历史，铭记党的关怀，赓续红色传统，传承红色基因，从小听党话、跟党走，立志为党成才、为国奉献。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在篮球场同正在上体育课的小学生们亲切交流。新华社记者 申宏 摄', '习近平步行察看校园环境。篮球场上学生们正在打篮球、跳绳，上体育课。习近平指出，提高人的健康素质，青少年是黄金期。这个阶段，长身体是第一位的，身体好了，才能为今后一生的学习工作打好基础。体育锻炼是增强少年儿童体质最有效的手段。现在生活条件好了，孩子们不是要吃得胖胖的，而是要长得壮壮的、练得棒棒的。体育锻炼要从小抓起，体育锻炼多一些，“小胖墩”、“小眼镜”就少一些。学校要把体育老师配齐配好，家庭、学校、社会等各方面都要为少年儿童增强体魄创造条件。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在篮球场向正在上体育课的小学生们挥手致意。新华社记者 鞠鹏 摄', '随后，习近平来到学生农场。这里是学生开展农业种植活动的实践场所，阳光下、田垄上，一排排绿油油的菜苗生机勃勃。孩子们拿着水桶、铲子、耙子、毛笔，为西红柿、黄瓜等浇水、松土、除草、授粉。习近平强调，很多知识和道理都来自劳动、来自生活。引导孩子们从小树立劳动观念，培养劳动习惯，提高劳动能力，有利于他们更好地学习知识。现在一些城里的孩子接触农村、接触大自然少，不光“四体不勤”，而且“五谷不分”，对吃的是什么、从哪里来的、怎么来的都不知道，更体会不到“谁知盘中餐，粒粒皆辛苦”。他对同学们说，认识大自然，首先要从认识身边的植物开始。同学们栽培的各种植物，虽然书本上都有介绍，但大家亲手种、亲自培育、跟踪观察，收获肯定是不一样的。希望同学们从“学农”中感受到农作的艰辛和农民的不易，从小养成热爱劳动、珍爱粮食、尊重自然的良好习惯，为建设美丽中国作贡献。新时代生态文明建设要从娃娃抓起，通过生动活泼的劳动体验课程，让孩子亲自动手、亲身体验、自我感悟，让“绿水青山就是金山银山”的理念早早植入孩子的心灵。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在学生农场同正在进行农业种植实践的小学生们亲切交流。新华社记者 鞠鹏 摄', '学校思聪楼二层科学教室不时传出欢声笑语，习近平走进教室，师生们告诉总书记，他们正在运用所学的直线运动、曲线运动、斜面运动等知识，用积木动手设计搭建过山车模型进行验证。习近平指出，科学实验课，是培养孩子们科学思维、探索未知兴趣和创新意识的有效方式。希望同学们从小树立“科技创新、强国有我”的志向，当下勇当小科学家，未来争当大科学家，为实现我国高水平科技自立自强作贡献。', '习近平随后来到五年级教师办公室，看望正在研讨备课的老师们，询问课后服务课程结构设置等情况。习近平指出，中国特色社会主义教育体系是好的，我国的基础教育在世界上是有优势的，要坚定文化自信，把自己好的东西坚持好，把国外好的东西借鉴好，与时俱进、开放发展，让孩子们有更广阔的眼界、更开阔的思路、更开放的观念，努力培养堪当民族复兴重任、勇于创造世界奇迹的国之栋梁。习近平强调，人才培养，关键在教师。广大教师要牢记为党育人、为国育才的初心使命，以人民教育家为榜样，以德立身、以德立学、以德施教。要在全社会营造尊师重教的良好风尚，让教师成为最受社会尊重和令人羡慕的职业，努力形成优秀人才争相从教、优秀教师不断涌现的良好局面。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在教师办公室同教师们亲切交流。新华社记者 申宏 摄', '在学校小广场上，师生们热情欢送总书记。习近平祝愿孩子们茁壮成长、健康成才，并向全国广大少年儿童祝贺“六一”国际儿童节快乐。他说，今天我专程来北京育英学校看望大家，和小朋友们共庆“六一”儿童节。看到同学们天真活泼、朝气蓬勃，脸上洋溢着幸福的笑容，感到非常高兴。党中央始终关心关怀少年儿童的健康成长，采取了一系列政策举措，努力为孩子们健康成长创造更好环境。我相信，有中国共产党的领导和社会主义制度的显著优势，生活在中华民族大家庭里的各族儿童一定会越来越幸福，一定会拥有更加美好的未来。各级党委和政府、社会各方面要切实做好与儿童事业发展有关的各项工作，关心帮助困难家庭的孩子特别是孤儿和残疾儿童，让所有孩子都能感受到党和政府的温暖，都能有一个幸福美好的童年。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在学校小广场同师生们亲切交流。新华社记者 鞠鹏 摄', '习近平对同学们说，今天的少年儿童是强国建设、民族复兴伟业的接班人和未来主力军。为在本世纪中叶把我国全面建成社会主义现代化强国，现在是我们这一代人在努力奋斗，未来要靠你们去接续奋斗。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>185</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>习近平在西藏林芝考察调研</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2021-07-24</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202107/2ed2ad81d12f42e8b629afe1817a6083.shtml</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['习近平总书记21日赴西藏考察调研。当天上午，习近平乘坐飞机抵达林芝米林机场，受到西藏各族干部群众热烈欢迎。随后，他乘车来到尼洋河大桥，了解雅鲁藏布江及尼洋河流域生态环境保护等情况。当天下午，习近平先后来到林芝市城市规划馆、巴宜区林芝镇嘎拉村、工布公园，考察城市发展规划、乡村振兴、城市公园建设等工作。22日上午，习近平来到林芝火车站，了解川藏铁路总体规划及拉萨至林芝段建设运营等情况，随后乘火车前往拉萨市，实地察看拉林铁路沿线建设情况，深入研究有关问题。（文字记者张晓松、朱基钗；摄影记者李学仁、谢环驰、申宏、燕雁）']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>185</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>习近平在沧州市考察调研</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>https://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202305/t20230511_29335543.html</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['11日，习近平总书记在河北省沧州市，先后考察了黄骅市旧城镇仙庄片区旱碱地麦田、黄骅港煤炭港区，了解当地旱碱麦种植推广及产业化、港区生产经营及发展规划等情况。（文字记者：张晓松、林晖；摄影记者：李学仁、燕雁、申宏、殷博古）']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>185</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>东盟湖南商会来怀化考察</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2021-12-04</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101113/202112/f1825d6e13cd46b2b6baf5d579285f47.shtml</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['12月1日至3日，东盟湖南商会来怀考察。在2日下午的座谈会上，市委副书记、市长黎春秋，省政府口岸办公室主任郭宁与东盟湖南商会负责人就深化合作交流座谈。市领导唐浩然、市政府秘书长李仕忠参加。', '座谈中，怀化经开区负责人介绍了怀化国际陆港与东盟物流产业园建设情况。西安陆港经济研究室、湖南大学产业发展研究中心、老挝湖南商会、菲律宾湖南商会、泰国湖南商会、缅甸湖南商会、柬埔寨湖南商会、越南湖南商会负责人就现代物流、文旅康养、新材料等领域，特别是东盟物流产业园建设开展合作进行深入交流。', '听取大家发言后，黎春秋向省政府口岸办长期以来对怀化交通物流、口岸建设、经济发展的全力支持表示感谢，对在东盟发展的湘商精英来怀考察表示欢迎。黎春秋说，怀化区位优越、资源集聚、产业发展来势强劲，商机无限。东盟湖南商会企业家朋友深耕东盟市场多年的资源，与怀化产业发展具有资源优势的互补性。希望双方成立工作组，进行无缝紧密对接，商会工作组拿出贸易项目、投资项目、物流项目清单和政策需求清单，怀化工作组要把东盟湖南商会提出的需求进一步细化、分解、研究透，并加快转化为项目落地。', '郭宁指出，湖南把全省五大国际货运集结中心中唯一的东盟货运集结中心设在怀化，形成了“口岸+通道+产业+园区+市场”五位一体融合发展。怀化有良好的营商环境和产业基础，市县党委政府为园区企业服务意识强，目前正全力推进怀化国际陆港和东盟物流产业园建设，这为东盟湖南商会企业家在怀投资兴业提供了千载难逢的机会。省政府口岸办将坚决落实省委省政府战略部署，把东盟资源导入怀化，出台支持通道发展运行的政策，为怀化打造东盟货运集结中心、物流通道服好务。', '在怀期间，考察团一行考察了怀化国际陆港、佳惠农产品物流园、武陵山国际物流商贸城，并深入怀化高新区、沅陵县、洪江区考察。']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>185</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>习近平在内蒙古考察调研</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2019-07-16</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/201907/a3f2608f7b9c447a94434f9eda438f5c.shtml</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['习近平总书记15日赴内蒙古自治区考察调研。他首先来到赤峰市松山区兴安街道临潢家园社区，了解社区基层党建、民族团结融合等情况。随后，他来到赤峰博物馆，了解当地历史文化沿革，同古典民族史诗《格萨(斯)尔》非物质文化遗产传承人亲切交谈。(记者张晓松、朱基钗、谢环驰)']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>185</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>杨一中赴三地对接考察项目</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2018-07-10</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101116/201807/e4ccdb9873aa4583adbb522ce1c3692e.shtml</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['7月3日至7日，辰溪县委书记杨一中专程赴深圳、北京、沧州对接考察项目。县委常委、副县长罗鹏程以及县委办、工业集中区管委会、商粮局负责人参加。', '杨一中一行先后参观考察了深圳华美兴泰科技、永昌达电子、合利来科技有限公司，北京同方能源科技发展有限公司，河北沧州吴桥盈丰钢结构铸钢件制造有限公司，听取了各企业运营、业务板块、企业文化、投产项目等情况介绍，并召开座谈会就合作事项进行洽谈。', '杨一中在考察时指出，产业强县关键在招商引资，要坚持精准定位、精致招商、精细服务、精确投入，突出产业招商，形成产业链条。一是要重点围绕工业集中区，将“引老乡、回故乡、建家乡”活动常态化，开展以“乡”招商和以商招商；二是要充分把握承接产业转移的重大机遇，抓好党政领导招商、部门招商、园区招商、产业链招商，引进国家高新技术产业，打造好辰溪新能源、新材料、电子信息、生物医药、文化动漫等产业；三是要注重招商企业的成长力和发展性，着力提升服务质量、服务效率和服务效果，实现互利双赢，让企业引得进、留得住、发展好。考察中，罗鹏程代表县政府与北京同方能源科技有限公司签订了《辰溪工业集中区集中供能项目框架合作协议》。']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>185</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>习近平在三明沙县考察调研</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2021-03-25</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202103/2955e9fc90fc46879935bf78d951d792.shtml</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['23日，正在福建省考察调研的习近平总书记，先后来到三明市沙县总医院、夏茂镇俞邦村、沙县农村产权交易中心，了解当地开展医药卫生体制改革、推进乡村振兴、深化林权制度改革等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、王晔、燕雁）']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>185</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>立足质量找差距千里取经补短板新晃县审计局赴郴州市审计局北湖区审计局考察学习先进经验</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/sjj/c100641/202310/dfe28c80ba554022ace51435b666d011.shtml</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['立足质量找差距 千里取经补短板--新晃县审计局赴郴州市审计局、北湖区审计局考察学习先进经验 - 市审计局', '立足质量找差距 千里取经补短板--新晃县审计局赴郴州市审计局、北湖区审计局考察学习先进经验', '10月15日至17日，为进一步开拓审计人员工作思路，提高审计项目质量，新晃县审计局党组书记、局长屈桂新带领局自然资源审计股、财政审计股、经济责任审计股、建设项目工程结算审计中心等业务股室（中心）一行9人赴郴州市审计局、北湖区审计局考察学习先进经验做法。', '16日上午，考察学习组一行到郴州市审计局，在学习交流会上，郴州市审计局党组成员、副局长李蔚介绍投资审计转型相关情况，党组成员、总审计师李芳介绍了优秀项目的争创经验和思路做法，拓宽了审计思路，为下一步打造省优、市优项目提出了宝贵的意见和建议。以优秀案例视频、课件为载体，生动、形象地介绍了郴州市审计局大数据审计、自然资源资产离任（任中）审计、审计整改工作和巡审联动、打造优秀项目等方面的审计思路、审计方法及审计成果，双方就优秀项目开展了研究讨论，产生了很好的互动交流效果。', '17日上午，考察学习组一行到郴州市北湖区审计局，交流学习会上，北湖区审计局主要负责人介绍北湖区审计项目质量的基本情况和取得的成效，并传授了争创优秀项目的经验和做法。围绕审计整改以及纪巡审“三类监督”贯通协同等方面进行经验分享，通过实地查阅资料、座谈交流等方式，查看优秀审计项目相关资料，并针对具体问题咨询讨论等方式进行了深入的对接学习和沟通交流。', '考察学习回来后，18日上午，考察组和县局办公室人员一起召开考察成果研讨会，大家纷纷围绕预算执行审计、经济责任审计、自然资源资产审计、重大政策跟踪审计、投资审计转型（项目谋划）等类型，从项目的计划安排、组织实施、现场管理、大数据应用、绩效考核、质量提升等方面进行了深入的剖析，重点对“项目两统筹”、“质量控制”、“风险防控”、“成果运用”、“队伍建设”等机制建设提出了建议。党组书记、局长屈桂新针对本次赴郴交流学习的收获进行了肯定,并就基层审计机关如何开展审计工作、提升审计质量、打造优秀项目提出三点要求：一是坚持依法审计。要充分认识审计工作的重要性，牢牢把握审计机关首先是政治机关的定位，加强法治教育，强化依法审计意识，提高审计人员依法审计能力。二是强化业务学习。扎实开展研究学习型审计，自觉加强对审计业务的学习，不断增强审计事业的发展动力，坚持科技强审，扩大审计广度和深度，促进审计工作提质增效。三是提升审计质量。认真落实“严真细实快”的工作要求，发扬斗争精神，增强斗争本领，做到敢审敢严、真审真严，全力建设“开放善谋、实干争先”的高素质专业化审计干部队伍。', '通过此次交流学习，县审计局干部进一步增强了审计工作信心，开拓了审计视野和工作思路，并将在今后工作中继续互学互鉴、共同进步，全面提高审计干部能查能写本领，更好地履行好审计监督职责。（作者：新晃县审计局：舒维秀 姚佳宁 审稿领导：屈桂新）']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>185</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>习近平在河南南阳考察调研</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2021-05-13</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202105/78c5196cfe86494aa3a6a20338a13e3c.shtml</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['习近平总书记12日在河南省南阳市考察调研。当天下午，他首先来到医圣祠，了解“医圣”张仲景生平及其对中医药发展作出的贡献。随后，习近平来到南阳月季博览园、南阳药益宝艾草制品有限公司，考察当地依托月季、艾草等资源优势发展特色产业，带动群众就业等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、王晔、燕雁）']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>185</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>怀化市委常委会召开扩大会议传达学习习近平总书记在湖南考察时的重要讲话和指示精神</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2024-03-24</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101112/202403/3ccb168549234ca88e8a3cacd65d45d5.shtml</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['怀化市委常委会召开扩大会议，传达学习习近平总书记在湖南考察时的重要讲话和指示精神 - 怀化市人民政府', '3月23日上午，市委常委会召开扩大会议，传达学习习近平总书记在湖南考察时的重要讲话和指示精神、新时代推动中部地区崛起座谈会精神及省委常委会（扩大）会议精神，对全市学习宣传贯彻工作作出初步安排部署。市委书记许忠建主持并讲话。', '会议指出，习近平总书记亲临湖南考察指导并在湖南主持召开新时代推动中部地区崛起座谈会，充分体现了对湖南的高度重视和亲切关怀。习近平总书记在考察沿途和汇报会上对湖南工作给予充分肯定，对做好下阶段工作提出殷切期望，为湖南发展作出了重大战略指引，指明了根本前进方向。习近平总书记考察期间发表的系列重要讲话和指示，与党的十八大以来习近平总书记关于湖南工作的重要讲话和指示批示精神既一脉相承又与时俱进，与习近平总书记2020年来湘考察时为湖南描绘的“三高四新”美好蓝图有机衔接，反映了习近平总书记对湖南工作一以贯之的思路和要求。全市各级党组织和党员、干部要认真学习、深刻领会习近平总书记重要讲话和指示精神，切实转化为做好各项工作的强大动力，坚定不移沿着习近平总书记指引的方向前进，坚持改革创新、求真务实，深入实施“五新四城”战略，巩固和增强追赶上升的发展势头，加快推动高质量发展，奋力谱写中国式现代化怀化篇章。', '会议强调，学习宣传贯彻习近平总书记重要讲话和指示精神，是当前和今后一个时期全市的首要政治任务。全市各级党委（党组）要按照省委统一部署和市委具体要求，结合实际细化贯彻落实措施，以雷厉风行的作风和钉钉子精神抓贯彻落实，确保不折不扣落实到位。要认真组织开展专题学习研讨，注重与习近平总书记历次关于湖南工作的重要讲话和指示批示精神结合起来，与习近平总书记在新时代推动中部地区崛起座谈会上的重要讲话精神结合起来，联系实际一体学习、一体思考、一体落实。各级领导干部要带头学习领会、带头宣传宣讲、带头贯彻落实。要组织好宣传宣讲，把习近平总书记的亲切关怀和工作要求传递到千家万户，做到家喻户晓、深入人心。要把习近平总书记重要讲话和指示精神作为各级党校（行政学院、社会主义学院）教育培训的重要内容，分批次对全市各级干部开展专题培训。要及时跟踪调度各级各部门贯彻落实的情况，迅速推动兴起学习宣传贯彻的热潮。']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>185</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>习近平在海南三亚市考察调研</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2022-04-12</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202204/654a1de510754e5d8cf128279169852e.shtml</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['10日下午，习近平总书记在海南省三亚市先后考察了崖州湾种子实验室、中国海洋大学三亚海洋研究院，了解海南支持种业创新、发展海洋科技等情况。（文字记者：张晓松、朱基钗；摄影记者：李学仁、谢环驰、燕雁）']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>185</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>铜仁市党政代表团来怀考察</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2014-11-25</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101111/201411/a3939517e8774e419fd4011f1caa0556.shtml</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['11月24日，贵州省铜仁市委书记刘奇凡，市委副书记、市长夏庆丰率领铜仁市党政代表团来怀考察。市领导彭国甫、赵应云、石希欣、谢宏有、李自成陪同考察或出席交流座谈会。铜仁市领导皮贵怀、陈代文、张明、冉晓东、汤志平参加考察。', '铜仁市党政代表团首先来到怀化工业园考察娃哈哈恒枫饮料有限公司。该项目总投资3000万美元，项目一期引进两条具有世界领先水平的全自动饮料生产线，于2009年8月竣工投产，生产的主要产品有娃哈哈系列茶饮料、果汁饮料、乳饮料及碳酸饮料等，年产值达5亿元。二期两条发酵奶饮料生产线于2013年11月开工，今年3月投产，达产后可形成12亿元以上的销售收入，实现税收过亿元。当得知公司的系列产品有很大一部分销往铜仁市场时，刘奇凡表示，双方要进一步加强合作，实现互利双赢。在湖南正清制药集团股份有限公司，代表团成员详细询问企业的产品、市场前景，对公司发展予以高度评价。在考察沪昆客专怀化南站站前广场及交通枢纽项目时，刘奇凡称赞该项目高端大气，有震撼力。在市民服务中心，代表团成员考察了办事大厅运营情况。刘奇凡说，怀化市市民服务中心推行标准化、便民化服务，彰显了怀化市委、市政府改革创新、为民服务的理念，值得铜仁市学习。代表团成员还考察了中国怀化国际汽车城。', '考察中，怀化日益优越的交通区位优势、良好的产业发展态势、日新月异的城市建设、生机蓬勃的发展活力，赢得了铜仁市党政代表团的交口称赞。', '在下午召开的两市工作情况交流会上，彭国甫说，铜仁是怀化的好邻居、好兄弟、好朋友。此次铜仁市党政代表团来怀考察，让我们感到很亲切，很受鼓舞。铜仁是个令人神往的地方、令人羡慕的地方、令人感到亲切的地方。怀化与铜仁山同脉、水同源、民同俗、经济同型。近年来，铜仁市经济、社会、民生、生态、党的建设都取得了巨大成绩，让人钦佩，值得我们认真学习。', '彭国甫指出，怀化市与铜仁市都是武陵山片区扶贫攻坚主战场和少数民族集中居住地区，双方合作发展的基础良好、前景广阔。希望双方进一步加强产业发展合作，深化生态文化旅游产业、生物医药和民族医药产业、商贸物流产业等合作，加强产业园区合作，推动怀化新晃前锋工业园与铜仁玉屏大龙工业园合作，建立武陵山大（龙）新（晃）经济协作示范区，共创国家级园区，探索发展省际边区经济发展的新模式、新路子。加强交通建设特别是跨区域重大交通项目建设合作，加快推进怀化至铜仁高速公路建设，争取尽快启动建设。加强社会公共服务合作，积极推进教育培训、公共卫生、医疗服务等领域合作，加强环境保护、区域突发事件应急管理合作。', '刘奇凡说，此次来怀考察，充分感受到了怀化改革开放和现代化建设取得的成就，感受到了怀化发展的蓬勃生机与活力。多年来，怀化对铜仁的发展非常重视、关心，给予了很多帮助。怀化是铜仁发展的宝贵资源和可靠力量，希望怀化一如既往地关心支持铜仁的发展。我们要学习怀化城市规划建设管理、现代农业发展、工业园区建设、市场建设等方面的好做法、好经验。', '刘奇凡指出，双方要进一步深化合作。怀化与铜仁同处武陵山，共饮一江水。铜仁发展的出路是向东开放，怀化是铜仁向东开放的桥头堡。铜仁要通过与怀化的合作，把过去的边远地区变成发展的前沿。要推动上游与下游的合作，加强水源、森林、资源的保护，建立流域互通机制。要搞好生产与销售的关系。怀化是交通枢纽，物流体系发达，市场覆盖面广，双方可以在产业链条延伸、功能配套、园区共建等方面加强合作。要加强城市与城市的合作。两地资源禀赋各有千秋，产业发展互补性强，双方可以在文化旅游、市场联动、交通建设等方面加强合作，共同推进武陵山区域快速发展。']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>185</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>习近平在浙江省安吉县考察</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2020-03-31</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c108499/202003/3566a377de434e0c911f2558df04994a.shtml</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['习近平总书记30日在浙江省安吉县天荒坪镇余村考察，同村民们亲切交谈，了解该村多年来践行“绿水青山就是金山银山”理念、推动绿色发展发生的巨大变化。随后，习近平前往安吉县社会矛盾纠纷调处化解中心调研，了解基层矛盾纠纷调解工作情况。（文字记者：张晓松、杨维汉、朱基钗 摄影记者：鞠鹏、申宏、燕雁）']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>185</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>武汉华中师范大学考察团莅临鹤城区考察野生植物保护工作</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2019-12-05</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/nyncj/c108770/201912/cca879c6872c4830be4c288affd4e211.shtml</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['保护野生植物是践行习近平总书记提出的“绿水青山就是金山银山”的理念的重要措施。近年来，鹤城区农业农村局党组高度重视野生植物保护工作，加大措施着力打造“生态鹤城、绿色鹤城”，鹤城区内多样的野生植物资源得到有效保护。', '为深入了解我区野生植物资源及其保护工作，2019年12月3日，武汉华中师大教授刘胜祥和湖南省自然资源管理处张思娟处长等四人来到怀化市鹤城区黄岩野生杜鹃保护点进行考察。这也是该保护点今年迎来的第二批考察团。刘胜祥教授是植物专家，他这次组团考察正是为今后科研作准备。', '考察团各位领导和专家、学者沿着保护点的巡查通道一路仔细查看，当看到保护点内多个品种的野生杜鹃时，他们感到无比惊喜，对鹤城区野生植物保护工作予以高度评价。刘教授对每一个杜鹃花品种都进行了拍照，并详细作了记录。考察团还使用“无人机”对保护点核心区域和缓冲区域进行了拍照和录像。对于此次考察，各位专家、学者他们表示收获非常大。']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>185</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>共同推动两地进出口贸易发展柬埔寨四星将军速莫尼率考察团来怀考察</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2023-04-13</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c200023/202304/01ca30d562b249a5825b59222f2777ac.shtml</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['共同推动两地进出口贸易发展 柬埔寨四星将军速莫尼率考察团来怀考察 - 怀化市人民政府', '4月11日至12日，在市侨联和柬埔寨湖南总商会的牵线搭桥下，柬埔寨四星将军速莫尼率考察团来怀考察。副市长邹兴旺参加。', '在怀期间，考察团一行先后考察了怀化国际陆港、湖南逛家家贸易有限公司、湖南奥谱隆科技股份有限公司、怀化天天食品科技有限公司等地，通过实地走访、听取介绍、交流讨论，详细了解我市以种业为代表的特色农业和食品加工业产业链及进出口贸易发展情况、怀化国际陆港的具体规划和国际货运班列的运行情况。', '考察团对我市进出口贸易发展现状和未来前景给予了充分肯定。他们表示，我市企业理念先进、产品种类丰富、品质独一无二、销售渠道成熟，希望以此次考察为契机，与我市企业能够深度磋商合作项目，共同推动两地进出口贸易发展。', '邹兴旺表示，随着怀化国际陆港的建设运行，我市进出口贸易不断发展，希望进一步发挥好市侨联和柬埔寨湖南总商会的作用，加强柬埔寨与怀化的交流，进一步深化区域合作，以谋求多领域、深层次、全方位的互利共赢。']</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>185</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>雷绍业带队赴深圳珠海招商考察</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2021-11-12</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101112/202111/409032f72c404a459ad7b80fe912165c.shtml</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['11月10日至11日，市委书记雷绍业带队赴深圳、珠海招商考察。图为雷绍业与珠海格力电器股份有限公司董事长、总裁董明珠座谈。', '雷绍业来到广东省湖南怀化商会看望慰问怀化籍企业家代表。（以上照片均由记者 杨智伟 摄）', '11月10日至11日，市委书记雷绍业带队赴深圳、珠海招商考察，分别与珠海格力电器股份有限公司董事长、总裁董明珠，健帆生物科技集团股份有限公司董事长、总裁董凡，惠科集团总裁王智勇进行座谈，双方真诚交流，坦诚相待，实现互利共赢、共同发展。市领导唐浩然、李卫林参加。', '“格力集团始终坚持科技自立自强，把创新作为第一生产力，把关键核心技术牢牢掌握自己手中。智能制造有高度、企业文化有厚度、对待顾客有温度，是民族企业的翘楚、中国制造业的骄傲。”在珠海格力电器股份有限公司，雷绍业说，董明珠董事长的家国情怀、创新精神、敬业精神，令我们十分敬佩，是我们学习的榜样。', '雷绍业指出，当前，怀化正深入学习习近平总书记“七一”重要讲话精神和考察湖南重要讲话重要指示批示精神，大力实施“三高四新”战略，奋力建设“三城一区”，交通区位、绿色生态、营商环境等优势加速释放，怀化国际陆港、东盟国际物流产业园建设强力推进，对外开放平台进一步扩大。诚邀董明珠董事长带领格力团队来怀投资考察，把先进理念、技术、产品带到怀化。怀化将以全力提供最优政策、最优环境和最好服务，让企业在怀投资放心、发展安心、工作舒心。', '董明珠表示，将尽快带领工作团队来怀考察，从项目配套、资源条件、交通运输等方面进行实地调研，加强沟通对接，积极寻找契合点，推动双方合作取得进展、取得实效。', '在健帆集团，雷绍业了解企业发展历程、研发成果等。他说，健帆集团具有强烈责任意识和担当精神，作为中国血液净化行业的领军企业，在疫情防控、扶弱助困上彰显了大爱情怀。希望董凡董事长常回家乡看看，把怀化作为梦想的新起点、事业的新平台，积极投身家乡建设的火热实践。', '惠科集团是一家专注于半导体显示领域核心部件制造的企业。雷绍业在实地考察后说，惠科集团凭借着强大的管理、技术、资源等优势，在短时间内，已成为中国液晶面板行业的领军企业和龙头标杆。热忱欢迎王智勇董事长来怀化考察指导、投资兴业，共同打造大西南片区显示材料产业项目高地。', '雷绍业一行还来到广东省湖南怀化商会，看望慰问了怀化籍企业家代表。希望广大怀商心系家乡，在做优做强做大企业的同时，更大力度参与家乡建设，多宣传怀化、推荐怀化，助力家乡高质量跨越式发展。他指出，家乡将永远是大家最坚强的“后盾”，永远是你们最温暖的“家”。']</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>185</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>靖州赴通道绥宁考察非遗工作</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2016-09-14</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/mzswj/c108772/201609/f29b0bc6c8b44628945b436aa3906186.shtml</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['近日，靖州县民宗文体旅游广电局党组成员吴才政带领申遗办工作人员及新厂镇新街村、寨牙乡岩脚村两个申遗侗寨村干部赴绥宁县、通道县，考察已进入世界文化遗产预备名单的上堡、平坦、横岭等申遗侗寨，学习兄弟县的申遗先进经验。', '此次考察学习参观了绥宁县的大团、上堡侗寨，通道平坦、横岭等侗寨，与两县的申遗办、文物部门相关负责人开展座谈交流学习两县侗寨在文物保护、整体规划、三省联合申遗等方面的先进经验。两天的考察学习，大家收获颇多，感触特别深，一致认为两县申遗先进经验将进一步助推该县侗寨申遗工作的开展。']</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A178" t="n">
+        <v>185</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>郴州市党政代表团来怀考察</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2014-07-01</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101111/201407/f87655469a0d4808b97ab009608d5fe1.shtml</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>['6月30日，由郴州市委书记向力力，郴州市委副书记、市长瞿海率领的郴州市党政代表团来怀考察。市领导彭国甫、李晖、李军、谢宏有陪同考察。郴州市领导刘和生、钟本强、陈社招、首建中、周迎春、雷晓达参加考察。', '怀化市市民服务中心项目是经省政府同意、省发改委批准实施的怀化市市直单位办公楼代建联建试点工程，占地面积约100亩，建筑面积8.94万平方米，入驻单位60个。郴州市党政代表团考察了市民服务中心办事大厅，了解相关业务开展情况。向力力表示，怀化市市民服务中心符合“两型”社会建设要求，体现了节约发展、集约发展，有利于提高办事效率，节省投资，盘活资产，拉动城市建设。', '走进湖天中学，绿树成萌、景色优美、环境幽雅。该校由市政府投资3亿元修建，占地150亩，建筑面积38000平方米，设计办学规模为60个教学班级。学校建有现代化的教学楼、办公楼、科教楼、图书馆、体育馆等。向力力一行称赞湖天中学硬件基础好，办学起点高。', '中国.怀化国际汽车城是怀化市“十二五”重点商贸物流项目。2014年，计划完成7家4S店建设，新建9家4S店，启动二手车交易市场和配件市场建设，投资3亿元。今年4月，湖南省第六届汽车展销节在国际会展中心举行，销售汽车1327台，成交金额1.8亿元。向力力说，怀化.国际汽车城引进了汽车综合体概念，不仅为汽车企业打造了一个展示的平台 ，也方便了老百姓选车购车。这个项目将更好地带动怀化汽车消费，也将辐射周边区域。', '夏日的鹤鸣洲草坪吐绿，树木葱郁，溪流潺潺。太平溪综合治理工程是我市城市基础设施重点建设项目，全长14.18公里，总投资15.8亿元。项目分三期建设，一期已建成使用，二期主体基本建成，三期正在建设。向力力称赞这项惠民工程既有效解决了城市污水治理、防洪保安等问题，又改善了城市环境，提高了市民生活质量。', '考察中，郴州市党政代表协和表示，怀化基础设施日益完善，城市建设日新月异，很多发展思路和经验值得郴州学习借鉴。希望两市进一步加强交流合作，实现互利共赢。']</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A179" t="n">
+        <v>185</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>习近平在浙江绍兴市考察调研</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>http://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202309/t20230922_29497698.html</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>['20日下午，习近平总书记在浙江省绍兴市考察。他来到枫桥经验陈列馆，重温“枫桥经验”诞生演进历程，了解新时代“枫桥经验”创新发展情况，并前往浙东运河文化园，了解古运河发展演变历史和大运河保护及大运河国家文化公园建设等情况。（文字记者：张晓松、朱基钗；摄影记者：李学仁、谢环驰、燕雁）']</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A180" t="n">
+        <v>185</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>湖南金荣集团到中方考察交流</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>2018-11-13</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101116/201811/8be625bf292440d7ad2d7bd10133a8f3.shtml</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>['月12日，湖南金荣集团一行到中方考察交流，中方县委副书记、县长张家铣，县领导王竹及相关单位负责人参加。', '座谈会上，考察团重点介绍了金荣集团在园区定位、招商、运营、大数据等方面的情况。在详细听取了考察团的介绍后，张家铣认为，金荣集团的强项，正是我们发展需要弥补的短板，我县是农业大县，农产品资源丰富，区位优势明显，双方有很多可以合作的机会，期待双方进一步认真研究，深入探讨，真诚合作，把中方特色农产品推销出去，推动电子商务的发展。']</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A181" t="n">
+        <v>185</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>浙江远见集团来怀化投资考察</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>2018-05-23</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>http://www.huaihua.gov.cn/huaihua/c101115/201805/45f988ae94c647dd9053dbb247397167.shtml</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>['为落实市委、市政府关于“创建全域旅游示范市、打造文化旅游千亿产业”的重要指示精神，促进全市旅游经济发展，推动全市旅游产业发展。5月18日—20日，市旅游外事侨务局特邀浙江远见集团董事长、总裁袁健先生一行，来怀化考察旅游投资项目。袁健先生一行实地考察了鹤城、沅陵、辰溪、麻阳等县市区，并与市委副书记、市长雷绍业、副市长毛健刚等领导进行了深入交流。', '袁健先生一行对怀化生态文化旅游资源表现出浓厚兴趣，认为怀化市山水相依、风光秀美、生态优良、人文底蕴浓厚，有世界级生态文化旅游资源禀赋，旅游产业发展有较好的基础，具备打造成为国际旅游目的地的潜质。特别是对“千里沅江、百座庄园”项目高度关注，将进一步组织投资合作伙伴深入考察，争取尽快进入实质性投资。']</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A182" t="n">
+        <v>185</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>习近平在江西九江市考察调研</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>2023-10-11</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>http://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202310/t20231011_31663318.html</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>['10日下午，习近平总书记在江西省九江市先后考察了长江国家文化公园九江城区段、中国石化九江分公司，了解当地长江国家文化公园建设、长江岸线生态修复、石化企业转型升级绿色发展等情况。（文字记者：张晓松、林晖；摄影记者：鞠鹏、谢环驰、燕雁、刘彬）']</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A183" t="n">
+        <v>185</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>怀化市</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>习近平在湖南常德市考察调研</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>2024-03-19</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>https://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202403/t20240319_33257565.html</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>['19日，习近平总书记在湖南省常德市，先后考察了常德河街、鼎城区谢家铺镇港中坪村，了解历史文化街区修复利用、城市水环境综合治理和春耕备耕、提升基层治理效能等情况。']</t>
         </is>
